--- a/works.xlsx
+++ b/works.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\OneDrive\Desktop\itgorae\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSAFY\Desktop\itgorae\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61DC9E4D-F30C-4071-AF9C-C4BD3CA8B754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23258" windowHeight="12458"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
   <si>
     <t>제목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,10 +41,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>오늘할일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1차</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -246,35 +241,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">SQL 2문제 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>자소서</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>알고리즘 힙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>API 명세</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">디자인 (테일윈드 frameMotion)
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>돌돌이 팔굽 4키로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>책 30프로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>IT 물류 솔루션</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -283,10 +253,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>POS까지 진입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>결제까지 진입</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -388,13 +354,53 @@
   </si>
   <si>
     <t>고구마런</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테일윈드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL 2문제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디자인 상품등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정처기 2개 풀기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알고리즘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금주 과업(9/30 주)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반정규화(JOIN시간)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -477,7 +483,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -602,6 +608,77 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -611,7 +688,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -651,26 +728,47 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -952,34 +1050,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="22.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.09765625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.69921875" customWidth="1"/>
-    <col min="12" max="12" width="14.69921875" customWidth="1"/>
-    <col min="13" max="13" width="14.8984375" customWidth="1"/>
+    <col min="1" max="1" width="22.1875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.375" customWidth="1"/>
+    <col min="12" max="12" width="14.6875" customWidth="1"/>
+    <col min="13" max="13" width="14.875" customWidth="1"/>
     <col min="14" max="14" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.09765625" customWidth="1"/>
-    <col min="16" max="16" width="17.3984375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.3984375" customWidth="1"/>
-    <col min="18" max="18" width="18.8984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.125" customWidth="1"/>
+    <col min="16" max="16" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.375" customWidth="1"/>
+    <col min="18" max="18" width="18.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -988,507 +1086,510 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="G1" s="3"/>
-      <c r="H1" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="16"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="18"/>
+      <c r="H1" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="I1" s="15"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="17"/>
       <c r="L1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="O1" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q1" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R1" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-    </row>
-    <row r="2" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+        <v>21</v>
+      </c>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+    </row>
+    <row r="2" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A2" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="5">
         <v>45545</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="18"/>
+      <c r="H2" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="I2" s="18"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="17"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="R2" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.4">
+        <v>71</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A3" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="5">
         <v>45545</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G3" s="3"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="18"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="17"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-    </row>
-    <row r="4" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+        <v>79</v>
+      </c>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+    </row>
+    <row r="4" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A4" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="5">
         <v>45546</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="18"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="17"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="N4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O4" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18"/>
-    </row>
-    <row r="5" spans="1:21" ht="14.85" customHeight="1" x14ac:dyDescent="0.4">
+        <v>53</v>
+      </c>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+    </row>
+    <row r="5" spans="1:21" ht="14.85" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A5" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="5">
         <v>45549</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="18"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="17"/>
       <c r="L5" s="2"/>
-      <c r="M5" s="2" t="s">
-        <v>63</v>
-      </c>
+      <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="18"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.4">
+        <v>80</v>
+      </c>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A6" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="5">
         <v>45553</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="18"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="17"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.4">
+        <v>78</v>
+      </c>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A7" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="5">
         <v>45553</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="18"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="17"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="S7" s="18"/>
-      <c r="T7" s="18"/>
-      <c r="U7" s="18"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.4">
+        <v>81</v>
+      </c>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A8" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="5">
         <v>45554</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="18"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="17"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="18"/>
-      <c r="U8" s="18"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A9" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" s="5">
         <v>45554</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="18"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="17"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="18"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A10" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="5">
         <v>45554</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="18"/>
-      <c r="M10" s="12"/>
-      <c r="T10" s="18"/>
-      <c r="U10" s="18"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="H10" s="20"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="17"/>
+      <c r="M10" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A11" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" s="5">
         <v>45554</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="18"/>
-      <c r="M11" s="12"/>
-      <c r="T11" s="18"/>
-      <c r="U11" s="18"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="H11" s="20"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="17"/>
+      <c r="M11" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="C12" s="5">
         <v>45554</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="18"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="17"/>
       <c r="M12" s="12"/>
-      <c r="T12" s="18"/>
-      <c r="U12" s="18"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="N12" t="s">
+        <v>82</v>
+      </c>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A13" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="5">
         <v>45554</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="18"/>
-      <c r="T13" s="18"/>
-      <c r="U13" s="18"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="H13" s="20"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A14" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="5">
         <v>45554</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="18"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="H14" s="20"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="17"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A15" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="5">
         <v>45554</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="H15" s="20"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="22"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A16" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" s="5">
         <v>45558</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="H16" s="20"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="22"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A17" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="5">
@@ -1497,19 +1598,19 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="22"/>
       <c r="L17" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A18" s="4" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C18" s="5">
         <v>45560</v>
@@ -1517,19 +1618,19 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="22"/>
       <c r="L18" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A19" s="4" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C19" s="5">
         <v>45560</v>
@@ -1537,13 +1638,16 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="H19" s="20"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="22"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A20" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" s="5">
         <v>45562</v>
@@ -1551,10 +1655,13 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="H20" s="20"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="22"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A21" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="5">
@@ -1563,10 +1670,13 @@
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="H21" s="20"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="22"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A22" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="5">
@@ -1575,10 +1685,13 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="H22" s="20"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="22"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A23" s="4" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="5">
@@ -1587,10 +1700,13 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="H23" s="20"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="22"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A24" s="4" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="5">
@@ -1599,54 +1715,111 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="H24" s="20"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="22"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A25" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="5"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="H25" s="20"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="22"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A26" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="H26" s="20"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="22"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A27" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="5"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="22"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="H28" s="20"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="22"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="H29" s="20"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="22"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="H30" s="20"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="22"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="H31" s="20"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="22"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="H32" s="20"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="22"/>
+    </row>
+    <row r="33" spans="8:10" x14ac:dyDescent="0.6">
+      <c r="H33" s="20"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="22"/>
+    </row>
+    <row r="34" spans="8:10" x14ac:dyDescent="0.6">
+      <c r="H34" s="20"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="22"/>
+    </row>
+    <row r="35" spans="8:10" x14ac:dyDescent="0.6">
+      <c r="H35" s="20"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="22"/>
+    </row>
+    <row r="36" spans="8:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="H36" s="23"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="25"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F18" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F27">
+  <autoFilter ref="A1:F18">
+    <sortState ref="A2:F27">
       <sortCondition ref="C1:C18"/>
     </sortState>
   </autoFilter>
   <mergeCells count="5">
-    <mergeCell ref="H2:J18"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="K1:K14"/>
     <mergeCell ref="S1:U8"/>
     <mergeCell ref="T9:U13"/>
+    <mergeCell ref="H2:J36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="L18" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="L17" r:id="rId2" xr:uid="{7E0EEAD4-7679-4529-89F6-87B07E3895F2}"/>
+    <hyperlink ref="L18" r:id="rId1"/>
+    <hyperlink ref="L17" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>

--- a/works.xlsx
+++ b/works.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSAFY\Desktop\itgorae\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\OneDrive\Desktop\itgorae\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D594F2F4-089F-4172-BC43-AE3E340972C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23258" windowHeight="12458"/>
+    <workbookView xWindow="492" yWindow="1860" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$18</definedName>
   </definedNames>
   <calcPr calcId="145621" refMode="R1C1"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="95">
   <si>
     <t>제목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -253,18 +255,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>결제까지 진입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">SQL2문제 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>알고리즘 1문제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>하나은행</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -394,13 +384,37 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정처기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알고리즘 , 복습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어 결제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>css</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청년수당쓰기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sqld 4문제</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -743,6 +757,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -752,7 +769,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -765,9 +782,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1050,29 +1064,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="22.1875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.375" customWidth="1"/>
-    <col min="12" max="12" width="14.6875" customWidth="1"/>
-    <col min="13" max="13" width="14.875" customWidth="1"/>
+    <col min="1" max="1" width="22.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.09765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.3984375" customWidth="1"/>
+    <col min="12" max="12" width="14.69921875" customWidth="1"/>
+    <col min="13" max="13" width="14.8984375" customWidth="1"/>
     <col min="14" max="14" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.125" customWidth="1"/>
-    <col min="16" max="16" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.375" customWidth="1"/>
-    <col min="18" max="18" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.09765625" customWidth="1"/>
+    <col min="16" max="16" width="17.3984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.3984375" customWidth="1"/>
+    <col min="18" max="18" width="18.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1093,7 +1107,7 @@
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="14" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I1" s="15"/>
       <c r="J1" s="16"/>
@@ -1123,7 +1137,7 @@
       <c r="T1" s="17"/>
       <c r="U1" s="17"/>
     </row>
-    <row r="2" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
@@ -1141,34 +1155,34 @@
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="I2" s="18"/>
-      <c r="J2" s="19"/>
+      <c r="H2" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="I2" s="19"/>
+      <c r="J2" s="20"/>
       <c r="K2" s="17"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R2" s="13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="S2" s="17"/>
       <c r="T2" s="17"/>
       <c r="U2" s="17"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
@@ -1188,32 +1202,32 @@
         <v>51</v>
       </c>
       <c r="G3" s="3"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="22"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="23"/>
       <c r="K3" s="17"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="S3" s="17"/>
       <c r="T3" s="17"/>
       <c r="U3" s="17"/>
     </row>
-    <row r="4" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
         <v>33</v>
       </c>
@@ -1229,23 +1243,23 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="22"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="23"/>
       <c r="K4" s="17"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R4" s="2" t="s">
         <v>53</v>
@@ -1254,7 +1268,7 @@
       <c r="T4" s="17"/>
       <c r="U4" s="17"/>
     </row>
-    <row r="5" spans="1:21" ht="14.85" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:21" ht="14.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -1270,28 +1284,30 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="22"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="23"/>
       <c r="K5" s="17"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
+      <c r="N5" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="O5" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S5" s="17"/>
       <c r="T5" s="17"/>
       <c r="U5" s="17"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
@@ -1307,26 +1323,28 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="22"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="23"/>
       <c r="K6" s="17"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
+      <c r="N6" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="S6" s="17"/>
       <c r="T6" s="17"/>
       <c r="U6" s="17"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
         <v>40</v>
       </c>
@@ -1344,26 +1362,28 @@
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="22"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="23"/>
       <c r="K7" s="17"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
+      <c r="N7" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="O7" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="S7" s="17"/>
       <c r="T7" s="17"/>
       <c r="U7" s="17"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
         <v>50</v>
       </c>
@@ -1377,17 +1397,19 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="22"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="23"/>
       <c r="K8" s="17"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="N8" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="O8" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
@@ -1396,7 +1418,7 @@
       <c r="T8" s="17"/>
       <c r="U8" s="17"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
@@ -1412,17 +1434,17 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="22"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="23"/>
       <c r="K9" s="17"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
@@ -1430,7 +1452,7 @@
       <c r="T9" s="17"/>
       <c r="U9" s="17"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
@@ -1446,17 +1468,17 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="22"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="23"/>
       <c r="K10" s="17"/>
       <c r="M10" s="12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="T10" s="17"/>
       <c r="U10" s="17"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
@@ -1472,17 +1494,17 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="22"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="23"/>
       <c r="K11" s="17"/>
       <c r="M11" s="12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="T11" s="17"/>
       <c r="U11" s="17"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
@@ -1498,18 +1520,18 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="22"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="23"/>
       <c r="K12" s="17"/>
       <c r="M12" s="12"/>
       <c r="N12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="T12" s="17"/>
       <c r="U12" s="17"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
         <v>46</v>
       </c>
@@ -1525,14 +1547,14 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="22"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="23"/>
       <c r="K13" s="17"/>
       <c r="T13" s="17"/>
       <c r="U13" s="17"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A14" s="4" t="s">
         <v>34</v>
       </c>
@@ -1546,12 +1568,12 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="22"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="23"/>
       <c r="K14" s="17"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A15" s="4" t="s">
         <v>35</v>
       </c>
@@ -1564,11 +1586,11 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="22"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.6">
+      <c r="H15" s="21"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="23"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A16" s="4" t="s">
         <v>47</v>
       </c>
@@ -1583,11 +1605,11 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="22"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="H16" s="21"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="23"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" s="4" t="s">
         <v>48</v>
       </c>
@@ -1598,16 +1620,16 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="22"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="23"/>
       <c r="L17" s="11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.6">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>54</v>
@@ -1618,16 +1640,16 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="22"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="23"/>
       <c r="L18" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>55</v>
@@ -1638,11 +1660,11 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="22"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="H19" s="21"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="23"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" s="4" t="s">
         <v>26</v>
       </c>
@@ -1655,11 +1677,11 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="22"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="H20" s="21"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="23"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21" s="4" t="s">
         <v>8</v>
       </c>
@@ -1670,13 +1692,13 @@
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="22"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="H21" s="21"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="23"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="5">
@@ -1685,13 +1707,13 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="22"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="H22" s="21"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="23"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="5">
@@ -1700,13 +1722,13 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="22"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="H23" s="21"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="23"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A24" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="5">
@@ -1715,11 +1737,11 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="22"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="H24" s="21"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="23"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25" s="4" t="s">
         <v>9</v>
       </c>
@@ -1728,11 +1750,11 @@
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="22"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="H25" s="21"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="23"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A26" s="4" t="s">
         <v>18</v>
       </c>
@@ -1741,11 +1763,11 @@
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="22"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="H26" s="21"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="23"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A27" s="4" t="s">
         <v>10</v>
       </c>
@@ -1754,58 +1776,58 @@
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="22"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="H28" s="20"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="22"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="H29" s="20"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="22"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="H30" s="20"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="22"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="H31" s="20"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="22"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="H32" s="20"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="22"/>
-    </row>
-    <row r="33" spans="8:10" x14ac:dyDescent="0.6">
-      <c r="H33" s="20"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="22"/>
-    </row>
-    <row r="34" spans="8:10" x14ac:dyDescent="0.6">
-      <c r="H34" s="20"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="22"/>
-    </row>
-    <row r="35" spans="8:10" x14ac:dyDescent="0.6">
-      <c r="H35" s="20"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="22"/>
-    </row>
-    <row r="36" spans="8:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="H36" s="23"/>
-      <c r="I36" s="24"/>
-      <c r="J36" s="25"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="23"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="H28" s="21"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="23"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="H29" s="21"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="23"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="H30" s="21"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="23"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="H31" s="21"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="23"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="H32" s="21"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="23"/>
+    </row>
+    <row r="33" spans="8:10" x14ac:dyDescent="0.4">
+      <c r="H33" s="21"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="23"/>
+    </row>
+    <row r="34" spans="8:10" x14ac:dyDescent="0.4">
+      <c r="H34" s="21"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="23"/>
+    </row>
+    <row r="35" spans="8:10" x14ac:dyDescent="0.4">
+      <c r="H35" s="21"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="23"/>
+    </row>
+    <row r="36" spans="8:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="H36" s="24"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="26"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F18">
-    <sortState ref="A2:F27">
+  <autoFilter ref="A1:F18" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F27">
       <sortCondition ref="C1:C18"/>
     </sortState>
   </autoFilter>
@@ -1818,8 +1840,8 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="L18" r:id="rId1"/>
-    <hyperlink ref="L17" r:id="rId2"/>
+    <hyperlink ref="L18" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="L17" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>

--- a/works.xlsx
+++ b/works.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\OneDrive\Desktop\itgorae\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D594F2F4-089F-4172-BC43-AE3E340972C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="492" yWindow="1860" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="495" yWindow="1860" windowWidth="17280" windowHeight="8880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +13,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$18</definedName>
   </definedNames>
   <calcPr calcId="145621" refMode="R1C1"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -383,39 +376,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>정처기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알고리즘 , 복습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어 결제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>css</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청년수당쓰기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sqld 4문제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정처기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>알고리즘 , 복습</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영어 결제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>css</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>청년수당쓰기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sqld 4문제</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1057,36 +1050,36 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="22.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.09765625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.3984375" customWidth="1"/>
-    <col min="12" max="12" width="14.69921875" customWidth="1"/>
-    <col min="13" max="13" width="14.8984375" customWidth="1"/>
+    <col min="1" max="1" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.375" customWidth="1"/>
+    <col min="12" max="12" width="14.75" customWidth="1"/>
+    <col min="13" max="13" width="14.875" customWidth="1"/>
     <col min="14" max="14" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.09765625" customWidth="1"/>
-    <col min="16" max="16" width="17.3984375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.3984375" customWidth="1"/>
-    <col min="18" max="18" width="18.8984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.125" customWidth="1"/>
+    <col min="16" max="16" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.375" customWidth="1"/>
+    <col min="18" max="18" width="18.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:21" ht="17.25" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1137,7 +1130,7 @@
       <c r="T1" s="17"/>
       <c r="U1" s="17"/>
     </row>
-    <row r="2" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:21" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
@@ -1156,7 +1149,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="3"/>
       <c r="H2" s="18" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="I2" s="19"/>
       <c r="J2" s="20"/>
@@ -1166,7 +1159,7 @@
         <v>80</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>61</v>
@@ -1182,7 +1175,7 @@
       <c r="T2" s="17"/>
       <c r="U2" s="17"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:21">
       <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
@@ -1227,7 +1220,7 @@
       <c r="T3" s="17"/>
       <c r="U3" s="17"/>
     </row>
-    <row r="4" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:21" ht="17.100000000000001" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>33</v>
       </c>
@@ -1252,7 +1245,7 @@
         <v>82</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>63</v>
@@ -1268,7 +1261,7 @@
       <c r="T4" s="17"/>
       <c r="U4" s="17"/>
     </row>
-    <row r="5" spans="1:21" ht="14.85" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:21" ht="14.85" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -1291,7 +1284,7 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O5" s="2" t="s">
         <v>64</v>
@@ -1307,7 +1300,7 @@
       <c r="T5" s="17"/>
       <c r="U5" s="17"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:21">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
@@ -1330,7 +1323,7 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -1344,7 +1337,7 @@
       <c r="T6" s="17"/>
       <c r="U6" s="17"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:21">
       <c r="A7" s="4" t="s">
         <v>40</v>
       </c>
@@ -1369,7 +1362,7 @@
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>65</v>
@@ -1383,7 +1376,7 @@
       <c r="T7" s="17"/>
       <c r="U7" s="17"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:21">
       <c r="A8" s="4" t="s">
         <v>50</v>
       </c>
@@ -1406,7 +1399,7 @@
         <v>83</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O8" s="2" t="s">
         <v>66</v>
@@ -1418,7 +1411,7 @@
       <c r="T8" s="17"/>
       <c r="U8" s="17"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:21">
       <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
@@ -1452,7 +1445,7 @@
       <c r="T9" s="17"/>
       <c r="U9" s="17"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:21">
       <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
@@ -1478,7 +1471,7 @@
       <c r="T10" s="17"/>
       <c r="U10" s="17"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:21">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
@@ -1504,7 +1497,7 @@
       <c r="T11" s="17"/>
       <c r="U11" s="17"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:21">
       <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
@@ -1531,7 +1524,7 @@
       <c r="T12" s="17"/>
       <c r="U12" s="17"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:21">
       <c r="A13" s="4" t="s">
         <v>46</v>
       </c>
@@ -1554,7 +1547,7 @@
       <c r="T13" s="17"/>
       <c r="U13" s="17"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:21">
       <c r="A14" s="4" t="s">
         <v>34</v>
       </c>
@@ -1573,7 +1566,7 @@
       <c r="J14" s="23"/>
       <c r="K14" s="17"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:21">
       <c r="A15" s="4" t="s">
         <v>35</v>
       </c>
@@ -1590,7 +1583,7 @@
       <c r="I15" s="22"/>
       <c r="J15" s="23"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:21">
       <c r="A16" s="4" t="s">
         <v>47</v>
       </c>
@@ -1609,7 +1602,7 @@
       <c r="I16" s="22"/>
       <c r="J16" s="23"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12">
       <c r="A17" s="4" t="s">
         <v>48</v>
       </c>
@@ -1627,7 +1620,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12">
       <c r="A18" s="4" t="s">
         <v>58</v>
       </c>
@@ -1647,7 +1640,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12">
       <c r="A19" s="4" t="s">
         <v>56</v>
       </c>
@@ -1664,7 +1657,7 @@
       <c r="I19" s="22"/>
       <c r="J19" s="23"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12">
       <c r="A20" s="4" t="s">
         <v>26</v>
       </c>
@@ -1681,7 +1674,7 @@
       <c r="I20" s="22"/>
       <c r="J20" s="23"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:12">
       <c r="A21" s="4" t="s">
         <v>8</v>
       </c>
@@ -1696,7 +1689,7 @@
       <c r="I21" s="22"/>
       <c r="J21" s="23"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:12">
       <c r="A22" s="4" t="s">
         <v>60</v>
       </c>
@@ -1711,7 +1704,7 @@
       <c r="I22" s="22"/>
       <c r="J22" s="23"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12">
       <c r="A23" s="4" t="s">
         <v>57</v>
       </c>
@@ -1726,7 +1719,7 @@
       <c r="I23" s="22"/>
       <c r="J23" s="23"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12">
       <c r="A24" s="4" t="s">
         <v>59</v>
       </c>
@@ -1741,7 +1734,7 @@
       <c r="I24" s="22"/>
       <c r="J24" s="23"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:12">
       <c r="A25" s="4" t="s">
         <v>9</v>
       </c>
@@ -1754,7 +1747,7 @@
       <c r="I25" s="22"/>
       <c r="J25" s="23"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:12">
       <c r="A26" s="4" t="s">
         <v>18</v>
       </c>
@@ -1767,7 +1760,7 @@
       <c r="I26" s="22"/>
       <c r="J26" s="23"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:12">
       <c r="A27" s="4" t="s">
         <v>10</v>
       </c>
@@ -1780,54 +1773,54 @@
       <c r="I27" s="22"/>
       <c r="J27" s="23"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:12">
       <c r="H28" s="21"/>
       <c r="I28" s="22"/>
       <c r="J28" s="23"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:12">
       <c r="H29" s="21"/>
       <c r="I29" s="22"/>
       <c r="J29" s="23"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:12">
       <c r="H30" s="21"/>
       <c r="I30" s="22"/>
       <c r="J30" s="23"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:12">
       <c r="H31" s="21"/>
       <c r="I31" s="22"/>
       <c r="J31" s="23"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:12">
       <c r="H32" s="21"/>
       <c r="I32" s="22"/>
       <c r="J32" s="23"/>
     </row>
-    <row r="33" spans="8:10" x14ac:dyDescent="0.4">
+    <row r="33" spans="8:10">
       <c r="H33" s="21"/>
       <c r="I33" s="22"/>
       <c r="J33" s="23"/>
     </row>
-    <row r="34" spans="8:10" x14ac:dyDescent="0.4">
+    <row r="34" spans="8:10">
       <c r="H34" s="21"/>
       <c r="I34" s="22"/>
       <c r="J34" s="23"/>
     </row>
-    <row r="35" spans="8:10" x14ac:dyDescent="0.4">
+    <row r="35" spans="8:10">
       <c r="H35" s="21"/>
       <c r="I35" s="22"/>
       <c r="J35" s="23"/>
     </row>
-    <row r="36" spans="8:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="8:10" ht="17.25" thickBot="1">
       <c r="H36" s="24"/>
       <c r="I36" s="25"/>
       <c r="J36" s="26"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F18" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F27">
+  <autoFilter ref="A1:F18">
+    <sortState ref="A2:F27">
       <sortCondition ref="C1:C18"/>
     </sortState>
   </autoFilter>
@@ -1840,8 +1833,8 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="L18" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="L17" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="L18" r:id="rId1"/>
+    <hyperlink ref="L17" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>

--- a/works.xlsx
+++ b/works.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSAFY\Desktop\itgorae\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="495" yWindow="1860" windowWidth="17280" windowHeight="8880"/>
   </bookViews>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="94">
   <si>
     <t>제목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -272,30 +277,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>API 연결</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NFC 연결</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>결제</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>알고리즘1 문제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">책읽기 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">정처기 2 회차 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>알고리즘풀기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -340,18 +325,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>테일윈드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SQL 2문제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>디자인 상품등록</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -384,31 +357,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>css</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청년수당쓰기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sqld 4문제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알고리즘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정처기 1파트 1시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유니클로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>영어 결제</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>css</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>청년수당쓰기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sqld 4문제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
+    <t>SQLD 2문제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제 연결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">api  연결 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -463,6 +464,14 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="G마켓 산스 TTF Bold"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -695,7 +704,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -776,6 +785,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1050,7 +1068,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1061,10 +1079,10 @@
   <dimension ref="A1:U36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="22.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
@@ -1079,7 +1097,7 @@
     <col min="18" max="18" width="18.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="17.25" thickBot="1">
+    <row r="1" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1100,7 +1118,7 @@
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="14" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="I1" s="15"/>
       <c r="J1" s="16"/>
@@ -1130,7 +1148,7 @@
       <c r="T1" s="17"/>
       <c r="U1" s="17"/>
     </row>
-    <row r="2" spans="1:21" ht="17.100000000000001" customHeight="1">
+    <row r="2" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
@@ -1149,33 +1167,33 @@
       <c r="F2" s="2"/>
       <c r="G2" s="3"/>
       <c r="H2" s="18" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="I2" s="19"/>
       <c r="J2" s="20"/>
       <c r="K2" s="17"/>
-      <c r="L2" s="2"/>
+      <c r="L2" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="M2" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="N2" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="R2" s="13" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="S2" s="17"/>
       <c r="T2" s="17"/>
       <c r="U2" s="17"/>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
@@ -1199,28 +1217,26 @@
       <c r="I3" s="22"/>
       <c r="J3" s="23"/>
       <c r="K3" s="17"/>
-      <c r="L3" s="2"/>
+      <c r="L3" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="M3" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="O3" s="2" t="s">
         <v>62</v>
       </c>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="S3" s="17"/>
       <c r="T3" s="17"/>
       <c r="U3" s="17"/>
     </row>
-    <row r="4" spans="1:21" ht="17.100000000000001" customHeight="1">
+    <row r="4" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A4" s="4" t="s">
         <v>33</v>
       </c>
@@ -1240,19 +1256,19 @@
       <c r="I4" s="22"/>
       <c r="J4" s="23"/>
       <c r="K4" s="17"/>
-      <c r="L4" s="2"/>
+      <c r="L4" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="M4" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>63</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="R4" s="2" t="s">
         <v>53</v>
@@ -1261,7 +1277,7 @@
       <c r="T4" s="17"/>
       <c r="U4" s="17"/>
     </row>
-    <row r="5" spans="1:21" ht="14.85" customHeight="1">
+    <row r="5" spans="1:21" ht="14.85" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -1282,25 +1298,25 @@
       <c r="J5" s="23"/>
       <c r="K5" s="17"/>
       <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
+      <c r="M5" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="N5" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>64</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="S5" s="17"/>
       <c r="T5" s="17"/>
       <c r="U5" s="17"/>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
@@ -1321,23 +1337,23 @@
       <c r="J6" s="23"/>
       <c r="K6" s="17"/>
       <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2" t="s">
-        <v>92</v>
-      </c>
+      <c r="M6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="S6" s="17"/>
       <c r="T6" s="17"/>
       <c r="U6" s="17"/>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A7" s="4" t="s">
         <v>40</v>
       </c>
@@ -1360,23 +1376,23 @@
       <c r="J7" s="23"/>
       <c r="K7" s="17"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
+      <c r="M7" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="N7" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>65</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="S7" s="17"/>
       <c r="T7" s="17"/>
       <c r="U7" s="17"/>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A8" s="4" t="s">
         <v>50</v>
       </c>
@@ -1394,16 +1410,16 @@
       <c r="I8" s="22"/>
       <c r="J8" s="23"/>
       <c r="K8" s="17"/>
-      <c r="L8" s="2"/>
+      <c r="L8" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="M8" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>66</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
@@ -1411,7 +1427,7 @@
       <c r="T8" s="17"/>
       <c r="U8" s="17"/>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
@@ -1431,21 +1447,21 @@
       <c r="I9" s="22"/>
       <c r="J9" s="23"/>
       <c r="K9" s="17"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2" t="s">
-        <v>67</v>
-      </c>
+      <c r="L9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="T9" s="17"/>
       <c r="U9" s="17"/>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
@@ -1465,13 +1481,18 @@
       <c r="I10" s="22"/>
       <c r="J10" s="23"/>
       <c r="K10" s="17"/>
-      <c r="M10" s="12" t="s">
-        <v>86</v>
-      </c>
+      <c r="L10" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="M10" s="12"/>
+      <c r="N10" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="O10" s="27"/>
       <c r="T10" s="17"/>
       <c r="U10" s="17"/>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
@@ -1491,13 +1512,14 @@
       <c r="I11" s="22"/>
       <c r="J11" s="23"/>
       <c r="K11" s="17"/>
-      <c r="M11" s="12" t="s">
-        <v>87</v>
-      </c>
+      <c r="L11" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="M11" s="12"/>
       <c r="T11" s="17"/>
       <c r="U11" s="17"/>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
@@ -1518,13 +1540,10 @@
       <c r="J12" s="23"/>
       <c r="K12" s="17"/>
       <c r="M12" s="12"/>
-      <c r="N12" t="s">
-        <v>79</v>
-      </c>
       <c r="T12" s="17"/>
       <c r="U12" s="17"/>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A13" s="4" t="s">
         <v>46</v>
       </c>
@@ -1547,7 +1566,7 @@
       <c r="T13" s="17"/>
       <c r="U13" s="17"/>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A14" s="4" t="s">
         <v>34</v>
       </c>
@@ -1566,7 +1585,7 @@
       <c r="J14" s="23"/>
       <c r="K14" s="17"/>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A15" s="4" t="s">
         <v>35</v>
       </c>
@@ -1583,7 +1602,7 @@
       <c r="I15" s="22"/>
       <c r="J15" s="23"/>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A16" s="4" t="s">
         <v>47</v>
       </c>
@@ -1602,7 +1621,7 @@
       <c r="I16" s="22"/>
       <c r="J16" s="23"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A17" s="4" t="s">
         <v>48</v>
       </c>
@@ -1617,10 +1636,10 @@
       <c r="I17" s="22"/>
       <c r="J17" s="23"/>
       <c r="L17" s="11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A18" s="4" t="s">
         <v>58</v>
       </c>
@@ -1640,7 +1659,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A19" s="4" t="s">
         <v>56</v>
       </c>
@@ -1657,7 +1676,7 @@
       <c r="I19" s="22"/>
       <c r="J19" s="23"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A20" s="4" t="s">
         <v>26</v>
       </c>
@@ -1674,7 +1693,7 @@
       <c r="I20" s="22"/>
       <c r="J20" s="23"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A21" s="4" t="s">
         <v>8</v>
       </c>
@@ -1689,7 +1708,7 @@
       <c r="I21" s="22"/>
       <c r="J21" s="23"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A22" s="4" t="s">
         <v>60</v>
       </c>
@@ -1704,7 +1723,7 @@
       <c r="I22" s="22"/>
       <c r="J22" s="23"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A23" s="4" t="s">
         <v>57</v>
       </c>
@@ -1719,7 +1738,7 @@
       <c r="I23" s="22"/>
       <c r="J23" s="23"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A24" s="4" t="s">
         <v>59</v>
       </c>
@@ -1734,7 +1753,7 @@
       <c r="I24" s="22"/>
       <c r="J24" s="23"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A25" s="4" t="s">
         <v>9</v>
       </c>
@@ -1747,7 +1766,7 @@
       <c r="I25" s="22"/>
       <c r="J25" s="23"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A26" s="4" t="s">
         <v>18</v>
       </c>
@@ -1760,7 +1779,7 @@
       <c r="I26" s="22"/>
       <c r="J26" s="23"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A27" s="4" t="s">
         <v>10</v>
       </c>
@@ -1773,47 +1792,50 @@
       <c r="I27" s="22"/>
       <c r="J27" s="23"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A28" s="28" t="s">
+        <v>89</v>
+      </c>
       <c r="H28" s="21"/>
       <c r="I28" s="22"/>
       <c r="J28" s="23"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.6">
       <c r="H29" s="21"/>
       <c r="I29" s="22"/>
       <c r="J29" s="23"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.6">
       <c r="H30" s="21"/>
       <c r="I30" s="22"/>
       <c r="J30" s="23"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.6">
       <c r="H31" s="21"/>
       <c r="I31" s="22"/>
       <c r="J31" s="23"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.6">
       <c r="H32" s="21"/>
       <c r="I32" s="22"/>
       <c r="J32" s="23"/>
     </row>
-    <row r="33" spans="8:10">
+    <row r="33" spans="8:10" x14ac:dyDescent="0.6">
       <c r="H33" s="21"/>
       <c r="I33" s="22"/>
       <c r="J33" s="23"/>
     </row>
-    <row r="34" spans="8:10">
+    <row r="34" spans="8:10" x14ac:dyDescent="0.6">
       <c r="H34" s="21"/>
       <c r="I34" s="22"/>
       <c r="J34" s="23"/>
     </row>
-    <row r="35" spans="8:10">
+    <row r="35" spans="8:10" x14ac:dyDescent="0.6">
       <c r="H35" s="21"/>
       <c r="I35" s="22"/>
       <c r="J35" s="23"/>
     </row>
-    <row r="36" spans="8:10" ht="17.25" thickBot="1">
+    <row r="36" spans="8:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="H36" s="24"/>
       <c r="I36" s="25"/>
       <c r="J36" s="26"/>

--- a/works.xlsx
+++ b/works.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSAFY\Desktop\itgorae\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="495" yWindow="1860" windowWidth="17280" windowHeight="8880"/>
+    <workbookView xWindow="495" yWindow="1860" windowWidth="15705" windowHeight="8880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="97">
   <si>
     <t>제목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -402,14 +397,26 @@
   </si>
   <si>
     <t xml:space="preserve">api  연결 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>css</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자소서cj농협</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -747,6 +754,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -785,15 +801,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1068,7 +1075,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1078,11 +1085,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="22.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
@@ -1097,7 +1104,7 @@
     <col min="18" max="18" width="18.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:21" ht="17.25" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1117,12 +1124,12 @@
         <v>4</v>
       </c>
       <c r="G1" s="3"/>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="I1" s="15"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="17"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="20"/>
       <c r="L1" s="7" t="s">
         <v>27</v>
       </c>
@@ -1144,11 +1151,11 @@
       <c r="R1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-    </row>
-    <row r="2" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+    </row>
+    <row r="2" spans="1:21" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
@@ -1166,34 +1173,36 @@
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="I2" s="19"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="17"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="20"/>
       <c r="L2" s="2" t="s">
         <v>61</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="N2" s="29" t="s">
+      <c r="N2" s="16" t="s">
         <v>86</v>
       </c>
       <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
+      <c r="P2" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="Q2" s="2" t="s">
         <v>63</v>
       </c>
       <c r="R2" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.6">
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
@@ -1213,10 +1222,10 @@
         <v>51</v>
       </c>
       <c r="G3" s="3"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="17"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="20"/>
       <c r="L3" s="2" t="s">
         <v>62</v>
       </c>
@@ -1225,18 +1234,20 @@
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
+      <c r="P3" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="Q3" s="2" t="s">
         <v>64</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-    </row>
-    <row r="4" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+    </row>
+    <row r="4" spans="1:21" ht="17.100000000000001" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>33</v>
       </c>
@@ -1252,10 +1263,10 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="17"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="20"/>
       <c r="L4" s="2" t="s">
         <v>74</v>
       </c>
@@ -1266,18 +1277,20 @@
         <v>93</v>
       </c>
       <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
+      <c r="P4" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="Q4" s="2" t="s">
         <v>65</v>
       </c>
       <c r="R4" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-    </row>
-    <row r="5" spans="1:21" ht="14.85" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+    </row>
+    <row r="5" spans="1:21" ht="14.85" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -1293,10 +1306,10 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="17"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="20"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2" t="s">
         <v>66</v>
@@ -1312,11 +1325,11 @@
       <c r="R5" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.6">
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
@@ -1332,10 +1345,10 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="17"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="20"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2" t="s">
         <v>83</v>
@@ -1349,11 +1362,11 @@
       <c r="R6" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.6">
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" s="4" t="s">
         <v>40</v>
       </c>
@@ -1371,10 +1384,10 @@
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="17"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="20"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2" t="s">
         <v>82</v>
@@ -1388,11 +1401,11 @@
       <c r="R7" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.6">
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" s="4" t="s">
         <v>50</v>
       </c>
@@ -1406,10 +1419,10 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="17"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="20"/>
       <c r="L8" s="2" t="s">
         <v>75</v>
       </c>
@@ -1423,11 +1436,11 @@
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.6">
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
@@ -1443,10 +1456,10 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="17"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="20"/>
       <c r="L9" s="2" t="s">
         <v>76</v>
       </c>
@@ -1458,10 +1471,10 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="17"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.6">
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
@@ -1477,22 +1490,22 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="17"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="20"/>
       <c r="L10" s="12" t="s">
         <v>78</v>
       </c>
       <c r="M10" s="12"/>
-      <c r="N10" s="27" t="s">
+      <c r="N10" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="O10" s="27"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.6">
+      <c r="O10" s="14"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
@@ -1508,18 +1521,18 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="17"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="20"/>
       <c r="L11" s="12" t="s">
         <v>79</v>
       </c>
       <c r="M11" s="12"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="17"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.6">
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
@@ -1535,15 +1548,15 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="17"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="20"/>
       <c r="M12" s="12"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.6">
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" s="4" t="s">
         <v>46</v>
       </c>
@@ -1559,14 +1572,14 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.6">
+      <c r="H13" s="24"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" s="4" t="s">
         <v>34</v>
       </c>
@@ -1580,12 +1593,12 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="17"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.6">
+      <c r="H14" s="24"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="20"/>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" s="4" t="s">
         <v>35</v>
       </c>
@@ -1598,11 +1611,11 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="23"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.6">
+      <c r="H15" s="24"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="26"/>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" s="4" t="s">
         <v>47</v>
       </c>
@@ -1617,11 +1630,11 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="23"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="H16" s="24"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="26"/>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="4" t="s">
         <v>48</v>
       </c>
@@ -1632,14 +1645,14 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="23"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="26"/>
       <c r="L17" s="11" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:12">
       <c r="A18" s="4" t="s">
         <v>58</v>
       </c>
@@ -1652,14 +1665,14 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="23"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="26"/>
       <c r="L18" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:12">
       <c r="A19" s="4" t="s">
         <v>56</v>
       </c>
@@ -1672,11 +1685,11 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="23"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="H19" s="24"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="26"/>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="4" t="s">
         <v>26</v>
       </c>
@@ -1689,11 +1702,11 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="23"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="H20" s="24"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="26"/>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="4" t="s">
         <v>8</v>
       </c>
@@ -1704,11 +1717,11 @@
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="23"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="H21" s="24"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="26"/>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="4" t="s">
         <v>60</v>
       </c>
@@ -1719,11 +1732,11 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="23"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="H22" s="24"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="26"/>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="4" t="s">
         <v>57</v>
       </c>
@@ -1734,11 +1747,11 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="23"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="H23" s="24"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="26"/>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="4" t="s">
         <v>59</v>
       </c>
@@ -1749,11 +1762,11 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="23"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="H24" s="24"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="26"/>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="4" t="s">
         <v>9</v>
       </c>
@@ -1762,11 +1775,11 @@
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="23"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="H25" s="24"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="26"/>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="4" t="s">
         <v>18</v>
       </c>
@@ -1775,11 +1788,11 @@
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="23"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="H26" s="24"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="26"/>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="4" t="s">
         <v>10</v>
       </c>
@@ -1788,57 +1801,57 @@
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="23"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A28" s="28" t="s">
+      <c r="H27" s="24"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="26"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="H28" s="21"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="23"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="H29" s="21"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="23"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="H30" s="21"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="23"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="H31" s="21"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="23"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="H32" s="21"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="23"/>
-    </row>
-    <row r="33" spans="8:10" x14ac:dyDescent="0.6">
-      <c r="H33" s="21"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="23"/>
-    </row>
-    <row r="34" spans="8:10" x14ac:dyDescent="0.6">
-      <c r="H34" s="21"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="23"/>
-    </row>
-    <row r="35" spans="8:10" x14ac:dyDescent="0.6">
-      <c r="H35" s="21"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="23"/>
-    </row>
-    <row r="36" spans="8:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="H36" s="24"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="26"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="26"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="H29" s="24"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="26"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="H30" s="24"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="26"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="H31" s="24"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="26"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="H32" s="24"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="26"/>
+    </row>
+    <row r="33" spans="8:10">
+      <c r="H33" s="24"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="26"/>
+    </row>
+    <row r="34" spans="8:10">
+      <c r="H34" s="24"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="26"/>
+    </row>
+    <row r="35" spans="8:10">
+      <c r="H35" s="24"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="26"/>
+    </row>
+    <row r="36" spans="8:10" ht="17.25" thickBot="1">
+      <c r="H36" s="27"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="29"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F18">

--- a/works.xlsx
+++ b/works.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="88">
   <si>
     <t>제목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -236,10 +236,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>자소서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>IT 물류 솔루션</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -276,50 +272,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>알고리즘풀기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자소서1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로젝트(결제)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>영어 결제</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sql2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://musinsa.career.greetinghr.com/o/128396</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>무신사 테크 블로그</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영어결제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>알고리즘 복습</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제 코드 작성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고구마런</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>디자인 상품등록</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -400,15 +360,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>css</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자소서cj농협</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영어</t>
+    <t>CSS 환경 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>API 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">자율 팀 회의 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀 회의</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1075,7 +1039,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1086,7 +1050,7 @@
   <dimension ref="A1:U36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1125,7 +1089,7 @@
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="17" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="I1" s="18"/>
       <c r="J1" s="19"/>
@@ -1174,30 +1138,24 @@
       <c r="F2" s="2"/>
       <c r="G2" s="3"/>
       <c r="H2" s="21" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="I2" s="22"/>
       <c r="J2" s="23"/>
       <c r="K2" s="20"/>
       <c r="L2" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N2" s="16" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="O2" s="2"/>
-      <c r="P2" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="R2" s="13" t="s">
-        <v>67</v>
-      </c>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="13"/>
       <c r="S2" s="20"/>
       <c r="T2" s="20"/>
       <c r="U2" s="20"/>
@@ -1227,22 +1185,18 @@
       <c r="J3" s="26"/>
       <c r="K3" s="20"/>
       <c r="L3" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>71</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
       <c r="S3" s="20"/>
       <c r="T3" s="20"/>
       <c r="U3" s="20"/>
@@ -1268,24 +1222,20 @@
       <c r="J4" s="26"/>
       <c r="K4" s="20"/>
       <c r="L4" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>53</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
       <c r="S4" s="20"/>
       <c r="T4" s="20"/>
       <c r="U4" s="20"/>
@@ -1312,19 +1262,17 @@
       <c r="K5" s="20"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>72</v>
-      </c>
+      <c r="P5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
       <c r="S5" s="20"/>
       <c r="T5" s="20"/>
       <c r="U5" s="20"/>
@@ -1351,17 +1299,13 @@
       <c r="K6" s="20"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
-      <c r="Q6" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>70</v>
-      </c>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
       <c r="S6" s="20"/>
       <c r="T6" s="20"/>
       <c r="U6" s="20"/>
@@ -1390,17 +1334,17 @@
       <c r="K7" s="20"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
+      <c r="P7" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="Q7" s="2"/>
-      <c r="R7" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="R7" s="2"/>
       <c r="S7" s="20"/>
       <c r="T7" s="20"/>
       <c r="U7" s="20"/>
@@ -1424,13 +1368,13 @@
       <c r="J8" s="26"/>
       <c r="K8" s="20"/>
       <c r="L8" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
@@ -1461,11 +1405,11 @@
       <c r="J9" s="26"/>
       <c r="K9" s="20"/>
       <c r="L9" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
@@ -1495,11 +1439,11 @@
       <c r="J10" s="26"/>
       <c r="K10" s="20"/>
       <c r="L10" s="12" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="M10" s="12"/>
       <c r="N10" s="14" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="O10" s="14"/>
       <c r="T10" s="20"/>
@@ -1526,7 +1470,7 @@
       <c r="J11" s="26"/>
       <c r="K11" s="20"/>
       <c r="L11" s="12" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="M11" s="12"/>
       <c r="T11" s="20"/>
@@ -1649,15 +1593,15 @@
       <c r="I17" s="25"/>
       <c r="J17" s="26"/>
       <c r="L17" s="11" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C18" s="5">
         <v>45560</v>
@@ -1674,10 +1618,10 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C19" s="5">
         <v>45560</v>
@@ -1723,7 +1667,7 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="5">
@@ -1738,7 +1682,7 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="5">
@@ -1753,7 +1697,7 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="5">
@@ -1807,7 +1751,7 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="15" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H28" s="24"/>
       <c r="I28" s="25"/>

--- a/works.xlsx
+++ b/works.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSAFY\Desktop\itgorae\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="495" yWindow="1860" windowWidth="15705" windowHeight="8880"/>
   </bookViews>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="86">
   <si>
     <t>제목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -324,10 +329,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>알고리즘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -344,43 +345,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>영어 결제</t>
+    <t>CSS 환경 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀 회의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자율 팀 회의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api  연결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제 연결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>API 설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SQLD 2문제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제 연결</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">api  연결 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSS 환경 페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>API 설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">자율 팀 회의 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팀 회의</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1039,7 +1036,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1049,11 +1046,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="22.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
@@ -1068,7 +1065,7 @@
     <col min="18" max="18" width="18.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="17.25" thickBot="1">
+    <row r="1" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1119,7 +1116,7 @@
       <c r="T1" s="20"/>
       <c r="U1" s="20"/>
     </row>
-    <row r="2" spans="1:21" ht="17.100000000000001" customHeight="1">
+    <row r="2" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
@@ -1137,9 +1134,7 @@
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="21" t="s">
-        <v>75</v>
-      </c>
+      <c r="H2" s="21"/>
       <c r="I2" s="22"/>
       <c r="J2" s="23"/>
       <c r="K2" s="20"/>
@@ -1150,7 +1145,7 @@
         <v>70</v>
       </c>
       <c r="N2" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
@@ -1160,7 +1155,7 @@
       <c r="T2" s="20"/>
       <c r="U2" s="20"/>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
@@ -1193,7 +1188,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
@@ -1201,7 +1196,7 @@
       <c r="T3" s="20"/>
       <c r="U3" s="20"/>
     </row>
-    <row r="4" spans="1:21" ht="17.100000000000001" customHeight="1">
+    <row r="4" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A4" s="4" t="s">
         <v>33</v>
       </c>
@@ -1228,11 +1223,11 @@
         <v>71</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
@@ -1240,7 +1235,7 @@
       <c r="T4" s="20"/>
       <c r="U4" s="20"/>
     </row>
-    <row r="5" spans="1:21" ht="14.85" customHeight="1">
+    <row r="5" spans="1:21" ht="14.85" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -1265,11 +1260,11 @@
         <v>62</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
@@ -1277,7 +1272,7 @@
       <c r="T5" s="20"/>
       <c r="U5" s="20"/>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
@@ -1310,7 +1305,7 @@
       <c r="T6" s="20"/>
       <c r="U6" s="20"/>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A7" s="4" t="s">
         <v>40</v>
       </c>
@@ -1337,11 +1332,11 @@
         <v>72</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
@@ -1349,7 +1344,7 @@
       <c r="T7" s="20"/>
       <c r="U7" s="20"/>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A8" s="4" t="s">
         <v>50</v>
       </c>
@@ -1374,7 +1369,7 @@
         <v>74</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
@@ -1384,7 +1379,7 @@
       <c r="T8" s="20"/>
       <c r="U8" s="20"/>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
@@ -1409,7 +1404,7 @@
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
@@ -1418,7 +1413,7 @@
       <c r="T9" s="20"/>
       <c r="U9" s="20"/>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
@@ -1443,13 +1438,13 @@
       </c>
       <c r="M10" s="12"/>
       <c r="N10" s="14" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="O10" s="14"/>
       <c r="T10" s="20"/>
       <c r="U10" s="20"/>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
@@ -1476,7 +1471,7 @@
       <c r="T11" s="20"/>
       <c r="U11" s="20"/>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
@@ -1500,7 +1495,7 @@
       <c r="T12" s="20"/>
       <c r="U12" s="20"/>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A13" s="4" t="s">
         <v>46</v>
       </c>
@@ -1523,7 +1518,7 @@
       <c r="T13" s="20"/>
       <c r="U13" s="20"/>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A14" s="4" t="s">
         <v>34</v>
       </c>
@@ -1542,7 +1537,7 @@
       <c r="J14" s="26"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A15" s="4" t="s">
         <v>35</v>
       </c>
@@ -1559,7 +1554,7 @@
       <c r="I15" s="25"/>
       <c r="J15" s="26"/>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A16" s="4" t="s">
         <v>47</v>
       </c>
@@ -1578,7 +1573,7 @@
       <c r="I16" s="25"/>
       <c r="J16" s="26"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A17" s="4" t="s">
         <v>48</v>
       </c>
@@ -1596,7 +1591,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A18" s="4" t="s">
         <v>57</v>
       </c>
@@ -1616,7 +1611,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A19" s="4" t="s">
         <v>55</v>
       </c>
@@ -1633,7 +1628,7 @@
       <c r="I19" s="25"/>
       <c r="J19" s="26"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A20" s="4" t="s">
         <v>26</v>
       </c>
@@ -1650,7 +1645,7 @@
       <c r="I20" s="25"/>
       <c r="J20" s="26"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A21" s="4" t="s">
         <v>8</v>
       </c>
@@ -1665,7 +1660,7 @@
       <c r="I21" s="25"/>
       <c r="J21" s="26"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A22" s="4" t="s">
         <v>59</v>
       </c>
@@ -1680,7 +1675,7 @@
       <c r="I22" s="25"/>
       <c r="J22" s="26"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A23" s="4" t="s">
         <v>56</v>
       </c>
@@ -1695,7 +1690,7 @@
       <c r="I23" s="25"/>
       <c r="J23" s="26"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A24" s="4" t="s">
         <v>58</v>
       </c>
@@ -1710,7 +1705,7 @@
       <c r="I24" s="25"/>
       <c r="J24" s="26"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A25" s="4" t="s">
         <v>9</v>
       </c>
@@ -1723,7 +1718,7 @@
       <c r="I25" s="25"/>
       <c r="J25" s="26"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A26" s="4" t="s">
         <v>18</v>
       </c>
@@ -1736,7 +1731,7 @@
       <c r="I26" s="25"/>
       <c r="J26" s="26"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A27" s="4" t="s">
         <v>10</v>
       </c>
@@ -1749,50 +1744,50 @@
       <c r="I27" s="25"/>
       <c r="J27" s="26"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A28" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H28" s="24"/>
       <c r="I28" s="25"/>
       <c r="J28" s="26"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.6">
       <c r="H29" s="24"/>
       <c r="I29" s="25"/>
       <c r="J29" s="26"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.6">
       <c r="H30" s="24"/>
       <c r="I30" s="25"/>
       <c r="J30" s="26"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.6">
       <c r="H31" s="24"/>
       <c r="I31" s="25"/>
       <c r="J31" s="26"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.6">
       <c r="H32" s="24"/>
       <c r="I32" s="25"/>
       <c r="J32" s="26"/>
     </row>
-    <row r="33" spans="8:10">
+    <row r="33" spans="8:10" x14ac:dyDescent="0.6">
       <c r="H33" s="24"/>
       <c r="I33" s="25"/>
       <c r="J33" s="26"/>
     </row>
-    <row r="34" spans="8:10">
+    <row r="34" spans="8:10" x14ac:dyDescent="0.6">
       <c r="H34" s="24"/>
       <c r="I34" s="25"/>
       <c r="J34" s="26"/>
     </row>
-    <row r="35" spans="8:10">
+    <row r="35" spans="8:10" x14ac:dyDescent="0.6">
       <c r="H35" s="24"/>
       <c r="I35" s="25"/>
       <c r="J35" s="26"/>
     </row>
-    <row r="36" spans="8:10" ht="17.25" thickBot="1">
+    <row r="36" spans="8:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="H36" s="27"/>
       <c r="I36" s="28"/>
       <c r="J36" s="29"/>

--- a/works.xlsx
+++ b/works.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSAFY\Desktop\itgorae\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="495" yWindow="1860" windowWidth="15705" windowHeight="8880"/>
   </bookViews>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="87">
   <si>
     <t>제목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -269,10 +264,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SQL 2문제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>결제</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -285,11 +276,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>디자인 상품등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정처기 2개 풀기</t>
+    <t>금주 과업(9/30 주)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정처기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알고리즘 , 복습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>css</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청년수당쓰기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sqld 4문제</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -297,15 +304,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>금주 과업(9/30 주)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>반정규화(JOIN시간)</t>
+    <t>CSS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정처기 1파트 1시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유니클로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSS 환경 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀 회의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자율 팀 회의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api  연결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제 연결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>API 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQLD 2문제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>칩사기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신발 챙기기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제 마무리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nfc 마무리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디자인 마무리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -313,71 +368,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>알고리즘 , 복습</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>css</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>청년수당쓰기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sqld 4문제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>알고리즘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정처기 1파트 1시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유니클로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSS 환경 페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팀 회의</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자율 팀 회의</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api  연결</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제 연결</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>API 설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SQLD 2문제</t>
+    <t>sql *3 문제</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1036,7 +1035,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1047,10 +1046,10 @@
   <dimension ref="A1:U36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="22.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
@@ -1065,7 +1064,7 @@
     <col min="18" max="18" width="18.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:21" ht="17.25" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1086,7 +1085,7 @@
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="17" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I1" s="18"/>
       <c r="J1" s="19"/>
@@ -1116,7 +1115,7 @@
       <c r="T1" s="20"/>
       <c r="U1" s="20"/>
     </row>
-    <row r="2" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:21" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
@@ -1139,13 +1138,13 @@
       <c r="J2" s="23"/>
       <c r="K2" s="20"/>
       <c r="L2" s="2" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="N2" s="16" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
@@ -1155,7 +1154,7 @@
       <c r="T2" s="20"/>
       <c r="U2" s="20"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:21">
       <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
@@ -1180,15 +1179,15 @@
       <c r="J3" s="26"/>
       <c r="K3" s="20"/>
       <c r="L3" s="2" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
@@ -1196,7 +1195,7 @@
       <c r="T3" s="20"/>
       <c r="U3" s="20"/>
     </row>
-    <row r="4" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:21" ht="17.100000000000001" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>33</v>
       </c>
@@ -1217,17 +1216,17 @@
       <c r="J4" s="26"/>
       <c r="K4" s="20"/>
       <c r="L4" s="2" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
@@ -1235,7 +1234,7 @@
       <c r="T4" s="20"/>
       <c r="U4" s="20"/>
     </row>
-    <row r="5" spans="1:21" ht="14.85" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:21" ht="14.85" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -1255,16 +1254,18 @@
       <c r="I5" s="25"/>
       <c r="J5" s="26"/>
       <c r="K5" s="20"/>
-      <c r="L5" s="2"/>
+      <c r="L5" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="M5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
@@ -1272,7 +1273,7 @@
       <c r="T5" s="20"/>
       <c r="U5" s="20"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:21">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
@@ -1292,9 +1293,11 @@
       <c r="I6" s="25"/>
       <c r="J6" s="26"/>
       <c r="K6" s="20"/>
-      <c r="L6" s="2"/>
+      <c r="L6" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="M6" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1305,7 +1308,7 @@
       <c r="T6" s="20"/>
       <c r="U6" s="20"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:21">
       <c r="A7" s="4" t="s">
         <v>40</v>
       </c>
@@ -1329,14 +1332,14 @@
       <c r="K7" s="20"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
@@ -1344,7 +1347,7 @@
       <c r="T7" s="20"/>
       <c r="U7" s="20"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:21">
       <c r="A8" s="4" t="s">
         <v>50</v>
       </c>
@@ -1363,13 +1366,13 @@
       <c r="J8" s="26"/>
       <c r="K8" s="20"/>
       <c r="L8" s="2" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
@@ -1379,7 +1382,7 @@
       <c r="T8" s="20"/>
       <c r="U8" s="20"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:21">
       <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
@@ -1400,11 +1403,11 @@
       <c r="J9" s="26"/>
       <c r="K9" s="20"/>
       <c r="L9" s="2" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
@@ -1413,7 +1416,7 @@
       <c r="T9" s="20"/>
       <c r="U9" s="20"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:21">
       <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
@@ -1433,18 +1436,16 @@
       <c r="I10" s="25"/>
       <c r="J10" s="26"/>
       <c r="K10" s="20"/>
-      <c r="L10" s="12" t="s">
-        <v>68</v>
-      </c>
+      <c r="L10" s="12"/>
       <c r="M10" s="12"/>
       <c r="N10" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O10" s="14"/>
       <c r="T10" s="20"/>
       <c r="U10" s="20"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:21">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
@@ -1464,14 +1465,12 @@
       <c r="I11" s="25"/>
       <c r="J11" s="26"/>
       <c r="K11" s="20"/>
-      <c r="L11" s="12" t="s">
-        <v>69</v>
-      </c>
+      <c r="L11" s="12"/>
       <c r="M11" s="12"/>
       <c r="T11" s="20"/>
       <c r="U11" s="20"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:21">
       <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
@@ -1495,7 +1494,7 @@
       <c r="T12" s="20"/>
       <c r="U12" s="20"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:21">
       <c r="A13" s="4" t="s">
         <v>46</v>
       </c>
@@ -1518,7 +1517,7 @@
       <c r="T13" s="20"/>
       <c r="U13" s="20"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:21">
       <c r="A14" s="4" t="s">
         <v>34</v>
       </c>
@@ -1537,7 +1536,7 @@
       <c r="J14" s="26"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:21">
       <c r="A15" s="4" t="s">
         <v>35</v>
       </c>
@@ -1554,7 +1553,7 @@
       <c r="I15" s="25"/>
       <c r="J15" s="26"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:21">
       <c r="A16" s="4" t="s">
         <v>47</v>
       </c>
@@ -1573,7 +1572,7 @@
       <c r="I16" s="25"/>
       <c r="J16" s="26"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:12">
       <c r="A17" s="4" t="s">
         <v>48</v>
       </c>
@@ -1588,10 +1587,10 @@
       <c r="I17" s="25"/>
       <c r="J17" s="26"/>
       <c r="L17" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.6">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="4" t="s">
         <v>57</v>
       </c>
@@ -1611,7 +1610,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:12">
       <c r="A19" s="4" t="s">
         <v>55</v>
       </c>
@@ -1628,7 +1627,7 @@
       <c r="I19" s="25"/>
       <c r="J19" s="26"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:12">
       <c r="A20" s="4" t="s">
         <v>26</v>
       </c>
@@ -1645,7 +1644,7 @@
       <c r="I20" s="25"/>
       <c r="J20" s="26"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:12">
       <c r="A21" s="4" t="s">
         <v>8</v>
       </c>
@@ -1660,7 +1659,7 @@
       <c r="I21" s="25"/>
       <c r="J21" s="26"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:12">
       <c r="A22" s="4" t="s">
         <v>59</v>
       </c>
@@ -1675,7 +1674,7 @@
       <c r="I22" s="25"/>
       <c r="J22" s="26"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:12">
       <c r="A23" s="4" t="s">
         <v>56</v>
       </c>
@@ -1690,7 +1689,7 @@
       <c r="I23" s="25"/>
       <c r="J23" s="26"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:12">
       <c r="A24" s="4" t="s">
         <v>58</v>
       </c>
@@ -1705,7 +1704,7 @@
       <c r="I24" s="25"/>
       <c r="J24" s="26"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:12">
       <c r="A25" s="4" t="s">
         <v>9</v>
       </c>
@@ -1718,7 +1717,7 @@
       <c r="I25" s="25"/>
       <c r="J25" s="26"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:12">
       <c r="A26" s="4" t="s">
         <v>18</v>
       </c>
@@ -1731,7 +1730,7 @@
       <c r="I26" s="25"/>
       <c r="J26" s="26"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:12">
       <c r="A27" s="4" t="s">
         <v>10</v>
       </c>
@@ -1744,50 +1743,50 @@
       <c r="I27" s="25"/>
       <c r="J27" s="26"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:12">
       <c r="A28" s="15" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H28" s="24"/>
       <c r="I28" s="25"/>
       <c r="J28" s="26"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:12">
       <c r="H29" s="24"/>
       <c r="I29" s="25"/>
       <c r="J29" s="26"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:12">
       <c r="H30" s="24"/>
       <c r="I30" s="25"/>
       <c r="J30" s="26"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:12">
       <c r="H31" s="24"/>
       <c r="I31" s="25"/>
       <c r="J31" s="26"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:12">
       <c r="H32" s="24"/>
       <c r="I32" s="25"/>
       <c r="J32" s="26"/>
     </row>
-    <row r="33" spans="8:10" x14ac:dyDescent="0.6">
+    <row r="33" spans="8:10">
       <c r="H33" s="24"/>
       <c r="I33" s="25"/>
       <c r="J33" s="26"/>
     </row>
-    <row r="34" spans="8:10" x14ac:dyDescent="0.6">
+    <row r="34" spans="8:10">
       <c r="H34" s="24"/>
       <c r="I34" s="25"/>
       <c r="J34" s="26"/>
     </row>
-    <row r="35" spans="8:10" x14ac:dyDescent="0.6">
+    <row r="35" spans="8:10">
       <c r="H35" s="24"/>
       <c r="I35" s="25"/>
       <c r="J35" s="26"/>
     </row>
-    <row r="36" spans="8:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="36" spans="8:10" ht="17.25" thickBot="1">
       <c r="H36" s="27"/>
       <c r="I36" s="28"/>
       <c r="J36" s="29"/>

--- a/works.xlsx
+++ b/works.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="88">
   <si>
     <t>제목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -368,7 +368,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sql *3 문제</t>
+    <t>sql *2 문제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알고리즘 해시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1035,7 +1039,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1046,7 +1050,7 @@
   <dimension ref="A1:U36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1330,7 +1334,9 @@
       <c r="I7" s="25"/>
       <c r="J7" s="26"/>
       <c r="K7" s="20"/>
-      <c r="L7" s="2"/>
+      <c r="L7" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="M7" s="2" t="s">
         <v>66</v>
       </c>

--- a/works.xlsx
+++ b/works.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSAFY\Desktop\itgorae\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="495" yWindow="1860" windowWidth="15705" windowHeight="8880"/>
   </bookViews>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="82">
   <si>
     <t>제목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -264,14 +269,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>결제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영어 결제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://musinsa.career.greetinghr.com/o/128396</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -280,75 +277,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>유니클로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSS 환경 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀 회의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자율 팀 회의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>API 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>칩사기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신발 챙기기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nfc 마무리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디자인 마무리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>정처기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>알고리즘 , 복습</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>css</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>청년수당쓰기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sqld 4문제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>알고리즘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정처기 1파트 1시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유니클로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSS 환경 페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팀 회의</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자율 팀 회의</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api  연결</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제 연결</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>API 설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SQLD 2문제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>칩사기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신발 챙기기</t>
+    <t>밥먹고 유저 플로우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발표 준비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더미데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영상 촬영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:00 발표 test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -356,31 +345,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>nfc 마무리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>디자인 마무리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정처기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sql *2 문제</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>알고리즘 해시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유니클로 지원</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1039,7 +1020,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1049,18 +1030,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="22.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.375" customWidth="1"/>
     <col min="12" max="12" width="14.75" customWidth="1"/>
-    <col min="13" max="13" width="14.875" customWidth="1"/>
+    <col min="13" max="13" width="16.8125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="23.5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="18.125" customWidth="1"/>
     <col min="16" max="16" width="17.375" bestFit="1" customWidth="1"/>
@@ -1068,7 +1049,7 @@
     <col min="18" max="18" width="18.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="17.25" thickBot="1">
+    <row r="1" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1089,7 +1070,7 @@
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I1" s="18"/>
       <c r="J1" s="19"/>
@@ -1119,7 +1100,7 @@
       <c r="T1" s="20"/>
       <c r="U1" s="20"/>
     </row>
-    <row r="2" spans="1:21" ht="17.100000000000001" customHeight="1">
+    <row r="2" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
@@ -1142,13 +1123,11 @@
       <c r="J2" s="23"/>
       <c r="K2" s="20"/>
       <c r="L2" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>64</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="M2" s="2"/>
       <c r="N2" s="16" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
@@ -1158,7 +1137,7 @@
       <c r="T2" s="20"/>
       <c r="U2" s="20"/>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
@@ -1183,15 +1162,15 @@
       <c r="J3" s="26"/>
       <c r="K3" s="20"/>
       <c r="L3" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="N3" s="2"/>
+        <v>68</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="O3" s="2"/>
       <c r="P3" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
@@ -1199,7 +1178,7 @@
       <c r="T3" s="20"/>
       <c r="U3" s="20"/>
     </row>
-    <row r="4" spans="1:21" ht="17.100000000000001" customHeight="1">
+    <row r="4" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A4" s="4" t="s">
         <v>33</v>
       </c>
@@ -1220,17 +1199,17 @@
       <c r="J4" s="26"/>
       <c r="K4" s="20"/>
       <c r="L4" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
@@ -1238,7 +1217,7 @@
       <c r="T4" s="20"/>
       <c r="U4" s="20"/>
     </row>
-    <row r="5" spans="1:21" ht="14.85" customHeight="1">
+    <row r="5" spans="1:21" ht="14.85" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -1259,17 +1238,19 @@
       <c r="J5" s="26"/>
       <c r="K5" s="20"/>
       <c r="L5" s="2" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="N5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="O5" s="2"/>
       <c r="P5" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
@@ -1277,7 +1258,7 @@
       <c r="T5" s="20"/>
       <c r="U5" s="20"/>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
@@ -1298,11 +1279,9 @@
       <c r="J6" s="26"/>
       <c r="K6" s="20"/>
       <c r="L6" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>67</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -1312,7 +1291,7 @@
       <c r="T6" s="20"/>
       <c r="U6" s="20"/>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A7" s="4" t="s">
         <v>40</v>
       </c>
@@ -1335,17 +1314,13 @@
       <c r="J7" s="26"/>
       <c r="K7" s="20"/>
       <c r="L7" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>70</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
@@ -1353,7 +1328,7 @@
       <c r="T7" s="20"/>
       <c r="U7" s="20"/>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A8" s="4" t="s">
         <v>50</v>
       </c>
@@ -1372,14 +1347,10 @@
       <c r="J8" s="26"/>
       <c r="K8" s="20"/>
       <c r="L8" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="N8" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
@@ -1388,7 +1359,7 @@
       <c r="T8" s="20"/>
       <c r="U8" s="20"/>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
@@ -1409,12 +1380,10 @@
       <c r="J9" s="26"/>
       <c r="K9" s="20"/>
       <c r="L9" s="2" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="M9" s="2"/>
-      <c r="N9" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
@@ -1422,7 +1391,7 @@
       <c r="T9" s="20"/>
       <c r="U9" s="20"/>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
@@ -1444,14 +1413,12 @@
       <c r="K10" s="20"/>
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
-      <c r="N10" s="14" t="s">
-        <v>61</v>
-      </c>
+      <c r="N10" s="14"/>
       <c r="O10" s="14"/>
       <c r="T10" s="20"/>
       <c r="U10" s="20"/>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
@@ -1476,7 +1443,7 @@
       <c r="T11" s="20"/>
       <c r="U11" s="20"/>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
@@ -1500,7 +1467,7 @@
       <c r="T12" s="20"/>
       <c r="U12" s="20"/>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A13" s="4" t="s">
         <v>46</v>
       </c>
@@ -1523,7 +1490,7 @@
       <c r="T13" s="20"/>
       <c r="U13" s="20"/>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A14" s="4" t="s">
         <v>34</v>
       </c>
@@ -1542,7 +1509,7 @@
       <c r="J14" s="26"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A15" s="4" t="s">
         <v>35</v>
       </c>
@@ -1559,7 +1526,7 @@
       <c r="I15" s="25"/>
       <c r="J15" s="26"/>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A16" s="4" t="s">
         <v>47</v>
       </c>
@@ -1578,7 +1545,7 @@
       <c r="I16" s="25"/>
       <c r="J16" s="26"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A17" s="4" t="s">
         <v>48</v>
       </c>
@@ -1593,10 +1560,10 @@
       <c r="I17" s="25"/>
       <c r="J17" s="26"/>
       <c r="L17" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A18" s="4" t="s">
         <v>57</v>
       </c>
@@ -1616,7 +1583,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A19" s="4" t="s">
         <v>55</v>
       </c>
@@ -1633,7 +1600,7 @@
       <c r="I19" s="25"/>
       <c r="J19" s="26"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A20" s="4" t="s">
         <v>26</v>
       </c>
@@ -1650,7 +1617,7 @@
       <c r="I20" s="25"/>
       <c r="J20" s="26"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A21" s="4" t="s">
         <v>8</v>
       </c>
@@ -1665,7 +1632,7 @@
       <c r="I21" s="25"/>
       <c r="J21" s="26"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A22" s="4" t="s">
         <v>59</v>
       </c>
@@ -1680,7 +1647,7 @@
       <c r="I22" s="25"/>
       <c r="J22" s="26"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A23" s="4" t="s">
         <v>56</v>
       </c>
@@ -1695,7 +1662,7 @@
       <c r="I23" s="25"/>
       <c r="J23" s="26"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A24" s="4" t="s">
         <v>58</v>
       </c>
@@ -1710,7 +1677,7 @@
       <c r="I24" s="25"/>
       <c r="J24" s="26"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A25" s="4" t="s">
         <v>9</v>
       </c>
@@ -1723,7 +1690,7 @@
       <c r="I25" s="25"/>
       <c r="J25" s="26"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A26" s="4" t="s">
         <v>18</v>
       </c>
@@ -1736,7 +1703,7 @@
       <c r="I26" s="25"/>
       <c r="J26" s="26"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A27" s="4" t="s">
         <v>10</v>
       </c>
@@ -1749,50 +1716,50 @@
       <c r="I27" s="25"/>
       <c r="J27" s="26"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A28" s="15" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="H28" s="24"/>
       <c r="I28" s="25"/>
       <c r="J28" s="26"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.6">
       <c r="H29" s="24"/>
       <c r="I29" s="25"/>
       <c r="J29" s="26"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.6">
       <c r="H30" s="24"/>
       <c r="I30" s="25"/>
       <c r="J30" s="26"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.6">
       <c r="H31" s="24"/>
       <c r="I31" s="25"/>
       <c r="J31" s="26"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.6">
       <c r="H32" s="24"/>
       <c r="I32" s="25"/>
       <c r="J32" s="26"/>
     </row>
-    <row r="33" spans="8:10">
+    <row r="33" spans="8:10" x14ac:dyDescent="0.6">
       <c r="H33" s="24"/>
       <c r="I33" s="25"/>
       <c r="J33" s="26"/>
     </row>
-    <row r="34" spans="8:10">
+    <row r="34" spans="8:10" x14ac:dyDescent="0.6">
       <c r="H34" s="24"/>
       <c r="I34" s="25"/>
       <c r="J34" s="26"/>
     </row>
-    <row r="35" spans="8:10">
+    <row r="35" spans="8:10" x14ac:dyDescent="0.6">
       <c r="H35" s="24"/>
       <c r="I35" s="25"/>
       <c r="J35" s="26"/>
     </row>
-    <row r="36" spans="8:10" ht="17.25" thickBot="1">
+    <row r="36" spans="8:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="H36" s="27"/>
       <c r="I36" s="28"/>
       <c r="J36" s="29"/>

--- a/works.xlsx
+++ b/works.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSAFY\Desktop\itgorae\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\OneDrive\Desktop\itgorae\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2CEE5F-F519-4E6D-8735-A44ABFCC083E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="495" yWindow="1860" windowWidth="15705" windowHeight="8880"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="84">
   <si>
     <t>제목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -354,13 +355,24 @@
   </si>
   <si>
     <t>유니클로 지원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exe 파일 배포</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">숫자 오류 수정13자리 나오게해주기 해결
+DB 상품 3개 지정 
+결제 api 수정 select 페이지로 리다이렉트
+otp </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -656,7 +668,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -699,10 +711,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
@@ -1027,29 +1036,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="H2" sqref="H2:J36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="22.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.375" customWidth="1"/>
-    <col min="12" max="12" width="14.75" customWidth="1"/>
-    <col min="13" max="13" width="16.8125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.09765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.3984375" customWidth="1"/>
+    <col min="12" max="12" width="14.69921875" customWidth="1"/>
+    <col min="13" max="13" width="16.796875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.125" customWidth="1"/>
-    <col min="16" max="16" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.375" customWidth="1"/>
-    <col min="18" max="18" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.09765625" customWidth="1"/>
+    <col min="16" max="16" width="17.3984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.3984375" customWidth="1"/>
+    <col min="18" max="18" width="18.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1069,12 +1078,12 @@
         <v>4</v>
       </c>
       <c r="G1" s="3"/>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="18"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="20"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="19"/>
       <c r="L1" s="7" t="s">
         <v>27</v>
       </c>
@@ -1096,11 +1105,11 @@
       <c r="R1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-    </row>
-    <row r="2" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+    </row>
+    <row r="2" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
@@ -1118,26 +1127,28 @@
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="20"/>
+      <c r="H2" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="I2" s="21"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="19"/>
       <c r="L2" s="2" t="s">
         <v>67</v>
       </c>
       <c r="M2" s="2"/>
-      <c r="N2" s="16" t="s">
+      <c r="N2" s="15" t="s">
         <v>73</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="13"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.6">
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
@@ -1157,10 +1168,10 @@
         <v>51</v>
       </c>
       <c r="G3" s="3"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="20"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="19"/>
       <c r="L3" s="2" t="s">
         <v>68</v>
       </c>
@@ -1174,11 +1185,11 @@
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
-    </row>
-    <row r="4" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+    </row>
+    <row r="4" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
         <v>33</v>
       </c>
@@ -1194,10 +1205,10 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="20"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="19"/>
       <c r="L4" s="2" t="s">
         <v>78</v>
       </c>
@@ -1213,11 +1224,11 @@
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
-    </row>
-    <row r="5" spans="1:21" ht="14.85" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+    </row>
+    <row r="5" spans="1:21" ht="14.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -1233,10 +1244,10 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="20"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="19"/>
       <c r="L5" s="2" t="s">
         <v>69</v>
       </c>
@@ -1254,11 +1265,11 @@
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.6">
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
@@ -1274,24 +1285,26 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="20"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="19"/>
       <c r="L6" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="M6" s="2"/>
+      <c r="M6" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.6">
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
         <v>40</v>
       </c>
@@ -1309,10 +1322,10 @@
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="20"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="19"/>
       <c r="L7" s="2" t="s">
         <v>80</v>
       </c>
@@ -1324,11 +1337,11 @@
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="20"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.6">
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
         <v>50</v>
       </c>
@@ -1342,10 +1355,10 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="20"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="19"/>
       <c r="L8" s="2" t="s">
         <v>79</v>
       </c>
@@ -1355,11 +1368,11 @@
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="20"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.6">
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
@@ -1375,10 +1388,10 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="20"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="19"/>
       <c r="L9" s="2" t="s">
         <v>71</v>
       </c>
@@ -1388,10 +1401,10 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="20"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.6">
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
@@ -1407,18 +1420,18 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="20"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="19"/>
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.6">
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
@@ -1434,16 +1447,16 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="20"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="19"/>
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
-      <c r="T11" s="20"/>
-      <c r="U11" s="20"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.6">
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
@@ -1459,15 +1472,15 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="20"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="19"/>
       <c r="M12" s="12"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="20"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.6">
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
         <v>46</v>
       </c>
@@ -1483,14 +1496,14 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="20"/>
-      <c r="T13" s="20"/>
-      <c r="U13" s="20"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.6">
+      <c r="H13" s="23"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A14" s="4" t="s">
         <v>34</v>
       </c>
@@ -1504,12 +1517,12 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="20"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.6">
+      <c r="H14" s="23"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="19"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A15" s="4" t="s">
         <v>35</v>
       </c>
@@ -1522,11 +1535,11 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="26"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.6">
+      <c r="H15" s="23"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="25"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A16" s="4" t="s">
         <v>47</v>
       </c>
@@ -1541,11 +1554,11 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="26"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="H16" s="23"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="25"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" s="4" t="s">
         <v>48</v>
       </c>
@@ -1556,14 +1569,14 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="26"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="25"/>
       <c r="L17" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" s="4" t="s">
         <v>57</v>
       </c>
@@ -1576,14 +1589,14 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="26"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="25"/>
       <c r="L18" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" s="4" t="s">
         <v>55</v>
       </c>
@@ -1596,11 +1609,11 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="26"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="H19" s="23"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="25"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" s="4" t="s">
         <v>26</v>
       </c>
@@ -1613,11 +1626,11 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="26"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="H20" s="23"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="25"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21" s="4" t="s">
         <v>8</v>
       </c>
@@ -1628,11 +1641,11 @@
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="26"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="H21" s="23"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="25"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22" s="4" t="s">
         <v>59</v>
       </c>
@@ -1643,11 +1656,11 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="26"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="H22" s="23"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="25"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23" s="4" t="s">
         <v>56</v>
       </c>
@@ -1658,11 +1671,11 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="26"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="H23" s="23"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="25"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A24" s="4" t="s">
         <v>58</v>
       </c>
@@ -1673,11 +1686,11 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="26"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="H24" s="23"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="25"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25" s="4" t="s">
         <v>9</v>
       </c>
@@ -1686,11 +1699,11 @@
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="26"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="H25" s="23"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="25"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A26" s="4" t="s">
         <v>18</v>
       </c>
@@ -1699,11 +1712,11 @@
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="26"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="H26" s="23"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="25"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A27" s="4" t="s">
         <v>10</v>
       </c>
@@ -1712,61 +1725,61 @@
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="26"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A28" s="15" t="s">
+      <c r="H27" s="23"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="25"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A28" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="H28" s="24"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="26"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="H29" s="24"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="26"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="H30" s="24"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="26"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="H31" s="24"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="26"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="H32" s="24"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="26"/>
-    </row>
-    <row r="33" spans="8:10" x14ac:dyDescent="0.6">
-      <c r="H33" s="24"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="26"/>
-    </row>
-    <row r="34" spans="8:10" x14ac:dyDescent="0.6">
-      <c r="H34" s="24"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="26"/>
-    </row>
-    <row r="35" spans="8:10" x14ac:dyDescent="0.6">
-      <c r="H35" s="24"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="26"/>
-    </row>
-    <row r="36" spans="8:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="H36" s="27"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="29"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="25"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="H29" s="23"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="25"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="H30" s="23"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="25"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="H31" s="23"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="25"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="H32" s="23"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="25"/>
+    </row>
+    <row r="33" spans="8:10" x14ac:dyDescent="0.4">
+      <c r="H33" s="23"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="25"/>
+    </row>
+    <row r="34" spans="8:10" x14ac:dyDescent="0.4">
+      <c r="H34" s="23"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="25"/>
+    </row>
+    <row r="35" spans="8:10" x14ac:dyDescent="0.4">
+      <c r="H35" s="23"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="25"/>
+    </row>
+    <row r="36" spans="8:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="H36" s="26"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="28"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F18">
-    <sortState ref="A2:F27">
+  <autoFilter ref="A1:F18" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F27">
       <sortCondition ref="C1:C18"/>
     </sortState>
   </autoFilter>
@@ -1779,8 +1792,8 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="L18" r:id="rId1"/>
-    <hyperlink ref="L17" r:id="rId2"/>
+    <hyperlink ref="L18" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="L17" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>

--- a/works.xlsx
+++ b/works.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\OneDrive\Desktop\itgorae\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSAFY\Desktop\itgorae\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2CEE5F-F519-4E6D-8735-A44ABFCC083E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23258" windowHeight="12458"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$18</definedName>
   </definedNames>
   <calcPr calcId="145621" refMode="R1C1"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="83">
   <si>
     <t>제목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -319,22 +319,6 @@
   </si>
   <si>
     <t>밥먹고 유저 플로우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>코드 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>발표 준비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>더미데이터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영상 촬영</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -368,11 +352,23 @@
 otp </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">배포 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유니클로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정처기 3회 정도 풀기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1036,29 +1032,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:J36"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="22.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.09765625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.3984375" customWidth="1"/>
-    <col min="12" max="12" width="14.69921875" customWidth="1"/>
-    <col min="13" max="13" width="16.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.1875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.375" customWidth="1"/>
+    <col min="12" max="12" width="14.6875" customWidth="1"/>
+    <col min="13" max="13" width="16.8125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.09765625" customWidth="1"/>
-    <col min="16" max="16" width="17.3984375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.3984375" customWidth="1"/>
-    <col min="18" max="18" width="18.8984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.125" customWidth="1"/>
+    <col min="16" max="16" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.375" customWidth="1"/>
+    <col min="18" max="18" width="18.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1109,7 +1105,7 @@
       <c r="T1" s="19"/>
       <c r="U1" s="19"/>
     </row>
-    <row r="2" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
@@ -1128,7 +1124,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="3"/>
       <c r="H2" s="20" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I2" s="21"/>
       <c r="J2" s="22"/>
@@ -1138,7 +1134,7 @@
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="15" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
@@ -1148,7 +1144,7 @@
       <c r="T2" s="19"/>
       <c r="U2" s="19"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
@@ -1177,7 +1173,7 @@
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" s="2" t="s">
@@ -1189,7 +1185,7 @@
       <c r="T3" s="19"/>
       <c r="U3" s="19"/>
     </row>
-    <row r="4" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A4" s="4" t="s">
         <v>33</v>
       </c>
@@ -1210,13 +1206,13 @@
       <c r="J4" s="25"/>
       <c r="K4" s="19"/>
       <c r="L4" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" s="2" t="s">
@@ -1228,7 +1224,7 @@
       <c r="T4" s="19"/>
       <c r="U4" s="19"/>
     </row>
-    <row r="5" spans="1:21" ht="14.85" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:21" ht="14.85" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -1254,11 +1250,9 @@
       <c r="M5" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="N5" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="N5" s="2"/>
       <c r="O5" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="P5" s="2" t="s">
         <v>64</v>
@@ -1269,7 +1263,7 @@
       <c r="T5" s="19"/>
       <c r="U5" s="19"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
@@ -1293,7 +1287,7 @@
         <v>70</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1304,7 +1298,7 @@
       <c r="T6" s="19"/>
       <c r="U6" s="19"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A7" s="4" t="s">
         <v>40</v>
       </c>
@@ -1327,7 +1321,7 @@
       <c r="J7" s="25"/>
       <c r="K7" s="19"/>
       <c r="L7" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1341,7 +1335,7 @@
       <c r="T7" s="19"/>
       <c r="U7" s="19"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A8" s="4" t="s">
         <v>50</v>
       </c>
@@ -1360,7 +1354,7 @@
       <c r="J8" s="25"/>
       <c r="K8" s="19"/>
       <c r="L8" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1372,7 +1366,7 @@
       <c r="T8" s="19"/>
       <c r="U8" s="19"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
@@ -1404,7 +1398,7 @@
       <c r="T9" s="19"/>
       <c r="U9" s="19"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
@@ -1431,7 +1425,7 @@
       <c r="T10" s="19"/>
       <c r="U10" s="19"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
@@ -1456,7 +1450,7 @@
       <c r="T11" s="19"/>
       <c r="U11" s="19"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
@@ -1480,7 +1474,7 @@
       <c r="T12" s="19"/>
       <c r="U12" s="19"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A13" s="4" t="s">
         <v>46</v>
       </c>
@@ -1503,7 +1497,7 @@
       <c r="T13" s="19"/>
       <c r="U13" s="19"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A14" s="4" t="s">
         <v>34</v>
       </c>
@@ -1522,7 +1516,7 @@
       <c r="J14" s="25"/>
       <c r="K14" s="19"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A15" s="4" t="s">
         <v>35</v>
       </c>
@@ -1539,7 +1533,7 @@
       <c r="I15" s="24"/>
       <c r="J15" s="25"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A16" s="4" t="s">
         <v>47</v>
       </c>
@@ -1558,7 +1552,7 @@
       <c r="I16" s="24"/>
       <c r="J16" s="25"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A17" s="4" t="s">
         <v>48</v>
       </c>
@@ -1576,7 +1570,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A18" s="4" t="s">
         <v>57</v>
       </c>
@@ -1596,7 +1590,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A19" s="4" t="s">
         <v>55</v>
       </c>
@@ -1613,7 +1607,7 @@
       <c r="I19" s="24"/>
       <c r="J19" s="25"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A20" s="4" t="s">
         <v>26</v>
       </c>
@@ -1630,7 +1624,7 @@
       <c r="I20" s="24"/>
       <c r="J20" s="25"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A21" s="4" t="s">
         <v>8</v>
       </c>
@@ -1645,7 +1639,7 @@
       <c r="I21" s="24"/>
       <c r="J21" s="25"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A22" s="4" t="s">
         <v>59</v>
       </c>
@@ -1660,7 +1654,7 @@
       <c r="I22" s="24"/>
       <c r="J22" s="25"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A23" s="4" t="s">
         <v>56</v>
       </c>
@@ -1675,7 +1669,7 @@
       <c r="I23" s="24"/>
       <c r="J23" s="25"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A24" s="4" t="s">
         <v>58</v>
       </c>
@@ -1690,7 +1684,7 @@
       <c r="I24" s="24"/>
       <c r="J24" s="25"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A25" s="4" t="s">
         <v>9</v>
       </c>
@@ -1703,7 +1697,7 @@
       <c r="I25" s="24"/>
       <c r="J25" s="25"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A26" s="4" t="s">
         <v>18</v>
       </c>
@@ -1716,7 +1710,7 @@
       <c r="I26" s="24"/>
       <c r="J26" s="25"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A27" s="4" t="s">
         <v>10</v>
       </c>
@@ -1729,7 +1723,7 @@
       <c r="I27" s="24"/>
       <c r="J27" s="25"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A28" s="14" t="s">
         <v>62</v>
       </c>
@@ -1737,49 +1731,49 @@
       <c r="I28" s="24"/>
       <c r="J28" s="25"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.6">
       <c r="H29" s="23"/>
       <c r="I29" s="24"/>
       <c r="J29" s="25"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.6">
       <c r="H30" s="23"/>
       <c r="I30" s="24"/>
       <c r="J30" s="25"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.6">
       <c r="H31" s="23"/>
       <c r="I31" s="24"/>
       <c r="J31" s="25"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.6">
       <c r="H32" s="23"/>
       <c r="I32" s="24"/>
       <c r="J32" s="25"/>
     </row>
-    <row r="33" spans="8:10" x14ac:dyDescent="0.4">
+    <row r="33" spans="8:10" x14ac:dyDescent="0.6">
       <c r="H33" s="23"/>
       <c r="I33" s="24"/>
       <c r="J33" s="25"/>
     </row>
-    <row r="34" spans="8:10" x14ac:dyDescent="0.4">
+    <row r="34" spans="8:10" x14ac:dyDescent="0.6">
       <c r="H34" s="23"/>
       <c r="I34" s="24"/>
       <c r="J34" s="25"/>
     </row>
-    <row r="35" spans="8:10" x14ac:dyDescent="0.4">
+    <row r="35" spans="8:10" x14ac:dyDescent="0.6">
       <c r="H35" s="23"/>
       <c r="I35" s="24"/>
       <c r="J35" s="25"/>
     </row>
-    <row r="36" spans="8:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="8:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="H36" s="26"/>
       <c r="I36" s="27"/>
       <c r="J36" s="28"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F18" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F27">
+  <autoFilter ref="A1:F18">
+    <sortState ref="A2:F27">
       <sortCondition ref="C1:C18"/>
     </sortState>
   </autoFilter>
@@ -1792,8 +1786,8 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="L18" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="L17" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="L18" r:id="rId1"/>
+    <hyperlink ref="L17" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>

--- a/works.xlsx
+++ b/works.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSAFY\Desktop\itgorae\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23258" windowHeight="12458"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="14895" windowHeight="7290"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +13,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$18</definedName>
   </definedNames>
   <calcPr calcId="145621" refMode="R1C1"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="86">
   <si>
     <t>제목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -353,7 +347,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">배포 </t>
+    <t>디자인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -361,15 +355,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>정처기 3회 정도 풀기</t>
+    <t>배포</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">정처기 3회 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">알고리즘 1개 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제 연동확인, spring 메일 확인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1025,7 +1031,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1035,26 +1041,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="22.1875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.375" customWidth="1"/>
-    <col min="12" max="12" width="14.6875" customWidth="1"/>
-    <col min="13" max="13" width="16.8125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.75" customWidth="1"/>
+    <col min="13" max="13" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="32.125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="18.125" customWidth="1"/>
     <col min="16" max="16" width="17.375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="17.375" customWidth="1"/>
     <col min="18" max="18" width="18.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:21" ht="17.25" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1105,7 +1111,7 @@
       <c r="T1" s="19"/>
       <c r="U1" s="19"/>
     </row>
-    <row r="2" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:21" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
@@ -1134,7 +1140,7 @@
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="15" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
@@ -1144,7 +1150,7 @@
       <c r="T2" s="19"/>
       <c r="U2" s="19"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:21">
       <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
@@ -1173,7 +1179,7 @@
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" s="2" t="s">
@@ -1185,7 +1191,7 @@
       <c r="T3" s="19"/>
       <c r="U3" s="19"/>
     </row>
-    <row r="4" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:21" ht="17.100000000000001" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>33</v>
       </c>
@@ -1212,7 +1218,7 @@
         <v>77</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" s="2" t="s">
@@ -1224,7 +1230,7 @@
       <c r="T4" s="19"/>
       <c r="U4" s="19"/>
     </row>
-    <row r="5" spans="1:21" ht="14.85" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:21" ht="14.85" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -1250,7 +1256,9 @@
       <c r="M5" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="N5" s="2"/>
+      <c r="N5" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="O5" s="2" t="s">
         <v>73</v>
       </c>
@@ -1263,7 +1271,7 @@
       <c r="T5" s="19"/>
       <c r="U5" s="19"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:21">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
@@ -1289,7 +1297,9 @@
       <c r="M6" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="N6" s="2"/>
+      <c r="N6" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
@@ -1298,7 +1308,7 @@
       <c r="T6" s="19"/>
       <c r="U6" s="19"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:21">
       <c r="A7" s="4" t="s">
         <v>40</v>
       </c>
@@ -1324,7 +1334,9 @@
         <v>76</v>
       </c>
       <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
+      <c r="N7" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="O7" s="2"/>
       <c r="P7" s="2" t="s">
         <v>65</v>
@@ -1335,7 +1347,7 @@
       <c r="T7" s="19"/>
       <c r="U7" s="19"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:21">
       <c r="A8" s="4" t="s">
         <v>50</v>
       </c>
@@ -1366,7 +1378,7 @@
       <c r="T8" s="19"/>
       <c r="U8" s="19"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:21">
       <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
@@ -1398,7 +1410,7 @@
       <c r="T9" s="19"/>
       <c r="U9" s="19"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:21">
       <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
@@ -1425,7 +1437,7 @@
       <c r="T10" s="19"/>
       <c r="U10" s="19"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:21">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
@@ -1450,7 +1462,7 @@
       <c r="T11" s="19"/>
       <c r="U11" s="19"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:21">
       <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
@@ -1474,7 +1486,7 @@
       <c r="T12" s="19"/>
       <c r="U12" s="19"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:21">
       <c r="A13" s="4" t="s">
         <v>46</v>
       </c>
@@ -1497,7 +1509,7 @@
       <c r="T13" s="19"/>
       <c r="U13" s="19"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:21">
       <c r="A14" s="4" t="s">
         <v>34</v>
       </c>
@@ -1516,7 +1528,7 @@
       <c r="J14" s="25"/>
       <c r="K14" s="19"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:21">
       <c r="A15" s="4" t="s">
         <v>35</v>
       </c>
@@ -1533,7 +1545,7 @@
       <c r="I15" s="24"/>
       <c r="J15" s="25"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:21">
       <c r="A16" s="4" t="s">
         <v>47</v>
       </c>
@@ -1552,7 +1564,7 @@
       <c r="I16" s="24"/>
       <c r="J16" s="25"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:12">
       <c r="A17" s="4" t="s">
         <v>48</v>
       </c>
@@ -1570,7 +1582,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:12">
       <c r="A18" s="4" t="s">
         <v>57</v>
       </c>
@@ -1590,7 +1602,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:12">
       <c r="A19" s="4" t="s">
         <v>55</v>
       </c>
@@ -1607,7 +1619,7 @@
       <c r="I19" s="24"/>
       <c r="J19" s="25"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:12">
       <c r="A20" s="4" t="s">
         <v>26</v>
       </c>
@@ -1624,7 +1636,7 @@
       <c r="I20" s="24"/>
       <c r="J20" s="25"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:12">
       <c r="A21" s="4" t="s">
         <v>8</v>
       </c>
@@ -1639,7 +1651,7 @@
       <c r="I21" s="24"/>
       <c r="J21" s="25"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:12">
       <c r="A22" s="4" t="s">
         <v>59</v>
       </c>
@@ -1654,7 +1666,7 @@
       <c r="I22" s="24"/>
       <c r="J22" s="25"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:12">
       <c r="A23" s="4" t="s">
         <v>56</v>
       </c>
@@ -1669,7 +1681,7 @@
       <c r="I23" s="24"/>
       <c r="J23" s="25"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:12">
       <c r="A24" s="4" t="s">
         <v>58</v>
       </c>
@@ -1684,7 +1696,7 @@
       <c r="I24" s="24"/>
       <c r="J24" s="25"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:12">
       <c r="A25" s="4" t="s">
         <v>9</v>
       </c>
@@ -1697,7 +1709,7 @@
       <c r="I25" s="24"/>
       <c r="J25" s="25"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:12">
       <c r="A26" s="4" t="s">
         <v>18</v>
       </c>
@@ -1710,7 +1722,7 @@
       <c r="I26" s="24"/>
       <c r="J26" s="25"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:12">
       <c r="A27" s="4" t="s">
         <v>10</v>
       </c>
@@ -1723,7 +1735,7 @@
       <c r="I27" s="24"/>
       <c r="J27" s="25"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:12">
       <c r="A28" s="14" t="s">
         <v>62</v>
       </c>
@@ -1731,42 +1743,42 @@
       <c r="I28" s="24"/>
       <c r="J28" s="25"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:12">
       <c r="H29" s="23"/>
       <c r="I29" s="24"/>
       <c r="J29" s="25"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:12">
       <c r="H30" s="23"/>
       <c r="I30" s="24"/>
       <c r="J30" s="25"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:12">
       <c r="H31" s="23"/>
       <c r="I31" s="24"/>
       <c r="J31" s="25"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:12">
       <c r="H32" s="23"/>
       <c r="I32" s="24"/>
       <c r="J32" s="25"/>
     </row>
-    <row r="33" spans="8:10" x14ac:dyDescent="0.6">
+    <row r="33" spans="8:10">
       <c r="H33" s="23"/>
       <c r="I33" s="24"/>
       <c r="J33" s="25"/>
     </row>
-    <row r="34" spans="8:10" x14ac:dyDescent="0.6">
+    <row r="34" spans="8:10">
       <c r="H34" s="23"/>
       <c r="I34" s="24"/>
       <c r="J34" s="25"/>
     </row>
-    <row r="35" spans="8:10" x14ac:dyDescent="0.6">
+    <row r="35" spans="8:10">
       <c r="H35" s="23"/>
       <c r="I35" s="24"/>
       <c r="J35" s="25"/>
     </row>
-    <row r="36" spans="8:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="36" spans="8:10" ht="17.25" thickBot="1">
       <c r="H36" s="26"/>
       <c r="I36" s="27"/>
       <c r="J36" s="28"/>

--- a/works.xlsx
+++ b/works.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSAFY\Desktop\바탕화면\itgorae\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="14895" windowHeight="7290"/>
   </bookViews>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="85">
   <si>
     <t>제목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -276,22 +281,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CSS 환경 페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팀 회의</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자율 팀 회의</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>API 설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>칩사기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -313,10 +302,6 @@
   </si>
   <si>
     <t>밥먹고 유저 플로우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16:00 발표 test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -370,12 +355,28 @@
     <t>결제 연동확인, spring 메일 확인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>포팅매뉴얼 및 산출물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아키택처</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리드미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">정처기 1회 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1031,7 +1032,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1045,7 +1046,7 @@
       <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="22.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
@@ -1060,7 +1061,7 @@
     <col min="18" max="18" width="18.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="17.25" thickBot="1">
+    <row r="1" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1111,7 +1112,7 @@
       <c r="T1" s="19"/>
       <c r="U1" s="19"/>
     </row>
-    <row r="2" spans="1:21" ht="17.100000000000001" customHeight="1">
+    <row r="2" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
@@ -1130,17 +1131,17 @@
       <c r="F2" s="2"/>
       <c r="G2" s="3"/>
       <c r="H2" s="20" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="I2" s="21"/>
       <c r="J2" s="22"/>
       <c r="K2" s="19"/>
       <c r="L2" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="15" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
@@ -1150,7 +1151,7 @@
       <c r="T2" s="19"/>
       <c r="U2" s="19"/>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
@@ -1175,23 +1176,21 @@
       <c r="J3" s="25"/>
       <c r="K3" s="19"/>
       <c r="L3" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="O3" s="2"/>
-      <c r="P3" s="2" t="s">
-        <v>63</v>
-      </c>
+      <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="19"/>
       <c r="T3" s="19"/>
       <c r="U3" s="19"/>
     </row>
-    <row r="4" spans="1:21" ht="17.100000000000001" customHeight="1">
+    <row r="4" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A4" s="4" t="s">
         <v>33</v>
       </c>
@@ -1212,25 +1211,23 @@
       <c r="J4" s="25"/>
       <c r="K4" s="19"/>
       <c r="L4" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="O4" s="2"/>
-      <c r="P4" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
       <c r="S4" s="19"/>
       <c r="T4" s="19"/>
       <c r="U4" s="19"/>
     </row>
-    <row r="5" spans="1:21" ht="14.85" customHeight="1">
+    <row r="5" spans="1:21" ht="14.85" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -1251,27 +1248,25 @@
       <c r="J5" s="25"/>
       <c r="K5" s="19"/>
       <c r="L5" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>64</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
       <c r="S5" s="19"/>
       <c r="T5" s="19"/>
       <c r="U5" s="19"/>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
@@ -1292,13 +1287,13 @@
       <c r="J6" s="25"/>
       <c r="K6" s="19"/>
       <c r="L6" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="M6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N6" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -1308,7 +1303,7 @@
       <c r="T6" s="19"/>
       <c r="U6" s="19"/>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A7" s="4" t="s">
         <v>40</v>
       </c>
@@ -1331,23 +1326,23 @@
       <c r="J7" s="25"/>
       <c r="K7" s="19"/>
       <c r="L7" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2" t="s">
-        <v>65</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
       <c r="S7" s="19"/>
       <c r="T7" s="19"/>
       <c r="U7" s="19"/>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A8" s="4" t="s">
         <v>50</v>
       </c>
@@ -1366,11 +1361,13 @@
       <c r="J8" s="25"/>
       <c r="K8" s="19"/>
       <c r="L8" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
+      <c r="O8" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
@@ -1378,7 +1375,7 @@
       <c r="T8" s="19"/>
       <c r="U8" s="19"/>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
@@ -1399,18 +1396,20 @@
       <c r="J9" s="25"/>
       <c r="K9" s="19"/>
       <c r="L9" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
+      <c r="O9" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="T9" s="19"/>
       <c r="U9" s="19"/>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
@@ -1437,7 +1436,7 @@
       <c r="T10" s="19"/>
       <c r="U10" s="19"/>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
@@ -1462,7 +1461,7 @@
       <c r="T11" s="19"/>
       <c r="U11" s="19"/>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
@@ -1486,7 +1485,7 @@
       <c r="T12" s="19"/>
       <c r="U12" s="19"/>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A13" s="4" t="s">
         <v>46</v>
       </c>
@@ -1509,7 +1508,7 @@
       <c r="T13" s="19"/>
       <c r="U13" s="19"/>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A14" s="4" t="s">
         <v>34</v>
       </c>
@@ -1528,7 +1527,7 @@
       <c r="J14" s="25"/>
       <c r="K14" s="19"/>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A15" s="4" t="s">
         <v>35</v>
       </c>
@@ -1545,7 +1544,7 @@
       <c r="I15" s="24"/>
       <c r="J15" s="25"/>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A16" s="4" t="s">
         <v>47</v>
       </c>
@@ -1564,7 +1563,7 @@
       <c r="I16" s="24"/>
       <c r="J16" s="25"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A17" s="4" t="s">
         <v>48</v>
       </c>
@@ -1582,7 +1581,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A18" s="4" t="s">
         <v>57</v>
       </c>
@@ -1602,7 +1601,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A19" s="4" t="s">
         <v>55</v>
       </c>
@@ -1619,7 +1618,7 @@
       <c r="I19" s="24"/>
       <c r="J19" s="25"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A20" s="4" t="s">
         <v>26</v>
       </c>
@@ -1636,7 +1635,7 @@
       <c r="I20" s="24"/>
       <c r="J20" s="25"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A21" s="4" t="s">
         <v>8</v>
       </c>
@@ -1651,7 +1650,7 @@
       <c r="I21" s="24"/>
       <c r="J21" s="25"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A22" s="4" t="s">
         <v>59</v>
       </c>
@@ -1666,7 +1665,7 @@
       <c r="I22" s="24"/>
       <c r="J22" s="25"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A23" s="4" t="s">
         <v>56</v>
       </c>
@@ -1681,7 +1680,7 @@
       <c r="I23" s="24"/>
       <c r="J23" s="25"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A24" s="4" t="s">
         <v>58</v>
       </c>
@@ -1696,7 +1695,7 @@
       <c r="I24" s="24"/>
       <c r="J24" s="25"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A25" s="4" t="s">
         <v>9</v>
       </c>
@@ -1709,7 +1708,7 @@
       <c r="I25" s="24"/>
       <c r="J25" s="25"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A26" s="4" t="s">
         <v>18</v>
       </c>
@@ -1722,7 +1721,7 @@
       <c r="I26" s="24"/>
       <c r="J26" s="25"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A27" s="4" t="s">
         <v>10</v>
       </c>
@@ -1735,7 +1734,7 @@
       <c r="I27" s="24"/>
       <c r="J27" s="25"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A28" s="14" t="s">
         <v>62</v>
       </c>
@@ -1743,42 +1742,42 @@
       <c r="I28" s="24"/>
       <c r="J28" s="25"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.6">
       <c r="H29" s="23"/>
       <c r="I29" s="24"/>
       <c r="J29" s="25"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.6">
       <c r="H30" s="23"/>
       <c r="I30" s="24"/>
       <c r="J30" s="25"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.6">
       <c r="H31" s="23"/>
       <c r="I31" s="24"/>
       <c r="J31" s="25"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.6">
       <c r="H32" s="23"/>
       <c r="I32" s="24"/>
       <c r="J32" s="25"/>
     </row>
-    <row r="33" spans="8:10">
+    <row r="33" spans="8:10" x14ac:dyDescent="0.6">
       <c r="H33" s="23"/>
       <c r="I33" s="24"/>
       <c r="J33" s="25"/>
     </row>
-    <row r="34" spans="8:10">
+    <row r="34" spans="8:10" x14ac:dyDescent="0.6">
       <c r="H34" s="23"/>
       <c r="I34" s="24"/>
       <c r="J34" s="25"/>
     </row>
-    <row r="35" spans="8:10">
+    <row r="35" spans="8:10" x14ac:dyDescent="0.6">
       <c r="H35" s="23"/>
       <c r="I35" s="24"/>
       <c r="J35" s="25"/>
     </row>
-    <row r="36" spans="8:10" ht="17.25" thickBot="1">
+    <row r="36" spans="8:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="H36" s="26"/>
       <c r="I36" s="27"/>
       <c r="J36" s="28"/>

--- a/works.xlsx
+++ b/works.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="80">
   <si>
     <t>제목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -332,30 +332,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>디자인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유니클로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>배포</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">정처기 3회 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">알고리즘 1개 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제 연동확인, spring 메일 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>포팅매뉴얼 및 산출물</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -369,6 +345,10 @@
   </si>
   <si>
     <t xml:space="preserve">정처기 1회 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바구니 사기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1043,7 +1023,7 @@
   <dimension ref="A1:U36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -1140,9 +1120,7 @@
         <v>63</v>
       </c>
       <c r="M2" s="2"/>
-      <c r="N2" s="15" t="s">
-        <v>80</v>
-      </c>
+      <c r="N2" s="15"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
@@ -1179,10 +1157,10 @@
         <v>64</v>
       </c>
       <c r="M3" s="2"/>
-      <c r="N3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
@@ -1216,9 +1194,7 @@
       <c r="M4" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="N4" s="2" t="s">
-        <v>76</v>
-      </c>
+      <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
@@ -1253,11 +1229,9 @@
       <c r="M5" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="N5" s="2" t="s">
-        <v>77</v>
-      </c>
+      <c r="N5" s="2"/>
       <c r="O5" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
@@ -1292,9 +1266,7 @@
       <c r="M6" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="N6" s="2" t="s">
-        <v>78</v>
-      </c>
+      <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
@@ -1329,11 +1301,9 @@
         <v>71</v>
       </c>
       <c r="M7" s="2"/>
-      <c r="N7" s="2" t="s">
-        <v>79</v>
-      </c>
+      <c r="N7" s="2"/>
       <c r="O7" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
@@ -1366,7 +1336,7 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
@@ -1401,7 +1371,7 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>

--- a/works.xlsx
+++ b/works.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="83">
   <si>
     <t>제목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -349,6 +349,18 @@
   </si>
   <si>
     <t>바구니 사기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포팅매뉴얼 , 산출물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">바코드 사기 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리드미 불필요한 서버 비용 감소</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1023,7 +1035,7 @@
   <dimension ref="A1:U36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -1161,7 +1173,9 @@
       <c r="O3" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="P3" s="2"/>
+      <c r="P3" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="19"/>
@@ -1196,7 +1210,9 @@
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
+      <c r="P4" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
       <c r="S4" s="19"/>
@@ -1233,7 +1249,9 @@
       <c r="O5" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="P5" s="2"/>
+      <c r="P5" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
       <c r="S5" s="19"/>

--- a/works.xlsx
+++ b/works.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSAFY\Desktop\바탕화면\itgorae\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\OneDrive\Desktop\itgorae\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F53F4C-79AC-4118-BED0-B4436FEFDBEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="14895" windowHeight="7290"/>
+    <workbookView xWindow="492" yWindow="1860" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="86">
   <si>
     <t>제목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -363,11 +364,23 @@
     <t>리드미 불필요한 서버 비용 감소</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>프로젝트 빼기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2회분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sql3문제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1031,29 +1044,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="22.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.375" customWidth="1"/>
-    <col min="12" max="12" width="14.75" customWidth="1"/>
-    <col min="13" max="13" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="32.125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.125" customWidth="1"/>
-    <col min="16" max="16" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.375" customWidth="1"/>
-    <col min="18" max="18" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.09765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.3984375" customWidth="1"/>
+    <col min="12" max="12" width="14.69921875" customWidth="1"/>
+    <col min="13" max="13" width="16.8984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="32.09765625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.09765625" customWidth="1"/>
+    <col min="16" max="16" width="28" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.3984375" customWidth="1"/>
+    <col min="18" max="18" width="18.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1104,7 +1117,7 @@
       <c r="T1" s="19"/>
       <c r="U1" s="19"/>
     </row>
-    <row r="2" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
@@ -1136,12 +1149,14 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
-      <c r="R2" s="13"/>
+      <c r="R2" s="13" t="s">
+        <v>84</v>
+      </c>
       <c r="S2" s="19"/>
       <c r="T2" s="19"/>
       <c r="U2" s="19"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
@@ -1177,12 +1192,14 @@
         <v>80</v>
       </c>
       <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
+      <c r="R3" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="S3" s="19"/>
       <c r="T3" s="19"/>
       <c r="U3" s="19"/>
     </row>
-    <row r="4" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
         <v>33</v>
       </c>
@@ -1219,7 +1236,7 @@
       <c r="T4" s="19"/>
       <c r="U4" s="19"/>
     </row>
-    <row r="5" spans="1:21" ht="14.85" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:21" ht="14.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -1253,12 +1270,14 @@
         <v>81</v>
       </c>
       <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
+      <c r="R5" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="S5" s="19"/>
       <c r="T5" s="19"/>
       <c r="U5" s="19"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
@@ -1293,7 +1312,7 @@
       <c r="T6" s="19"/>
       <c r="U6" s="19"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
         <v>40</v>
       </c>
@@ -1330,7 +1349,7 @@
       <c r="T7" s="19"/>
       <c r="U7" s="19"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
         <v>50</v>
       </c>
@@ -1363,7 +1382,7 @@
       <c r="T8" s="19"/>
       <c r="U8" s="19"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
@@ -1397,7 +1416,7 @@
       <c r="T9" s="19"/>
       <c r="U9" s="19"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
@@ -1424,7 +1443,7 @@
       <c r="T10" s="19"/>
       <c r="U10" s="19"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
@@ -1449,7 +1468,7 @@
       <c r="T11" s="19"/>
       <c r="U11" s="19"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
@@ -1473,7 +1492,7 @@
       <c r="T12" s="19"/>
       <c r="U12" s="19"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
         <v>46</v>
       </c>
@@ -1496,7 +1515,7 @@
       <c r="T13" s="19"/>
       <c r="U13" s="19"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A14" s="4" t="s">
         <v>34</v>
       </c>
@@ -1515,7 +1534,7 @@
       <c r="J14" s="25"/>
       <c r="K14" s="19"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A15" s="4" t="s">
         <v>35</v>
       </c>
@@ -1532,7 +1551,7 @@
       <c r="I15" s="24"/>
       <c r="J15" s="25"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A16" s="4" t="s">
         <v>47</v>
       </c>
@@ -1551,7 +1570,7 @@
       <c r="I16" s="24"/>
       <c r="J16" s="25"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" s="4" t="s">
         <v>48</v>
       </c>
@@ -1569,7 +1588,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" s="4" t="s">
         <v>57</v>
       </c>
@@ -1589,7 +1608,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" s="4" t="s">
         <v>55</v>
       </c>
@@ -1606,7 +1625,7 @@
       <c r="I19" s="24"/>
       <c r="J19" s="25"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" s="4" t="s">
         <v>26</v>
       </c>
@@ -1623,7 +1642,7 @@
       <c r="I20" s="24"/>
       <c r="J20" s="25"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21" s="4" t="s">
         <v>8</v>
       </c>
@@ -1638,7 +1657,7 @@
       <c r="I21" s="24"/>
       <c r="J21" s="25"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22" s="4" t="s">
         <v>59</v>
       </c>
@@ -1653,7 +1672,7 @@
       <c r="I22" s="24"/>
       <c r="J22" s="25"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23" s="4" t="s">
         <v>56</v>
       </c>
@@ -1668,7 +1687,7 @@
       <c r="I23" s="24"/>
       <c r="J23" s="25"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A24" s="4" t="s">
         <v>58</v>
       </c>
@@ -1683,7 +1702,7 @@
       <c r="I24" s="24"/>
       <c r="J24" s="25"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25" s="4" t="s">
         <v>9</v>
       </c>
@@ -1696,7 +1715,7 @@
       <c r="I25" s="24"/>
       <c r="J25" s="25"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A26" s="4" t="s">
         <v>18</v>
       </c>
@@ -1709,7 +1728,7 @@
       <c r="I26" s="24"/>
       <c r="J26" s="25"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A27" s="4" t="s">
         <v>10</v>
       </c>
@@ -1722,7 +1741,7 @@
       <c r="I27" s="24"/>
       <c r="J27" s="25"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A28" s="14" t="s">
         <v>62</v>
       </c>
@@ -1730,49 +1749,49 @@
       <c r="I28" s="24"/>
       <c r="J28" s="25"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
       <c r="H29" s="23"/>
       <c r="I29" s="24"/>
       <c r="J29" s="25"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
       <c r="H30" s="23"/>
       <c r="I30" s="24"/>
       <c r="J30" s="25"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
       <c r="H31" s="23"/>
       <c r="I31" s="24"/>
       <c r="J31" s="25"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
       <c r="H32" s="23"/>
       <c r="I32" s="24"/>
       <c r="J32" s="25"/>
     </row>
-    <row r="33" spans="8:10" x14ac:dyDescent="0.6">
+    <row r="33" spans="8:10" x14ac:dyDescent="0.4">
       <c r="H33" s="23"/>
       <c r="I33" s="24"/>
       <c r="J33" s="25"/>
     </row>
-    <row r="34" spans="8:10" x14ac:dyDescent="0.6">
+    <row r="34" spans="8:10" x14ac:dyDescent="0.4">
       <c r="H34" s="23"/>
       <c r="I34" s="24"/>
       <c r="J34" s="25"/>
     </row>
-    <row r="35" spans="8:10" x14ac:dyDescent="0.6">
+    <row r="35" spans="8:10" x14ac:dyDescent="0.4">
       <c r="H35" s="23"/>
       <c r="I35" s="24"/>
       <c r="J35" s="25"/>
     </row>
-    <row r="36" spans="8:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="36" spans="8:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="H36" s="26"/>
       <c r="I36" s="27"/>
       <c r="J36" s="28"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F18">
-    <sortState ref="A2:F27">
+  <autoFilter ref="A1:F18" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F27">
       <sortCondition ref="C1:C18"/>
     </sortState>
   </autoFilter>
@@ -1785,8 +1804,8 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="L18" r:id="rId1"/>
-    <hyperlink ref="L17" r:id="rId2"/>
+    <hyperlink ref="L18" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="L17" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>

--- a/works.xlsx
+++ b/works.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\OneDrive\Desktop\itgorae\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSAFY\Desktop\itgorae\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F53F4C-79AC-4118-BED0-B4436FEFDBEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="492" yWindow="1860" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="495" yWindow="1860" windowWidth="17280" windowHeight="8880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="83">
   <si>
     <t>제목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -282,39 +281,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>칩사기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신발 챙기기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nfc 마무리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>디자인 마무리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정처기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>밥먹고 유저 플로우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제 마무리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sql *2 문제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>알고리즘 해시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -376,11 +343,31 @@
     <t>sql3문제</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>정처기 2회 복습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sql 1문제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">포폴 양식 고르기 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제api 정리, 패턴비교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -676,7 +663,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -717,9 +704,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
@@ -1044,29 +1028,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="22.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.09765625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.3984375" customWidth="1"/>
-    <col min="12" max="12" width="14.69921875" customWidth="1"/>
-    <col min="13" max="13" width="16.8984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="32.09765625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.09765625" customWidth="1"/>
+    <col min="1" max="1" width="22.1875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.375" customWidth="1"/>
+    <col min="12" max="12" width="20.375" customWidth="1"/>
+    <col min="13" max="13" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="32.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.125" customWidth="1"/>
     <col min="16" max="16" width="28" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.3984375" customWidth="1"/>
-    <col min="18" max="18" width="18.8984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.375" customWidth="1"/>
+    <col min="18" max="18" width="18.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1086,12 +1070,12 @@
         <v>4</v>
       </c>
       <c r="G1" s="3"/>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="19"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="18"/>
       <c r="L1" s="7" t="s">
         <v>27</v>
       </c>
@@ -1113,11 +1097,11 @@
       <c r="R1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-    </row>
-    <row r="2" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+    </row>
+    <row r="2" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
@@ -1135,28 +1119,28 @@
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="I2" s="21"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="19"/>
+      <c r="H2" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" s="20"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="18"/>
       <c r="L2" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="M2" s="2"/>
-      <c r="N2" s="15"/>
+      <c r="N2" s="14"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.4">
+        <v>76</v>
+      </c>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
@@ -1176,30 +1160,30 @@
         <v>51</v>
       </c>
       <c r="G3" s="3"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="19"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="18"/>
       <c r="L3" s="2" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-    </row>
-    <row r="4" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+        <v>77</v>
+      </c>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+    </row>
+    <row r="4" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A4" s="4" t="s">
         <v>33</v>
       </c>
@@ -1215,28 +1199,28 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="19"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="18"/>
       <c r="L4" s="2" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-    </row>
-    <row r="5" spans="1:21" ht="14.85" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+    </row>
+    <row r="5" spans="1:21" ht="14.85" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -1252,32 +1236,32 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="19"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="18"/>
       <c r="L5" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.4">
+        <v>75</v>
+      </c>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
@@ -1293,26 +1277,24 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="H6" s="22"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="2"/>
       <c r="M6" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A7" s="4" t="s">
         <v>40</v>
       </c>
@@ -1330,26 +1312,24 @@
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="H7" s="22"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A8" s="4" t="s">
         <v>50</v>
       </c>
@@ -1363,26 +1343,24 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="2" t="s">
-        <v>70</v>
-      </c>
+      <c r="H8" s="22"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="19"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
@@ -1398,25 +1376,23 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="2" t="s">
-        <v>67</v>
-      </c>
+      <c r="H9" s="22"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
@@ -1432,18 +1408,18 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="19"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="18"/>
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
       <c r="N10" s="12"/>
       <c r="O10" s="12"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
@@ -1459,16 +1435,16 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="19"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="18"/>
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="T11" s="18"/>
+      <c r="U11" s="18"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
@@ -1484,15 +1460,15 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="19"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="18"/>
       <c r="M12" s="12"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="T12" s="18"/>
+      <c r="U12" s="18"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A13" s="4" t="s">
         <v>46</v>
       </c>
@@ -1508,14 +1484,14 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="19"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="19"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="H13" s="22"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="18"/>
+      <c r="T13" s="18"/>
+      <c r="U13" s="18"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A14" s="4" t="s">
         <v>34</v>
       </c>
@@ -1529,12 +1505,12 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="19"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="H14" s="22"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="18"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A15" s="4" t="s">
         <v>35</v>
       </c>
@@ -1547,11 +1523,11 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="25"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="H15" s="22"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="24"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A16" s="4" t="s">
         <v>47</v>
       </c>
@@ -1566,11 +1542,11 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="25"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="H16" s="22"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="24"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A17" s="4" t="s">
         <v>48</v>
       </c>
@@ -1581,14 +1557,14 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="25"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="24"/>
       <c r="L17" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A18" s="4" t="s">
         <v>57</v>
       </c>
@@ -1601,14 +1577,14 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="25"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="24"/>
       <c r="L18" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A19" s="4" t="s">
         <v>55</v>
       </c>
@@ -1621,11 +1597,11 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="25"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="H19" s="22"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="24"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A20" s="4" t="s">
         <v>26</v>
       </c>
@@ -1638,11 +1614,11 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="25"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="H20" s="22"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="24"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A21" s="4" t="s">
         <v>8</v>
       </c>
@@ -1653,11 +1629,11 @@
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="25"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="H21" s="22"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="24"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A22" s="4" t="s">
         <v>59</v>
       </c>
@@ -1668,11 +1644,11 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="25"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="H22" s="22"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="24"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A23" s="4" t="s">
         <v>56</v>
       </c>
@@ -1683,11 +1659,11 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="25"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="H23" s="22"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="24"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A24" s="4" t="s">
         <v>58</v>
       </c>
@@ -1698,11 +1674,11 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="25"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="H24" s="22"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="24"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A25" s="4" t="s">
         <v>9</v>
       </c>
@@ -1711,11 +1687,11 @@
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="25"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="H25" s="22"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="24"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A26" s="4" t="s">
         <v>18</v>
       </c>
@@ -1724,11 +1700,11 @@
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="25"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="H26" s="22"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="24"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A27" s="4" t="s">
         <v>10</v>
       </c>
@@ -1737,61 +1713,76 @@
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="25"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A28" s="14" t="s">
+      <c r="H27" s="22"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="24"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A28" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H28" s="23"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="25"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="H29" s="23"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="25"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="H30" s="23"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="25"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="H31" s="23"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="25"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="H32" s="23"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="25"/>
-    </row>
-    <row r="33" spans="8:10" x14ac:dyDescent="0.4">
-      <c r="H33" s="23"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="25"/>
-    </row>
-    <row r="34" spans="8:10" x14ac:dyDescent="0.4">
-      <c r="H34" s="23"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="25"/>
-    </row>
-    <row r="35" spans="8:10" x14ac:dyDescent="0.4">
-      <c r="H35" s="23"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="25"/>
-    </row>
-    <row r="36" spans="8:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="H36" s="26"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="28"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="24"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A29" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="5">
+        <v>45597</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="24"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="H30" s="22"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="24"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="H31" s="22"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="24"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="H32" s="22"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="24"/>
+    </row>
+    <row r="33" spans="8:10" x14ac:dyDescent="0.6">
+      <c r="H33" s="22"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="24"/>
+    </row>
+    <row r="34" spans="8:10" x14ac:dyDescent="0.6">
+      <c r="H34" s="22"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="24"/>
+    </row>
+    <row r="35" spans="8:10" x14ac:dyDescent="0.6">
+      <c r="H35" s="22"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="24"/>
+    </row>
+    <row r="36" spans="8:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="H36" s="25"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F18" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F27">
+  <autoFilter ref="A1:F18">
+    <sortState ref="A2:F27">
       <sortCondition ref="C1:C18"/>
     </sortState>
   </autoFilter>
@@ -1804,8 +1795,8 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="L18" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="L17" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="L18" r:id="rId1"/>
+    <hyperlink ref="L17" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>

--- a/works.xlsx
+++ b/works.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSAFY\Desktop\itgorae\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\OneDrive\Desktop\itgorae\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE352230-DFBB-4418-923D-3016B4444964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="495" yWindow="1860" windowWidth="17280" windowHeight="8880"/>
+    <workbookView xWindow="492" yWindow="1860" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="72">
   <si>
     <t>제목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -278,18 +279,6 @@
   </si>
   <si>
     <t>유니클로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>밥먹고 유저 플로우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유니클로 지원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>exe 파일 배포</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -300,38 +289,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>포팅매뉴얼 및 산출물</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아키택처</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리드미</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">정처기 1회 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바구니 사기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포팅매뉴얼 , 산출물</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">바코드 사기 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리드미 불필요한 서버 비용 감소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>프로젝트 빼기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -367,7 +324,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1028,29 +985,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="22.1875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.375" customWidth="1"/>
-    <col min="12" max="12" width="20.375" customWidth="1"/>
-    <col min="13" max="13" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="32.125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.125" customWidth="1"/>
+    <col min="1" max="1" width="22.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.09765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.3984375" customWidth="1"/>
+    <col min="12" max="12" width="20.3984375" customWidth="1"/>
+    <col min="13" max="13" width="16.8984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="32.09765625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.09765625" customWidth="1"/>
     <col min="16" max="16" width="28" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.375" customWidth="1"/>
-    <col min="18" max="18" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.3984375" customWidth="1"/>
+    <col min="18" max="18" width="18.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1101,7 +1058,7 @@
       <c r="T1" s="18"/>
       <c r="U1" s="18"/>
     </row>
-    <row r="2" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
@@ -1120,13 +1077,13 @@
       <c r="F2" s="2"/>
       <c r="G2" s="3"/>
       <c r="H2" s="19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I2" s="20"/>
       <c r="J2" s="21"/>
       <c r="K2" s="18"/>
       <c r="L2" s="2" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="14"/>
@@ -1134,13 +1091,13 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="13" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="S2" s="18"/>
       <c r="T2" s="18"/>
       <c r="U2" s="18"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
@@ -1165,25 +1122,21 @@
       <c r="J3" s="24"/>
       <c r="K3" s="18"/>
       <c r="L3" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
-      <c r="O3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>72</v>
-      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="S3" s="18"/>
       <c r="T3" s="18"/>
       <c r="U3" s="18"/>
     </row>
-    <row r="4" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
         <v>33</v>
       </c>
@@ -1204,23 +1157,19 @@
       <c r="J4" s="24"/>
       <c r="K4" s="18"/>
       <c r="L4" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>64</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
-      <c r="P4" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
       <c r="S4" s="18"/>
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
     </row>
-    <row r="5" spans="1:21" ht="14.85" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:21" ht="14.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -1241,27 +1190,21 @@
       <c r="J5" s="24"/>
       <c r="K5" s="18"/>
       <c r="L5" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>63</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="M5" s="2"/>
       <c r="N5" s="2"/>
-      <c r="O5" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="S5" s="18"/>
       <c r="T5" s="18"/>
       <c r="U5" s="18"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
@@ -1282,9 +1225,7 @@
       <c r="J6" s="24"/>
       <c r="K6" s="18"/>
       <c r="L6" s="2"/>
-      <c r="M6" s="2" t="s">
-        <v>65</v>
-      </c>
+      <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -1294,7 +1235,7 @@
       <c r="T6" s="18"/>
       <c r="U6" s="18"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
         <v>40</v>
       </c>
@@ -1319,9 +1260,7 @@
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
-      <c r="O7" s="2" t="s">
-        <v>68</v>
-      </c>
+      <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
@@ -1329,7 +1268,7 @@
       <c r="T7" s="18"/>
       <c r="U7" s="18"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
         <v>50</v>
       </c>
@@ -1350,9 +1289,7 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
-      <c r="O8" s="2" t="s">
-        <v>69</v>
-      </c>
+      <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
@@ -1360,7 +1297,7 @@
       <c r="T8" s="18"/>
       <c r="U8" s="18"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
@@ -1383,16 +1320,14 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
-      <c r="O9" s="2" t="s">
-        <v>70</v>
-      </c>
+      <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="T9" s="18"/>
       <c r="U9" s="18"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
@@ -1419,7 +1354,7 @@
       <c r="T10" s="18"/>
       <c r="U10" s="18"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
@@ -1444,7 +1379,7 @@
       <c r="T11" s="18"/>
       <c r="U11" s="18"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
@@ -1468,7 +1403,7 @@
       <c r="T12" s="18"/>
       <c r="U12" s="18"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
         <v>46</v>
       </c>
@@ -1491,7 +1426,7 @@
       <c r="T13" s="18"/>
       <c r="U13" s="18"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A14" s="4" t="s">
         <v>34</v>
       </c>
@@ -1510,7 +1445,7 @@
       <c r="J14" s="24"/>
       <c r="K14" s="18"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A15" s="4" t="s">
         <v>35</v>
       </c>
@@ -1527,7 +1462,7 @@
       <c r="I15" s="23"/>
       <c r="J15" s="24"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A16" s="4" t="s">
         <v>47</v>
       </c>
@@ -1546,7 +1481,7 @@
       <c r="I16" s="23"/>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" s="4" t="s">
         <v>48</v>
       </c>
@@ -1564,7 +1499,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" s="4" t="s">
         <v>57</v>
       </c>
@@ -1584,7 +1519,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" s="4" t="s">
         <v>55</v>
       </c>
@@ -1601,7 +1536,7 @@
       <c r="I19" s="23"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" s="4" t="s">
         <v>26</v>
       </c>
@@ -1618,7 +1553,7 @@
       <c r="I20" s="23"/>
       <c r="J20" s="24"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21" s="4" t="s">
         <v>8</v>
       </c>
@@ -1633,7 +1568,7 @@
       <c r="I21" s="23"/>
       <c r="J21" s="24"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22" s="4" t="s">
         <v>59</v>
       </c>
@@ -1648,7 +1583,7 @@
       <c r="I22" s="23"/>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23" s="4" t="s">
         <v>56</v>
       </c>
@@ -1663,7 +1598,7 @@
       <c r="I23" s="23"/>
       <c r="J23" s="24"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A24" s="4" t="s">
         <v>58</v>
       </c>
@@ -1678,7 +1613,7 @@
       <c r="I24" s="23"/>
       <c r="J24" s="24"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25" s="4" t="s">
         <v>9</v>
       </c>
@@ -1691,7 +1626,7 @@
       <c r="I25" s="23"/>
       <c r="J25" s="24"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A26" s="4" t="s">
         <v>18</v>
       </c>
@@ -1704,7 +1639,7 @@
       <c r="I26" s="23"/>
       <c r="J26" s="24"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A27" s="4" t="s">
         <v>10</v>
       </c>
@@ -1717,7 +1652,7 @@
       <c r="I27" s="23"/>
       <c r="J27" s="24"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A28" s="4" t="s">
         <v>62</v>
       </c>
@@ -1730,9 +1665,9 @@
       <c r="I28" s="23"/>
       <c r="J28" s="24"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A29" s="4" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="5">
@@ -1745,44 +1680,44 @@
       <c r="I29" s="23"/>
       <c r="J29" s="24"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
       <c r="H30" s="22"/>
       <c r="I30" s="23"/>
       <c r="J30" s="24"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
       <c r="H31" s="22"/>
       <c r="I31" s="23"/>
       <c r="J31" s="24"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
       <c r="H32" s="22"/>
       <c r="I32" s="23"/>
       <c r="J32" s="24"/>
     </row>
-    <row r="33" spans="8:10" x14ac:dyDescent="0.6">
+    <row r="33" spans="8:10" x14ac:dyDescent="0.4">
       <c r="H33" s="22"/>
       <c r="I33" s="23"/>
       <c r="J33" s="24"/>
     </row>
-    <row r="34" spans="8:10" x14ac:dyDescent="0.6">
+    <row r="34" spans="8:10" x14ac:dyDescent="0.4">
       <c r="H34" s="22"/>
       <c r="I34" s="23"/>
       <c r="J34" s="24"/>
     </row>
-    <row r="35" spans="8:10" x14ac:dyDescent="0.6">
+    <row r="35" spans="8:10" x14ac:dyDescent="0.4">
       <c r="H35" s="22"/>
       <c r="I35" s="23"/>
       <c r="J35" s="24"/>
     </row>
-    <row r="36" spans="8:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="36" spans="8:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="H36" s="25"/>
       <c r="I36" s="26"/>
       <c r="J36" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F18">
-    <sortState ref="A2:F27">
+  <autoFilter ref="A1:F18" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F27">
       <sortCondition ref="C1:C18"/>
     </sortState>
   </autoFilter>
@@ -1795,8 +1730,8 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="L18" r:id="rId1"/>
-    <hyperlink ref="L17" r:id="rId2"/>
+    <hyperlink ref="L18" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="L17" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>

--- a/works.xlsx
+++ b/works.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\OneDrive\Desktop\itgorae\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSAFY\Desktop\itgorae\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE352230-DFBB-4418-923D-3016B4444964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="492" yWindow="1860" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="495" yWindow="1860" windowWidth="17280" windowHeight="8880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="76">
   <si>
     <t>제목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -282,13 +281,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">숫자 오류 수정13자리 나오게해주기 해결
-DB 상품 3개 지정 
-결제 api 수정 select 페이지로 리다이렉트
-otp </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>프로젝트 빼기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -318,14 +310,59 @@
   </si>
   <si>
     <t>결제api 정리, 패턴비교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4회 풀기 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6키로 러닝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포폴 양식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">패키지 PT
+1. 패키지 작동여부
+2. 오류 가능성
+3. test 오류 여부
+4. 콘솔 여부
+파피루스 
+익스탠션
+도화지
+TMS
+SAP NetWeaver
+HRM
+재무관리
+https://www.sap.com/korea/index.html
+AutoCad web + 웹어셈블리
+정지환
+* git lab -&gt; 이미지 코드리뷰, 알림
+* 컨설턴트 에이전트 -&gt; chatBot + jira ticket 자동생성 
+* arrayz ai 쓰고싶다 
+오승진
+* 러닝 크루 관리 서비스(pace 별로)
+문재성
+* 채널 별 말투  , 인스타 
+이수완
+* 파이프라인 데이터 이쿠
+* 분자구조 
+디바이스 하드웨어 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -345,13 +382,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="G마켓 산스 TTF Bold"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="G마켓 산스 TTF Medium"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -415,7 +445,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -540,87 +570,16 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -633,13 +592,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -654,18 +613,18 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -678,32 +637,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -985,29 +923,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:J45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="22.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.09765625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.3984375" customWidth="1"/>
-    <col min="12" max="12" width="20.3984375" customWidth="1"/>
-    <col min="13" max="13" width="16.8984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="32.09765625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.09765625" customWidth="1"/>
+    <col min="1" max="1" width="22.1875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.375" customWidth="1"/>
+    <col min="12" max="12" width="20.375" customWidth="1"/>
+    <col min="13" max="13" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="32.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.125" customWidth="1"/>
     <col min="16" max="16" width="28" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.3984375" customWidth="1"/>
-    <col min="18" max="18" width="18.8984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.375" customWidth="1"/>
+    <col min="18" max="18" width="18.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1058,7 +996,7 @@
       <c r="T1" s="18"/>
       <c r="U1" s="18"/>
     </row>
-    <row r="2" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
@@ -1077,27 +1015,29 @@
       <c r="F2" s="2"/>
       <c r="G2" s="3"/>
       <c r="H2" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="I2" s="20"/>
-      <c r="J2" s="21"/>
+        <v>75</v>
+      </c>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
       <c r="K2" s="18"/>
       <c r="L2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="M2" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="N2" s="14"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S2" s="18"/>
       <c r="T2" s="18"/>
       <c r="U2" s="18"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
@@ -1117,26 +1057,28 @@
         <v>51</v>
       </c>
       <c r="G3" s="3"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="24"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
       <c r="K3" s="18"/>
       <c r="L3" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="M3" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S3" s="18"/>
       <c r="T3" s="18"/>
       <c r="U3" s="18"/>
     </row>
-    <row r="4" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A4" s="4" t="s">
         <v>33</v>
       </c>
@@ -1152,12 +1094,12 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="24"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
       <c r="K4" s="18"/>
       <c r="L4" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1169,7 +1111,7 @@
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
     </row>
-    <row r="5" spans="1:21" ht="14.85" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:21" ht="14.85" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -1185,26 +1127,28 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="24"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
       <c r="K5" s="18"/>
       <c r="L5" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M5" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S5" s="18"/>
       <c r="T5" s="18"/>
       <c r="U5" s="18"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
@@ -1220,12 +1164,14 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="24"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
       <c r="K6" s="18"/>
       <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
+      <c r="M6" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -1235,7 +1181,7 @@
       <c r="T6" s="18"/>
       <c r="U6" s="18"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A7" s="4" t="s">
         <v>40</v>
       </c>
@@ -1253,9 +1199,9 @@
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="24"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
       <c r="K7" s="18"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -1268,7 +1214,7 @@
       <c r="T7" s="18"/>
       <c r="U7" s="18"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A8" s="4" t="s">
         <v>50</v>
       </c>
@@ -1282,9 +1228,9 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="24"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
       <c r="K8" s="18"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -1297,7 +1243,7 @@
       <c r="T8" s="18"/>
       <c r="U8" s="18"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
@@ -1313,9 +1259,9 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="24"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
       <c r="K9" s="18"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -1327,7 +1273,7 @@
       <c r="T9" s="18"/>
       <c r="U9" s="18"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
@@ -1343,9 +1289,9 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="24"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
       <c r="K10" s="18"/>
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
@@ -1354,7 +1300,7 @@
       <c r="T10" s="18"/>
       <c r="U10" s="18"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
@@ -1370,16 +1316,16 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="24"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
       <c r="K11" s="18"/>
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
       <c r="T11" s="18"/>
       <c r="U11" s="18"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
@@ -1395,15 +1341,15 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="24"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
       <c r="K12" s="18"/>
       <c r="M12" s="12"/>
       <c r="T12" s="18"/>
       <c r="U12" s="18"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A13" s="4" t="s">
         <v>46</v>
       </c>
@@ -1419,14 +1365,14 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="24"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
       <c r="K13" s="18"/>
       <c r="T13" s="18"/>
       <c r="U13" s="18"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A14" s="4" t="s">
         <v>34</v>
       </c>
@@ -1440,12 +1386,12 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="24"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
       <c r="K14" s="18"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A15" s="4" t="s">
         <v>35</v>
       </c>
@@ -1458,11 +1404,11 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="24"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A16" s="4" t="s">
         <v>47</v>
       </c>
@@ -1477,11 +1423,11 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="24"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A17" s="4" t="s">
         <v>48</v>
       </c>
@@ -1492,14 +1438,14 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="24"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
       <c r="L17" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A18" s="4" t="s">
         <v>57</v>
       </c>
@@ -1512,14 +1458,14 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="24"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
       <c r="L18" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A19" s="4" t="s">
         <v>55</v>
       </c>
@@ -1532,11 +1478,11 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="24"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A20" s="4" t="s">
         <v>26</v>
       </c>
@@ -1549,11 +1495,11 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="24"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A21" s="4" t="s">
         <v>8</v>
       </c>
@@ -1564,11 +1510,11 @@
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="24"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A22" s="4" t="s">
         <v>59</v>
       </c>
@@ -1579,11 +1525,11 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="24"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A23" s="4" t="s">
         <v>56</v>
       </c>
@@ -1594,11 +1540,11 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="24"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A24" s="4" t="s">
         <v>58</v>
       </c>
@@ -1609,11 +1555,11 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="24"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A25" s="4" t="s">
         <v>9</v>
       </c>
@@ -1622,11 +1568,11 @@
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="24"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A26" s="4" t="s">
         <v>18</v>
       </c>
@@ -1635,11 +1581,11 @@
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="24"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A27" s="4" t="s">
         <v>10</v>
       </c>
@@ -1648,11 +1594,11 @@
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="24"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A28" s="4" t="s">
         <v>62</v>
       </c>
@@ -1661,13 +1607,13 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="24"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A29" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="5">
@@ -1676,48 +1622,93 @@
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="24"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="H30" s="22"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="24"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="H31" s="22"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="24"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="H32" s="22"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="24"/>
-    </row>
-    <row r="33" spans="8:10" x14ac:dyDescent="0.4">
-      <c r="H33" s="22"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="24"/>
-    </row>
-    <row r="34" spans="8:10" x14ac:dyDescent="0.4">
-      <c r="H34" s="22"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="24"/>
-    </row>
-    <row r="35" spans="8:10" x14ac:dyDescent="0.4">
-      <c r="H35" s="22"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="24"/>
-    </row>
-    <row r="36" spans="8:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="H36" s="25"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="27"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+    </row>
+    <row r="33" spans="8:10" x14ac:dyDescent="0.6">
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+    </row>
+    <row r="34" spans="8:10" x14ac:dyDescent="0.6">
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+    </row>
+    <row r="35" spans="8:10" x14ac:dyDescent="0.6">
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+    </row>
+    <row r="36" spans="8:10" x14ac:dyDescent="0.6">
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+    </row>
+    <row r="37" spans="8:10" x14ac:dyDescent="0.6">
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+    </row>
+    <row r="38" spans="8:10" x14ac:dyDescent="0.6">
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+    </row>
+    <row r="39" spans="8:10" x14ac:dyDescent="0.6">
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+    </row>
+    <row r="40" spans="8:10" x14ac:dyDescent="0.6">
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+    </row>
+    <row r="41" spans="8:10" x14ac:dyDescent="0.6">
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+    </row>
+    <row r="42" spans="8:10" x14ac:dyDescent="0.6">
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
+    </row>
+    <row r="43" spans="8:10" x14ac:dyDescent="0.6">
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20"/>
+    </row>
+    <row r="44" spans="8:10" x14ac:dyDescent="0.6">
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+    </row>
+    <row r="45" spans="8:10" x14ac:dyDescent="0.6">
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F18" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F27">
+  <autoFilter ref="A1:F18">
+    <sortState ref="A2:F27">
       <sortCondition ref="C1:C18"/>
     </sortState>
   </autoFilter>
@@ -1726,12 +1717,12 @@
     <mergeCell ref="K1:K14"/>
     <mergeCell ref="S1:U8"/>
     <mergeCell ref="T9:U13"/>
-    <mergeCell ref="H2:J36"/>
+    <mergeCell ref="H2:J45"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="L18" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="L17" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="L18" r:id="rId1"/>
+    <hyperlink ref="L17" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>

--- a/works.xlsx
+++ b/works.xlsx
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$18</definedName>
   </definedNames>
-  <calcPr calcId="145621" refMode="R1C1"/>
+  <calcPr calcId="162913" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
   <si>
     <t>제목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -225,107 +225,162 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>현대모비스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탈락</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT 물류 솔루션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디지털 ICT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하나은행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CJ 올리브 네트웍스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현대무백스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CJ 대한통운</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유니코로지스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://musinsa.career.greetinghr.com/o/128396</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금주 과업(9/30 주)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유니클로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 빼기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2회분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sql3문제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4회 풀기 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6키로 러닝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포폴 양식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERD 피지컬 논리적 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">DB 선택 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>큐를 넣을지 말지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코랩 학습용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">cpu ec2 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디비 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">그냥 할일 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로젠</t>
+  </si>
+  <si>
+    <t>로젠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자이언트네트워크</t>
+  </si>
+  <si>
+    <t>자이언트네트워크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다만듬</t>
+  </si>
+  <si>
+    <t>다만듬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인커스소프트</t>
+  </si>
+  <si>
+    <t>인커스소프트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>지원 완료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>현대모비스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>탈락</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>토</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IT 물류 솔루션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>디지털 ICT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하나은행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CJ 올리브 네트웍스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현대무백스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CJ 대한통운</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유니코로지스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://musinsa.career.greetinghr.com/o/128396</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>금주 과업(9/30 주)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유니클로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로젝트 빼기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2회분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sql3문제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정처기 2회 복습</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sql 1문제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">포폴 양식 고르기 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제api 정리, 패턴비교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4회 풀기 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>복습</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6키로 러닝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포폴 양식</t>
+    <t>지원 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼성전자로지텍</t>
+  </si>
+  <si>
+    <t>삼성전자로지텍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -355,6 +410,17 @@
 * 파이프라인 데이터 이쿠
 * 분자구조 
 디바이스 하드웨어 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포트폴리오 
+이전 프로젝트 정리(회원가입, 로그인, 매장생성, 키오스크 생성, OTP 생성, 결제)
+큐  
+색인 
+인덱싱 
+(Nonclustered index
+clustered index)
+마리아디비 노SQL 레디스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -445,7 +511,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -570,6 +636,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -579,7 +658,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -642,6 +721,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -926,8 +1011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:J45"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20:N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -936,6 +1021,7 @@
     <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.375" customWidth="1"/>
+    <col min="11" max="11" width="11.125" customWidth="1"/>
     <col min="12" max="12" width="20.375" customWidth="1"/>
     <col min="13" max="13" width="16.875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="32.125" bestFit="1" customWidth="1"/>
@@ -966,7 +1052,7 @@
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I1" s="16"/>
       <c r="J1" s="17"/>
@@ -987,7 +1073,7 @@
         <v>22</v>
       </c>
       <c r="Q1" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R1" s="10" t="s">
         <v>21</v>
@@ -998,40 +1084,34 @@
     </row>
     <row r="2" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="B2" s="4"/>
       <c r="C2" s="5">
-        <v>45545</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>51</v>
-      </c>
+        <v>45569</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="3"/>
       <c r="H2" s="19" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="I2" s="19"/>
       <c r="J2" s="19"/>
       <c r="K2" s="18"/>
       <c r="L2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="N2" s="14"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S2" s="18"/>
       <c r="T2" s="18"/>
@@ -1039,40 +1119,34 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>25</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="B3" s="4"/>
       <c r="C3" s="5">
-        <v>45545</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>51</v>
-      </c>
+        <v>45569</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
       <c r="G3" s="3"/>
       <c r="H3" s="20"/>
       <c r="I3" s="20"/>
       <c r="J3" s="20"/>
       <c r="K3" s="18"/>
       <c r="L3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="N3" s="2"/>
+      <c r="N3" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S3" s="18"/>
       <c r="T3" s="18"/>
@@ -1080,17 +1154,13 @@
     </row>
     <row r="4" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>32</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B4" s="4"/>
       <c r="C4" s="5">
-        <v>45546</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>38</v>
-      </c>
+        <v>45569</v>
+      </c>
+      <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="3"/>
@@ -1099,10 +1169,12 @@
       <c r="J4" s="20"/>
       <c r="K4" s="18"/>
       <c r="L4" s="2" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
+      <c r="N4" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
@@ -1113,17 +1185,13 @@
     </row>
     <row r="5" spans="1:21" ht="14.85" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>36</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B5" s="4"/>
       <c r="C5" s="5">
-        <v>45549</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>38</v>
-      </c>
+        <v>45569</v>
+      </c>
+      <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="3"/>
@@ -1132,17 +1200,19 @@
       <c r="J5" s="20"/>
       <c r="K5" s="18"/>
       <c r="L5" s="2" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="N5" s="2"/>
+        <v>68</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S5" s="18"/>
       <c r="T5" s="18"/>
@@ -1150,17 +1220,13 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B6" s="4"/>
       <c r="C6" s="5">
-        <v>45553</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>41</v>
-      </c>
+        <v>45569</v>
+      </c>
+      <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="3"/>
@@ -1168,11 +1234,15 @@
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
       <c r="K6" s="18"/>
-      <c r="L6" s="2"/>
+      <c r="L6" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="M6" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="N6" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
@@ -1183,20 +1253,14 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="B7" s="4"/>
       <c r="C7" s="5">
-        <v>45553</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>51</v>
-      </c>
+        <v>45569</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="3"/>
       <c r="H7" s="20"/>
@@ -1205,7 +1269,9 @@
       <c r="K7" s="18"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
+      <c r="N7" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
@@ -1216,15 +1282,13 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A8" s="4" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="5">
-        <v>45554</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>45569</v>
+      </c>
+      <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="3"/>
@@ -1234,7 +1298,9 @@
       <c r="K8" s="18"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
+      <c r="N8" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
@@ -1245,17 +1311,13 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>43</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="B9" s="4"/>
       <c r="C9" s="5">
-        <v>45554</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>38</v>
-      </c>
+        <v>45566</v>
+      </c>
+      <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="3"/>
@@ -1275,17 +1337,13 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>30</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B10" s="4"/>
       <c r="C10" s="5">
-        <v>45554</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>45564</v>
+      </c>
+      <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="3"/>
@@ -1302,17 +1360,15 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A11" s="4" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C11" s="5">
-        <v>45554</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>45562</v>
+      </c>
+      <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="3"/>
@@ -1327,17 +1383,15 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A12" s="4" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="C12" s="5">
-        <v>45554</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>45560</v>
+      </c>
+      <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="3"/>
@@ -1351,17 +1405,15 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A13" s="4" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="C13" s="5">
-        <v>45554</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>45560</v>
+      </c>
+      <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="3"/>
@@ -1374,14 +1426,16 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A14" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="4"/>
+        <v>47</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="C14" s="5">
-        <v>45554</v>
+        <v>45558</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -1393,15 +1447,13 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A15" s="4" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="5">
-        <v>45554</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>45558</v>
+      </c>
+      <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="H15" s="20"/>
@@ -1410,16 +1462,14 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A16" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>44</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="B16" s="4"/>
       <c r="C16" s="5">
-        <v>45558</v>
+        <v>45554</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -1427,35 +1477,41 @@
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A17" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="C17" s="5">
-        <v>45558</v>
-      </c>
-      <c r="D17" s="2"/>
+        <v>45554</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="H17" s="20"/>
       <c r="I17" s="20"/>
       <c r="J17" s="20"/>
       <c r="L17" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.6">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A18" s="4" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="C18" s="5">
-        <v>45560</v>
-      </c>
-      <c r="D18" s="2"/>
+        <v>45554</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="H18" s="20"/>
@@ -1465,259 +1521,441 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A19" s="4" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="C19" s="5">
-        <v>45560</v>
-      </c>
-      <c r="D19" s="2"/>
+        <v>45554</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="H19" s="20"/>
       <c r="I19" s="20"/>
       <c r="J19" s="20"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="L19" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="M19" s="16"/>
+      <c r="N19" s="22"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A20" s="4" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="C20" s="5">
-        <v>45562</v>
-      </c>
-      <c r="D20" s="2"/>
+        <v>45554</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="H20" s="20"/>
       <c r="I20" s="20"/>
       <c r="J20" s="20"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="L20" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A21" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="4"/>
+        <v>46</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="C21" s="5">
-        <v>45564</v>
-      </c>
-      <c r="D21" s="2"/>
+        <v>45554</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="H21" s="20"/>
       <c r="I21" s="20"/>
       <c r="J21" s="20"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A22" s="4" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="5">
-        <v>45566</v>
-      </c>
-      <c r="D22" s="2"/>
+        <v>45554</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="H22" s="20"/>
       <c r="I22" s="20"/>
       <c r="J22" s="20"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A23" s="4" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="5">
-        <v>45569</v>
-      </c>
-      <c r="D23" s="2"/>
+        <v>45554</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="H23" s="20"/>
       <c r="I23" s="20"/>
       <c r="J23" s="20"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A24" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="C24" s="5">
-        <v>45569</v>
-      </c>
-      <c r="D24" s="2"/>
+        <v>45553</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="H24" s="20"/>
       <c r="I24" s="20"/>
       <c r="J24" s="20"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A25" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="5">
+        <v>45553</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="F25" s="2"/>
       <c r="H25" s="20"/>
       <c r="I25" s="20"/>
       <c r="J25" s="20"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A26" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="5">
+        <v>45549</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="H26" s="20"/>
       <c r="I26" s="20"/>
       <c r="J26" s="20"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A27" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="5">
+        <v>45546</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="H27" s="20"/>
       <c r="I27" s="20"/>
       <c r="J27" s="20"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A28" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="5">
+        <v>45545</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="F28" s="2"/>
       <c r="H28" s="20"/>
       <c r="I28" s="20"/>
       <c r="J28" s="20"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A29" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="C29" s="5">
-        <v>45597</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
+        <v>45545</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="H29" s="20"/>
       <c r="I29" s="20"/>
       <c r="J29" s="20"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A30" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
       <c r="H30" s="20"/>
       <c r="I30" s="20"/>
       <c r="J30" s="20"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="18"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A31" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
       <c r="H31" s="20"/>
       <c r="I31" s="20"/>
       <c r="J31" s="20"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A32" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
       <c r="H32" s="20"/>
       <c r="I32" s="20"/>
       <c r="J32" s="20"/>
-    </row>
-    <row r="33" spans="8:10" x14ac:dyDescent="0.6">
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="18"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="A33" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
       <c r="H33" s="20"/>
       <c r="I33" s="20"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="8:10" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="A34" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
       <c r="H34" s="20"/>
       <c r="I34" s="20"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="8:10" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
       <c r="H35" s="20"/>
       <c r="I35" s="20"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="8:10" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
       <c r="H36" s="20"/>
       <c r="I36" s="20"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="8:10" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
       <c r="H37" s="20"/>
       <c r="I37" s="20"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="8:10" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
       <c r="H38" s="20"/>
       <c r="I38" s="20"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="8:10" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
       <c r="H39" s="20"/>
       <c r="I39" s="20"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="8:10" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
       <c r="H40" s="20"/>
       <c r="I40" s="20"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="8:10" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
       <c r="H41" s="20"/>
       <c r="I41" s="20"/>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="8:10" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.6">
       <c r="H42" s="20"/>
       <c r="I42" s="20"/>
       <c r="J42" s="20"/>
     </row>
-    <row r="43" spans="8:10" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.6">
       <c r="H43" s="20"/>
       <c r="I43" s="20"/>
       <c r="J43" s="20"/>
     </row>
-    <row r="44" spans="8:10" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.6">
       <c r="H44" s="20"/>
       <c r="I44" s="20"/>
       <c r="J44" s="20"/>
     </row>
-    <row r="45" spans="8:10" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.6">
       <c r="H45" s="20"/>
       <c r="I45" s="20"/>
       <c r="J45" s="20"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F18">
-    <sortState ref="A2:F27">
-      <sortCondition ref="C1:C18"/>
+    <sortState ref="A2:F34">
+      <sortCondition descending="1" ref="C1:C18"/>
     </sortState>
   </autoFilter>
-  <mergeCells count="5">
+  <mergeCells count="7">
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="K1:K14"/>
     <mergeCell ref="S1:U8"/>
     <mergeCell ref="T9:U13"/>
     <mergeCell ref="H2:J45"/>
+    <mergeCell ref="L20:N32"/>
+    <mergeCell ref="L19:N19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/works.xlsx
+++ b/works.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="93">
   <si>
     <t>제목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -325,102 +325,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>디비 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">그냥 할일 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로젠</t>
+  </si>
+  <si>
+    <t>로젠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자이언트네트워크</t>
+  </si>
+  <si>
+    <t>자이언트네트워크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다만듬</t>
+  </si>
+  <si>
+    <t>다만듬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인커스소프트</t>
+  </si>
+  <si>
+    <t>인커스소프트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지원 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지원 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼성전자로지텍</t>
+  </si>
+  <si>
+    <t>삼성전자로지텍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://linkareer.com/activity/202590</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LG전자 dx 스쿨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">cpu ec2 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>디비 처리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">그냥 할일 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로젠</t>
-  </si>
-  <si>
-    <t>로젠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자이언트네트워크</t>
-  </si>
-  <si>
-    <t>자이언트네트워크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다만듬</t>
-  </si>
-  <si>
-    <t>다만듬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인커스소프트</t>
-  </si>
-  <si>
-    <t>인커스소프트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지원 완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지원 완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>안해</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>삼성전자로지텍</t>
-  </si>
-  <si>
-    <t>삼성전자로지텍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">패키지 PT
-1. 패키지 작동여부
-2. 오류 가능성
-3. test 오류 여부
-4. 콘솔 여부
-파피루스 
-익스탠션
-도화지
-TMS
-SAP NetWeaver
-HRM
-재무관리
-https://www.sap.com/korea/index.html
-AutoCad web + 웹어셈블리
-정지환
-* git lab -&gt; 이미지 코드리뷰, 알림
-* 컨설턴트 에이전트 -&gt; chatBot + jira ticket 자동생성 
-* arrayz ai 쓰고싶다 
-오승진
-* 러닝 크루 관리 서비스(pace 별로)
-문재성
-* 채널 별 말투  , 인스타 
-이수완
-* 파이프라인 데이터 이쿠
-* 분자구조 
-디바이스 하드웨어 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포트폴리오 
-이전 프로젝트 정리(회원가입, 로그인, 매장생성, 키오스크 생성, OTP 생성, 결제)
-큐  
-색인 
-인덱싱 
-(Nonclustered index
-clustered index)
-마리아디비 노SQL 레디스</t>
+    <t xml:space="preserve">1. 포트폴리오 
+2. 이전 프로젝트 정리(회원가입, 로그인, 매장생성, 키오스크 생성, OTP 생성, 결제)
+3. 큐, 색인, 인덱싱, NoSQL, 마리아디비   (Nonclustered index, clustered index)
+4. 자소서
+5. 알고리즘
+6. 전처리 파이썬 판다스 혹은 파이썬 스크립트 실행 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -658,7 +635,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -722,11 +699,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1011,7 +994,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G11" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L20" sqref="L20:N32"/>
     </sheetView>
   </sheetViews>
@@ -1094,14 +1077,12 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="19" t="s">
-        <v>90</v>
-      </c>
+      <c r="H2" s="19"/>
       <c r="I2" s="19"/>
       <c r="J2" s="19"/>
       <c r="K2" s="18"/>
       <c r="L2" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>66</v>
@@ -1134,7 +1115,7 @@
       <c r="J3" s="20"/>
       <c r="K3" s="18"/>
       <c r="L3" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>67</v>
@@ -1169,7 +1150,7 @@
       <c r="J4" s="20"/>
       <c r="K4" s="18"/>
       <c r="L4" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2" t="s">
@@ -1200,7 +1181,7 @@
       <c r="J5" s="20"/>
       <c r="K5" s="18"/>
       <c r="L5" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>68</v>
@@ -1235,13 +1216,13 @@
       <c r="J6" s="20"/>
       <c r="K6" s="18"/>
       <c r="L6" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>69</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -1299,7 +1280,7 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
@@ -1469,7 +1450,7 @@
         <v>45554</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -1488,7 +1469,7 @@
         <v>45554</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -1540,10 +1521,10 @@
       <c r="I19" s="20"/>
       <c r="J19" s="20"/>
       <c r="L19" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M19" s="16"/>
-      <c r="N19" s="22"/>
+      <c r="N19" s="21"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A20" s="4" t="s">
@@ -1563,11 +1544,11 @@
       <c r="H20" s="20"/>
       <c r="I20" s="20"/>
       <c r="J20" s="20"/>
-      <c r="L20" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
+      <c r="L20" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A21" s="4" t="s">
@@ -1587,9 +1568,9 @@
       <c r="H21" s="20"/>
       <c r="I21" s="20"/>
       <c r="J21" s="20"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A22" s="4" t="s">
@@ -1607,9 +1588,9 @@
       <c r="H22" s="20"/>
       <c r="I22" s="20"/>
       <c r="J22" s="20"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A23" s="4" t="s">
@@ -1627,9 +1608,9 @@
       <c r="H23" s="20"/>
       <c r="I23" s="20"/>
       <c r="J23" s="20"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A24" s="4" t="s">
@@ -1649,9 +1630,9 @@
       <c r="H24" s="20"/>
       <c r="I24" s="20"/>
       <c r="J24" s="20"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="18"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A25" s="4" t="s">
@@ -1673,9 +1654,9 @@
       <c r="H25" s="20"/>
       <c r="I25" s="20"/>
       <c r="J25" s="20"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="18"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A26" s="4" t="s">
@@ -1695,9 +1676,9 @@
       <c r="H26" s="20"/>
       <c r="I26" s="20"/>
       <c r="J26" s="20"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="18"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A27" s="4" t="s">
@@ -1710,16 +1691,16 @@
         <v>45546</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="H27" s="20"/>
       <c r="I27" s="20"/>
       <c r="J27" s="20"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="18"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A28" s="4" t="s">
@@ -1741,9 +1722,9 @@
       <c r="H28" s="20"/>
       <c r="I28" s="20"/>
       <c r="J28" s="20"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="18"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A29" s="4" t="s">
@@ -1767,13 +1748,13 @@
       <c r="H29" s="20"/>
       <c r="I29" s="20"/>
       <c r="J29" s="20"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="18"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A30" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
@@ -1783,13 +1764,13 @@
       <c r="H30" s="20"/>
       <c r="I30" s="20"/>
       <c r="J30" s="20"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="18"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A31" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="5"/>
@@ -1799,13 +1780,13 @@
       <c r="H31" s="20"/>
       <c r="I31" s="20"/>
       <c r="J31" s="20"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="18"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A32" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
@@ -1815,13 +1796,13 @@
       <c r="H32" s="20"/>
       <c r="I32" s="20"/>
       <c r="J32" s="20"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="18"/>
-      <c r="N32" s="18"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A33" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="5"/>
@@ -1834,7 +1815,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A34" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="5"/>
@@ -1846,8 +1827,12 @@
       <c r="J34" s="20"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
+      <c r="A35" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>89</v>
+      </c>
       <c r="C35" s="5"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -1961,8 +1946,9 @@
   <hyperlinks>
     <hyperlink ref="L18" r:id="rId1"/>
     <hyperlink ref="L17" r:id="rId2"/>
+    <hyperlink ref="B35" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/works.xlsx
+++ b/works.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="106">
   <si>
     <t>제목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -398,6 +398,58 @@
 4. 자소서
 5. 알고리즘
 6. 전처리 파이썬 판다스 혹은 파이썬 스크립트 실행 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 소개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발기간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플랫폼 web</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발인원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당역활</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기술스택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>링크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떤문제?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떤고객?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">문제상황 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>챌린지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제해결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스택</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -681,6 +733,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -699,17 +754,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -992,10 +1044,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U45"/>
+  <dimension ref="A1:U46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20:N32"/>
+    <sheetView tabSelected="1" topLeftCell="G26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -1034,12 +1086,12 @@
         <v>4</v>
       </c>
       <c r="G1" s="3"/>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="16"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="18"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="19"/>
       <c r="L1" s="7" t="s">
         <v>27</v>
       </c>
@@ -1061,9 +1113,9 @@
       <c r="R1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
     </row>
     <row r="2" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A2" s="4" t="s">
@@ -1077,10 +1129,10 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="18"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="19"/>
       <c r="L2" s="2" t="s">
         <v>77</v>
       </c>
@@ -1094,9 +1146,9 @@
       <c r="R2" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A3" s="4" t="s">
@@ -1110,10 +1162,10 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="18"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="19"/>
       <c r="L3" s="2" t="s">
         <v>79</v>
       </c>
@@ -1129,9 +1181,9 @@
       <c r="R3" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
     </row>
     <row r="4" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A4" s="4" t="s">
@@ -1145,10 +1197,10 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="18"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="19"/>
       <c r="L4" s="2" t="s">
         <v>81</v>
       </c>
@@ -1160,9 +1212,9 @@
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
     </row>
     <row r="5" spans="1:21" ht="14.85" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A5" s="4" t="s">
@@ -1176,10 +1228,10 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="18"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="19"/>
       <c r="L5" s="2" t="s">
         <v>83</v>
       </c>
@@ -1195,9 +1247,9 @@
       <c r="R5" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="18"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A6" s="4" t="s">
@@ -1211,10 +1263,10 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="18"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="19"/>
       <c r="L6" s="2" t="s">
         <v>88</v>
       </c>
@@ -1228,9 +1280,9 @@
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A7" s="4" t="s">
@@ -1244,10 +1296,10 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="18"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="19"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2" t="s">
@@ -1257,9 +1309,9 @@
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="18"/>
-      <c r="U7" s="18"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A8" s="4" t="s">
@@ -1273,10 +1325,10 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="18"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="19"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2" t="s">
@@ -1286,9 +1338,9 @@
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="18"/>
-      <c r="U8" s="18"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A9" s="4" t="s">
@@ -1302,10 +1354,10 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="18"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="19"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1313,8 +1365,8 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="18"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A10" s="4" t="s">
@@ -1328,16 +1380,16 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="18"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="19"/>
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
       <c r="N10" s="12"/>
       <c r="O10" s="12"/>
-      <c r="T10" s="18"/>
-      <c r="U10" s="18"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A11" s="4" t="s">
@@ -1353,14 +1405,14 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="18"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="19"/>
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
-      <c r="T11" s="18"/>
-      <c r="U11" s="18"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A12" s="4" t="s">
@@ -1376,13 +1428,13 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="18"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="19"/>
       <c r="M12" s="12"/>
-      <c r="T12" s="18"/>
-      <c r="U12" s="18"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A13" s="4" t="s">
@@ -1398,12 +1450,12 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="18"/>
-      <c r="T13" s="18"/>
-      <c r="U13" s="18"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A14" s="4" t="s">
@@ -1421,10 +1473,10 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="18"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="19"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A15" s="4" t="s">
@@ -1437,9 +1489,9 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A16" s="4" t="s">
@@ -1454,9 +1506,9 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A17" s="4" t="s">
@@ -1473,9 +1525,9 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
       <c r="L17" s="11" t="s">
         <v>59</v>
       </c>
@@ -1495,9 +1547,9 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
       <c r="L18" s="11" t="s">
         <v>24</v>
       </c>
@@ -1517,14 +1569,14 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="L19" s="15" t="s">
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="L19" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="M19" s="16"/>
-      <c r="N19" s="21"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A20" s="4" t="s">
@@ -1541,14 +1593,14 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="L20" s="24" t="s">
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="L20" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A21" s="4" t="s">
@@ -1565,12 +1617,12 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="22"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A22" s="4" t="s">
@@ -1585,12 +1637,12 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A23" s="4" t="s">
@@ -1605,12 +1657,12 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A24" s="4" t="s">
@@ -1627,12 +1679,12 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="22"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A25" s="4" t="s">
@@ -1651,12 +1703,12 @@
         <v>50</v>
       </c>
       <c r="F25" s="2"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A26" s="4" t="s">
@@ -1673,12 +1725,12 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="22"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A27" s="4" t="s">
@@ -1695,12 +1747,12 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A28" s="4" t="s">
@@ -1719,12 +1771,12 @@
         <v>50</v>
       </c>
       <c r="F28" s="2"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="22"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A29" s="4" t="s">
@@ -1745,12 +1797,12 @@
       <c r="F29" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="22"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A30" s="4" t="s">
@@ -1761,12 +1813,12 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="22"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A31" s="4" t="s">
@@ -1777,12 +1829,12 @@
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="22"/>
-      <c r="N31" s="22"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A32" s="4" t="s">
@@ -1793,14 +1845,14 @@
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="22"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="23"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A33" s="4" t="s">
         <v>82</v>
       </c>
@@ -1809,11 +1861,11 @@
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A34" s="4" t="s">
         <v>87</v>
       </c>
@@ -1822,110 +1874,151 @@
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="L34" t="s">
+        <v>93</v>
+      </c>
+      <c r="N34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A35" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="15" t="s">
         <v>89</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="L35" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="5"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="L36" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="5"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="L37" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="5"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+      <c r="L38" t="s">
+        <v>97</v>
+      </c>
+      <c r="N38" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="5"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="L39" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="5"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="20"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+      <c r="L40" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="5"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="20"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="H44" s="20"/>
-      <c r="I44" s="20"/>
-      <c r="J44" s="20"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="20"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="H42" s="21"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="21"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="L43" t="s">
+        <v>102</v>
+      </c>
+      <c r="M43" t="s">
+        <v>103</v>
+      </c>
+      <c r="N43" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="H44" s="21"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="L46" t="s">
+        <v>105</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F18">

--- a/works.xlsx
+++ b/works.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSAFY\Desktop\itgorae\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\OneDrive\Desktop\itgorae\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BFF157E-63C2-483C-BF88-18D233093FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="495" yWindow="1860" windowWidth="17280" windowHeight="8880"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="111">
   <si>
     <t>제목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -334,6 +335,110 @@
   </si>
   <si>
     <t>로젠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자이언트네트워크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다만듬</t>
+  </si>
+  <si>
+    <t>다만듬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인커스소프트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지원 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지원 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼성전자로지텍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://linkareer.com/activity/202590</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LG전자 dx 스쿨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">cpu ec2 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 소개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발기간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플랫폼 web</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발인원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당역활</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기술스택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>링크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떤문제?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떤고객?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">문제상황 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>챌린지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제해결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">bgf리테일 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT 지원팀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>로젠</t>
@@ -341,54 +446,22 @@
   </si>
   <si>
     <t>자이언트네트워크</t>
-  </si>
-  <si>
-    <t>자이언트네트워크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다만듬</t>
-  </si>
-  <si>
-    <t>다만듬</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>인커스소프트</t>
-  </si>
-  <si>
-    <t>인커스소프트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지원 완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지원 완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>안해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포폴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>삼성전자로지텍</t>
-  </si>
-  <si>
-    <t>삼성전자로지텍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://linkareer.com/activity/202590</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LG전자 dx 스쿨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">cpu ec2 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAP (SYNC)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -397,66 +470,21 @@
 3. 큐, 색인, 인덱싱, NoSQL, 마리아디비   (Nonclustered index, clustered index)
 4. 자소서
 5. 알고리즘
-6. 전처리 파이썬 판다스 혹은 파이썬 스크립트 실행 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로젝트 소개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개발기간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>플랫폼 web</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개발인원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>담당역활</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기술스택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>링크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어떤문제?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어떤고객?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">문제상황 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>챌린지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문제해결</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스택</t>
+6. 전처리 파이썬 판다스 혹은 파이썬 스크립트 실행 
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1일 1자소서
+1일 1포폴
+1일 1개발</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -751,7 +779,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1043,30 +1071,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView tabSelected="1" topLeftCell="C25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="22.1875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.375" customWidth="1"/>
-    <col min="11" max="11" width="11.125" customWidth="1"/>
-    <col min="12" max="12" width="20.375" customWidth="1"/>
-    <col min="13" max="13" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="32.125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.125" customWidth="1"/>
+    <col min="1" max="1" width="22.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.09765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.3984375" customWidth="1"/>
+    <col min="11" max="11" width="11.09765625" customWidth="1"/>
+    <col min="12" max="12" width="20.3984375" customWidth="1"/>
+    <col min="13" max="13" width="16.8984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="32.09765625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.09765625" customWidth="1"/>
     <col min="16" max="16" width="28" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.375" customWidth="1"/>
-    <col min="18" max="18" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.3984375" customWidth="1"/>
+    <col min="18" max="18" width="18.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1117,24 +1145,26 @@
       <c r="T1" s="19"/>
       <c r="U1" s="19"/>
     </row>
-    <row r="2" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="5">
-        <v>45569</v>
+        <v>45606</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="20"/>
+      <c r="H2" s="20" t="s">
+        <v>110</v>
+      </c>
       <c r="I2" s="20"/>
       <c r="J2" s="20"/>
       <c r="K2" s="19"/>
       <c r="L2" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>66</v>
@@ -1150,13 +1180,15 @@
       <c r="T2" s="19"/>
       <c r="U2" s="19"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="4"/>
+        <v>104</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="C3" s="5">
-        <v>45569</v>
+        <v>45595</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -1167,7 +1199,7 @@
       <c r="J3" s="21"/>
       <c r="K3" s="19"/>
       <c r="L3" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>67</v>
@@ -1185,13 +1217,15 @@
       <c r="T3" s="19"/>
       <c r="U3" s="19"/>
     </row>
-    <row r="4" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="4"/>
+        <v>78</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="C4" s="5">
-        <v>45569</v>
+        <v>45595</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -1202,7 +1236,7 @@
       <c r="J4" s="21"/>
       <c r="K4" s="19"/>
       <c r="L4" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2" t="s">
@@ -1216,13 +1250,15 @@
       <c r="T4" s="19"/>
       <c r="U4" s="19"/>
     </row>
-    <row r="5" spans="1:21" ht="14.85" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:21" ht="14.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="4"/>
+        <v>105</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="C5" s="5">
-        <v>45569</v>
+        <v>45595</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -1233,7 +1269,7 @@
       <c r="J5" s="21"/>
       <c r="K5" s="19"/>
       <c r="L5" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>68</v>
@@ -1251,13 +1287,15 @@
       <c r="T5" s="19"/>
       <c r="U5" s="19"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="4"/>
+        <v>86</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>85</v>
+      </c>
       <c r="C6" s="5">
-        <v>45569</v>
+        <v>45595</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -1268,7 +1306,7 @@
       <c r="J6" s="21"/>
       <c r="K6" s="19"/>
       <c r="L6" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>69</v>
@@ -1284,13 +1322,13 @@
       <c r="T6" s="19"/>
       <c r="U6" s="19"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="5">
-        <v>45569</v>
+        <v>45592</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -1313,13 +1351,15 @@
       <c r="T7" s="19"/>
       <c r="U7" s="19"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="4"/>
+        <v>101</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="C8" s="5">
-        <v>45569</v>
+        <v>45590</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1332,7 +1372,7 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
@@ -1342,13 +1382,13 @@
       <c r="T8" s="19"/>
       <c r="U8" s="19"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="5">
-        <v>45566</v>
+        <v>45569</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -1368,13 +1408,13 @@
       <c r="T9" s="19"/>
       <c r="U9" s="19"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="5">
-        <v>45564</v>
+        <v>45569</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1391,15 +1431,13 @@
       <c r="T10" s="19"/>
       <c r="U10" s="19"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>45</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B11" s="4"/>
       <c r="C11" s="5">
-        <v>45562</v>
+        <v>45569</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -1414,15 +1452,13 @@
       <c r="T11" s="19"/>
       <c r="U11" s="19"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A12" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>52</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B12" s="4"/>
       <c r="C12" s="5">
-        <v>45560</v>
+        <v>45569</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -1436,15 +1472,13 @@
       <c r="T12" s="19"/>
       <c r="U12" s="19"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>53</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B13" s="4"/>
       <c r="C13" s="5">
-        <v>45560</v>
+        <v>45569</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -1457,19 +1491,15 @@
       <c r="T13" s="19"/>
       <c r="U13" s="19"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A14" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>44</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="B14" s="4"/>
       <c r="C14" s="5">
-        <v>45558</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>38</v>
-      </c>
+        <v>45569</v>
+      </c>
+      <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="3"/>
@@ -1478,13 +1508,13 @@
       <c r="J14" s="21"/>
       <c r="K14" s="19"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A15" s="4" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="5">
-        <v>45558</v>
+        <v>45569</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -1493,36 +1523,30 @@
       <c r="I15" s="21"/>
       <c r="J15" s="21"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A16" s="4" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="5">
-        <v>45554</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>86</v>
-      </c>
+        <v>45566</v>
+      </c>
+      <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="H16" s="21"/>
       <c r="I16" s="21"/>
       <c r="J16" s="21"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>43</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B17" s="4"/>
       <c r="C17" s="5">
-        <v>45554</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>84</v>
-      </c>
+        <v>45564</v>
+      </c>
+      <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="H17" s="21"/>
@@ -1532,19 +1556,17 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="18" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="4" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C18" s="5">
-        <v>45554</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>45562</v>
+      </c>
+      <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="H18" s="21"/>
@@ -1554,19 +1576,17 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="19" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="4" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="C19" s="5">
-        <v>45554</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>45560</v>
+      </c>
+      <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="H19" s="21"/>
@@ -1578,42 +1598,40 @@
       <c r="M19" s="17"/>
       <c r="N19" s="24"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A20" s="4" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="C20" s="5">
-        <v>45554</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>45560</v>
+      </c>
+      <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
       <c r="J20" s="21"/>
       <c r="L20" s="22" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="M20" s="23"/>
       <c r="N20" s="23"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A21" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="C21" s="5">
-        <v>45554</v>
+        <v>45558</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -1624,17 +1642,15 @@
       <c r="M21" s="23"/>
       <c r="N21" s="23"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A22" s="4" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="5">
-        <v>45554</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>45558</v>
+      </c>
+      <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="H22" s="21"/>
@@ -1644,16 +1660,16 @@
       <c r="M22" s="23"/>
       <c r="N22" s="23"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A23" s="4" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="5">
         <v>45554</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -1664,18 +1680,18 @@
       <c r="M23" s="23"/>
       <c r="N23" s="23"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A24" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="C24" s="5">
-        <v>45553</v>
+        <v>45554</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -1686,22 +1702,20 @@
       <c r="M24" s="23"/>
       <c r="N24" s="23"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A25" s="4" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C25" s="5">
-        <v>45553</v>
+        <v>45554</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>50</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="H25" s="21"/>
       <c r="I25" s="21"/>
@@ -1710,18 +1724,18 @@
       <c r="M25" s="23"/>
       <c r="N25" s="23"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A26" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C26" s="5">
-        <v>45549</v>
+        <v>45554</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -1732,18 +1746,18 @@
       <c r="M26" s="23"/>
       <c r="N26" s="23"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A27" s="4" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C27" s="5">
-        <v>45546</v>
+        <v>45554</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -1754,22 +1768,20 @@
       <c r="M27" s="23"/>
       <c r="N27" s="23"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A28" s="4" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C28" s="5">
-        <v>45545</v>
+        <v>45554</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>50</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="H28" s="21"/>
       <c r="I28" s="21"/>
@@ -1778,25 +1790,19 @@
       <c r="M28" s="23"/>
       <c r="N28" s="23"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A29" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>25</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B29" s="4"/>
       <c r="C29" s="5">
-        <v>45545</v>
+        <v>45554</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>50</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
       <c r="H29" s="21"/>
       <c r="I29" s="21"/>
       <c r="J29" s="21"/>
@@ -1804,13 +1810,17 @@
       <c r="M29" s="23"/>
       <c r="N29" s="23"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A30" s="4" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="2"/>
+      <c r="C30" s="5">
+        <v>45554</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="H30" s="21"/>
@@ -1820,13 +1830,19 @@
       <c r="M30" s="23"/>
       <c r="N30" s="23"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A31" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="5">
+        <v>45553</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="H31" s="21"/>
@@ -1836,14 +1852,22 @@
       <c r="M31" s="23"/>
       <c r="N31" s="23"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A32" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="5">
+        <v>45553</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="F32" s="2"/>
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
@@ -1852,72 +1876,104 @@
       <c r="M32" s="23"/>
       <c r="N32" s="23"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A33" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="5">
+        <v>45549</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="H33" s="21"/>
       <c r="I33" s="21"/>
       <c r="J33" s="21"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A34" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="5">
+        <v>45546</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="H34" s="21"/>
       <c r="I34" s="21"/>
       <c r="J34" s="21"/>
       <c r="L34" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="N34" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.6">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A35" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="5">
+        <v>45545</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="F35" s="2"/>
       <c r="H35" s="21"/>
       <c r="I35" s="21"/>
       <c r="J35" s="21"/>
       <c r="L35" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A36" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="5">
+        <v>45545</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="H36" s="21"/>
       <c r="I36" s="21"/>
       <c r="J36" s="21"/>
       <c r="L36" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A37" s="4"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A37" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="B37" s="4"/>
       <c r="C37" s="5"/>
       <c r="D37" s="2"/>
@@ -1927,10 +1983,10 @@
       <c r="I37" s="21"/>
       <c r="J37" s="21"/>
       <c r="L37" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.6">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="5"/>
@@ -1941,13 +1997,13 @@
       <c r="I38" s="21"/>
       <c r="J38" s="21"/>
       <c r="L38" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="N38" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.6">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="5"/>
@@ -1958,10 +2014,10 @@
       <c r="I39" s="21"/>
       <c r="J39" s="21"/>
       <c r="L39" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.6">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="5"/>
@@ -1972,10 +2028,10 @@
       <c r="I40" s="21"/>
       <c r="J40" s="21"/>
       <c r="L40" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.6">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="5"/>
@@ -1986,43 +2042,43 @@
       <c r="I41" s="21"/>
       <c r="J41" s="21"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.4">
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
       <c r="J42" s="21"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.4">
       <c r="H43" s="21"/>
       <c r="I43" s="21"/>
       <c r="J43" s="21"/>
       <c r="L43" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="M43" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="N43" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.6">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.4">
       <c r="H44" s="21"/>
       <c r="I44" s="21"/>
       <c r="J44" s="21"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.4">
       <c r="H45" s="21"/>
       <c r="I45" s="21"/>
       <c r="J45" s="21"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.4">
       <c r="L46" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F18">
-    <sortState ref="A2:F34">
+  <autoFilter ref="A1:F18" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F37">
       <sortCondition descending="1" ref="C1:C18"/>
     </sortState>
   </autoFilter>
@@ -2037,9 +2093,9 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="L18" r:id="rId1"/>
-    <hyperlink ref="L17" r:id="rId2"/>
-    <hyperlink ref="B35" r:id="rId3"/>
+    <hyperlink ref="L18" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="L17" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>

--- a/works.xlsx
+++ b/works.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\OneDrive\Desktop\itgorae\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSAFY\Desktop\itgorae\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BFF157E-63C2-483C-BF88-18D233093FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23258" windowHeight="12458"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$20</definedName>
   </definedNames>
   <calcPr calcId="162913" refMode="R1C1"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="112">
   <si>
     <t>제목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -266,10 +265,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://musinsa.career.greetinghr.com/o/128396</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>금주 과업(9/30 주)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -310,26 +305,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ERD 피지컬 논리적 테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">DB 선택 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>큐를 넣을지 말지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>코랩 학습용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>디비 처리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">그냥 할일 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -377,114 +352,142 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">cpu ec2 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>프로젝트 소개</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>플랫폼 web</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발인원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떤문제?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떤고객?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제해결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">bgf리테일 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT 지원팀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로젠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자이언트네트워크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인커스소프트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포폴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼성전자로지텍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAP (SYNC)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>챌린지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제상황</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>링크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기술스택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당역활</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>개발기간</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>플랫폼 web</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개발인원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>담당역활</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기술스택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>링크</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>어떤문제?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어떤고객?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">문제상황 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>챌린지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문제해결</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">bgf리테일 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IT 지원팀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로젠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자이언트네트워크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인커스소프트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포폴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>삼성전자로지텍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SAP (SYNC)</t>
+    <t>현대 오토에버</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">1. 포트폴리오 
 2. 이전 프로젝트 정리(회원가입, 로그인, 매장생성, 키오스크 생성, OTP 생성, 결제)
-3. 큐, 색인, 인덱싱, NoSQL, 마리아디비   (Nonclustered index, clustered index)
+3. 큐, 색인, 인덱싱, NoSQL, 마리아디비  (Nonclustered index, clustered index)
 4. 자소서
 5. 알고리즘
-6. 전처리 파이썬 판다스 혹은 파이썬 스크립트 실행 
+6. 전처리 파이썬 판다스 혹은 파이썬 스크립트 실행
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://musinsa.career.greetinghr.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자바 생성 nosql, 큐, 인덱싱, csv파일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">bgf 리테일 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">소개 페이지 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sql 3문제</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1일 1자소서
 1일 1포폴
 1일 1개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한진</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -715,7 +718,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -763,6 +766,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1071,30 +1077,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="22.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.09765625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.3984375" customWidth="1"/>
-    <col min="11" max="11" width="11.09765625" customWidth="1"/>
-    <col min="12" max="12" width="20.3984375" customWidth="1"/>
-    <col min="13" max="13" width="16.8984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="32.09765625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.09765625" customWidth="1"/>
-    <col min="16" max="16" width="28" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.3984375" customWidth="1"/>
-    <col min="18" max="18" width="18.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.1875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.125" customWidth="1"/>
+    <col min="11" max="11" width="14.375" customWidth="1"/>
+    <col min="12" max="12" width="11.125" customWidth="1"/>
+    <col min="13" max="13" width="20.375" customWidth="1"/>
+    <col min="14" max="14" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="32.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.125" customWidth="1"/>
+    <col min="17" max="17" width="28" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.375" customWidth="1"/>
+    <col min="19" max="19" width="18.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1105,997 +1112,1092 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" s="17"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="17" t="s">
+        <v>59</v>
+      </c>
       <c r="J1" s="18"/>
       <c r="K1" s="19"/>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="20"/>
+      <c r="M1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="R1" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="S1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-    </row>
-    <row r="2" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+    </row>
+    <row r="2" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A2" s="4" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="5">
         <v>45606</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="5"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="20" t="s">
+      <c r="G2" s="2"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="2" t="s">
-        <v>76</v>
-      </c>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="20"/>
       <c r="M2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="N2" s="14"/>
-      <c r="O2" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O2" s="14"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
-      <c r="R2" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="R2" s="2"/>
+      <c r="S2" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A3" s="4" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="C3" s="5">
         <v>45595</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="5"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="2" t="s">
-        <v>77</v>
-      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="20"/>
       <c r="M3" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="O3" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>106</v>
+      </c>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
-      <c r="R3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-    </row>
-    <row r="4" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="R3" s="2"/>
+      <c r="S3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+    </row>
+    <row r="4" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A4" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="C4" s="5">
         <v>45595</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="5"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="O4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-    </row>
-    <row r="5" spans="1:21" ht="14.85" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="S4" s="2"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
+    </row>
+    <row r="5" spans="1:22" ht="14.85" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A5" s="4" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="C5" s="5">
         <v>45595</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="5"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="2" t="s">
-        <v>80</v>
-      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="20"/>
       <c r="M5" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="O5" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
-      <c r="R5" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="R5" s="2"/>
+      <c r="S5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A6" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C6" s="5">
         <v>45595</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="5"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="2" t="s">
-        <v>84</v>
-      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="20"/>
       <c r="M6" s="2" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="O6" s="2"/>
+        <v>68</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="S6" s="2"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="20"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A7" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B7" s="4"/>
+        <v>111</v>
+      </c>
+      <c r="B7" s="15"/>
       <c r="C7" s="5">
-        <v>45592</v>
-      </c>
-      <c r="D7" s="2"/>
+        <v>45593</v>
+      </c>
+      <c r="D7" s="5"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="20"/>
       <c r="M7" s="2"/>
-      <c r="N7" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="S7" s="2"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="20"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A8" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>102</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="B8" s="4"/>
       <c r="C8" s="5">
-        <v>45590</v>
-      </c>
-      <c r="D8" s="2"/>
+        <v>45593</v>
+      </c>
+      <c r="D8" s="5"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="20"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="2" t="s">
-        <v>87</v>
-      </c>
+      <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="19"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="S8" s="2"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A9" s="4" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="5">
-        <v>45569</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>45592</v>
+      </c>
+      <c r="D9" s="5"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="20"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="S9" s="2"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A10" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="4"/>
+        <v>88</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="C10" s="5">
-        <v>45569</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>45590</v>
+      </c>
+      <c r="D10" s="5"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="G10" s="2"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A11" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="5">
         <v>45569</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="5"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="G11" s="2"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="20"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A12" s="4" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="5">
         <v>45569</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="5"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="19"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="20"/>
       <c r="M12" s="12"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="20"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A13" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="5">
         <v>45569</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="5"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="19"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="19"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="G13" s="2"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A14" s="4" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="5">
         <v>45569</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="D14" s="5"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="19"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="G14" s="2"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="20"/>
+      <c r="N14" s="12"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="20"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A15" s="4" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="5">
         <v>45569</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="5"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="G15" s="2"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="20"/>
+      <c r="U15" s="20"/>
+      <c r="V15" s="20"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A16" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="5">
-        <v>45566</v>
-      </c>
-      <c r="D16" s="2"/>
+        <v>45569</v>
+      </c>
+      <c r="D16" s="5"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="G16" s="2"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="20"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A17" s="4" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="5">
-        <v>45564</v>
-      </c>
-      <c r="D17" s="2"/>
+        <v>45569</v>
+      </c>
+      <c r="D17" s="5"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="L17" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G17" s="2"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A18" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>45</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="B18" s="4"/>
       <c r="C18" s="5">
-        <v>45562</v>
-      </c>
-      <c r="D18" s="2"/>
+        <v>45566</v>
+      </c>
+      <c r="D18" s="5"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="L18" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G18" s="2"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A19" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>52</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B19" s="4"/>
       <c r="C19" s="5">
-        <v>45560</v>
-      </c>
-      <c r="D19" s="2"/>
+        <v>45564</v>
+      </c>
+      <c r="D19" s="5"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="L19" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="M19" s="17"/>
-      <c r="N19" s="24"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="G19" s="2"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="M19" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A20" s="4" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C20" s="5">
-        <v>45560</v>
-      </c>
-      <c r="D20" s="2"/>
+        <v>45562</v>
+      </c>
+      <c r="D20" s="5"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="L20" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="G20" s="2"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="M20" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A21" s="4" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C21" s="5">
-        <v>45558</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>38</v>
-      </c>
+        <v>45560</v>
+      </c>
+      <c r="D21" s="5"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="G21" s="2"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="M21" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="N21" s="18"/>
+      <c r="O21" s="25"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A22" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="4"/>
+        <v>54</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="C22" s="5">
-        <v>45558</v>
-      </c>
-      <c r="D22" s="2"/>
+        <v>45560</v>
+      </c>
+      <c r="D22" s="5"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="G22" s="2"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="M22" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A23" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="4"/>
+        <v>47</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="C23" s="5">
-        <v>45554</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E23" s="2"/>
+        <v>45558</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="F23" s="2"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="G23" s="2"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A24" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>43</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="B24" s="4"/>
       <c r="C24" s="5">
-        <v>45554</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>81</v>
-      </c>
+        <v>45558</v>
+      </c>
+      <c r="D24" s="5"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="G24" s="2"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A25" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>30</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="B25" s="4"/>
       <c r="C25" s="5">
         <v>45554</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="2"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="F25" s="2"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="G25" s="2"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A26" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>31</v>
+        <v>19</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="C26" s="5">
         <v>45554</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" s="2"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="F26" s="2"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="G26" s="2"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A27" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C27" s="5">
         <v>45554</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="5"/>
+      <c r="E27" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="23"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="G27" s="2"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A28" s="4" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="C28" s="5">
         <v>45554</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="5"/>
+      <c r="E28" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E28" s="2"/>
       <c r="F28" s="2"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="23"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="G28" s="2"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="24"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A29" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="C29" s="5">
         <v>45554</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="5"/>
+      <c r="E29" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E29" s="2"/>
       <c r="F29" s="2"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="23"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="G29" s="2"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="24"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A30" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" s="4"/>
+        <v>46</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="C30" s="5">
         <v>45554</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="5"/>
+      <c r="E30" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E30" s="2"/>
       <c r="F30" s="2"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="23"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="G30" s="2"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="24"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A31" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="5">
+        <v>45554</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="24"/>
+      <c r="O31" s="24"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A32" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="5">
+        <v>45554</v>
+      </c>
+      <c r="D32" s="5"/>
+      <c r="E32" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="24"/>
+      <c r="O32" s="24"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A33" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B33" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C33" s="5">
         <v>45553</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D33" s="5"/>
+      <c r="E33" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="23"/>
-      <c r="N31" s="23"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A32" s="4" t="s">
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="24"/>
+      <c r="O33" s="24"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A34" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B34" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C34" s="5">
         <v>45553</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D34" s="5"/>
+      <c r="E34" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="F34" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F32" s="2"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-      <c r="L32" s="23"/>
-      <c r="M32" s="23"/>
-      <c r="N32" s="23"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A33" s="4" t="s">
+      <c r="G34" s="2"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="24"/>
+      <c r="O34" s="24"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A35" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B35" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C35" s="5">
         <v>45549</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D35" s="5"/>
+      <c r="E35" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A34" s="4" t="s">
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A36" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B36" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C36" s="5">
         <v>45546</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D36" s="5"/>
+      <c r="E36" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22"/>
+      <c r="M36" t="s">
+        <v>81</v>
+      </c>
+      <c r="O36" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A37" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="5">
+        <v>45545</v>
+      </c>
+      <c r="D37" s="5"/>
+      <c r="E37" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G37" s="2"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="M37" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A38" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="5">
+        <v>45545</v>
+      </c>
+      <c r="D38" s="5"/>
+      <c r="E38" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="M38" t="s">
         <v>82</v>
       </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="L34" t="s">
-        <v>88</v>
-      </c>
-      <c r="N34" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A35" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C35" s="5">
-        <v>45545</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F35" s="2"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
-      <c r="L35" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A36" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C36" s="5">
-        <v>45545</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
-      <c r="L36" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A37" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21"/>
-      <c r="L37" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
-      <c r="L38" t="s">
-        <v>92</v>
-      </c>
-      <c r="N38" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A39" s="4"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A39" s="4" t="s">
+        <v>94</v>
+      </c>
       <c r="B39" s="4"/>
       <c r="C39" s="5"/>
-      <c r="D39" s="2"/>
+      <c r="D39" s="5"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
-      <c r="L39" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="G39" s="2"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
+      <c r="M39" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="5"/>
-      <c r="D40" s="2"/>
+      <c r="D40" s="5"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="21"/>
-      <c r="L40" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="G40" s="2"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="22"/>
+      <c r="M40" t="s">
+        <v>100</v>
+      </c>
+      <c r="O40" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="5"/>
-      <c r="D41" s="2"/>
+      <c r="D41" s="5"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="21"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="H42" s="21"/>
-      <c r="I42" s="21"/>
-      <c r="J42" s="21"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="H43" s="21"/>
-      <c r="I43" s="21"/>
-      <c r="J43" s="21"/>
-      <c r="L43" t="s">
+      <c r="G41" s="2"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
+      <c r="M41" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="22"/>
+      <c r="M42" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="22"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="22"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="I45" s="22"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="22"/>
+      <c r="M45" t="s">
         <v>97</v>
       </c>
-      <c r="M43" t="s">
-        <v>98</v>
-      </c>
-      <c r="N43" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="H44" s="21"/>
-      <c r="I44" s="21"/>
-      <c r="J44" s="21"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="H45" s="21"/>
-      <c r="I45" s="21"/>
-      <c r="J45" s="21"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="L46" t="s">
-        <v>100</v>
+      <c r="N45" t="s">
+        <v>96</v>
+      </c>
+      <c r="O45" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="I46" s="22"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="22"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="22"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="M48" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F18" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F37">
-      <sortCondition descending="1" ref="C1:C18"/>
+  <autoFilter ref="A1:G20">
+    <sortState ref="A2:G38">
+      <sortCondition descending="1" ref="C1:C19"/>
     </sortState>
   </autoFilter>
   <mergeCells count="7">
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:K14"/>
-    <mergeCell ref="S1:U8"/>
-    <mergeCell ref="T9:U13"/>
-    <mergeCell ref="H2:J45"/>
-    <mergeCell ref="L20:N32"/>
-    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:L16"/>
+    <mergeCell ref="T1:V9"/>
+    <mergeCell ref="U11:V15"/>
+    <mergeCell ref="I2:K47"/>
+    <mergeCell ref="M22:O34"/>
+    <mergeCell ref="M21:O21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="L18" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="L17" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="M20" r:id="rId1"/>
+    <hyperlink ref="M19" r:id="rId2"/>
+    <hyperlink ref="B6" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>

--- a/works.xlsx
+++ b/works.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$22</definedName>
   </definedNames>
   <calcPr calcId="162913" refMode="R1C1"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="122">
   <si>
     <t>제목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -273,18 +273,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>프로젝트 빼기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2회분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sql3문제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LG</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -356,10 +344,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>플랫폼 web</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>개발인원</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -368,10 +352,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>어떤고객?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>문제해결</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -384,63 +364,73 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>로젠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자이언트네트워크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인커스소프트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포폴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼성전자로지텍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAP (SYNC)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제상황</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>링크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현대 오토에버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://musinsa.career.greetinghr.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자바 생성 nosql, 큐, 인덱싱, csv파일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">bgf 리테일 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">소개 페이지 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sql 3문제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1일 1자소서
+1일 1포폴
+1일 1개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>IT 지원팀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로젠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자이언트네트워크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인커스소프트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포폴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>삼성전자로지텍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SAP (SYNC)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>챌린지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문제상황</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>링크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기술스택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>담당역활</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개발기간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>링크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현대 오토에버</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -454,33 +444,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://musinsa.career.greetinghr.com/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자바 생성 nosql, 큐, 인덱싱, csv파일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">bgf 리테일 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">소개 페이지 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sql 3문제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1일 1자소서
-1일 1포폴
-1일 1개발</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한진</t>
+    <t>어떤고객?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>챌린지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발기간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기술스택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>링크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당역활</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플랫폼 web</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태웅로직스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다우기술</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>erd 1개 - nosql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로젠 지원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포폴완성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">sql 1 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알고리즘1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>깃미러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한진 지원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오토에버지원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교보재 신청 2차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git hub desktop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>java세팅(몽고디비, 레디스)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -488,7 +528,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -527,14 +567,6 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u val="double"/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="G마켓 산스 TTF Bold"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <b/>
@@ -718,7 +750,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -761,15 +793,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -796,6 +828,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1078,10 +1113,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V48"/>
+  <dimension ref="A1:V50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="L26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -1112,7 +1147,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -1157,7 +1192,7 @@
     </row>
     <row r="2" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A2" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="5">
@@ -1169,61 +1204,55 @@
       <c r="G2" s="2"/>
       <c r="H2" s="3"/>
       <c r="I2" s="21" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="J2" s="21"/>
       <c r="K2" s="21"/>
       <c r="L2" s="20"/>
       <c r="M2" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="O2" s="14"/>
+        <v>62</v>
+      </c>
+      <c r="O2" s="13"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="13" t="s">
-        <v>62</v>
+      <c r="R2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="T2" s="20"/>
       <c r="U2" s="20"/>
       <c r="V2" s="20"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A3" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>93</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="B3" s="4"/>
       <c r="C3" s="5">
-        <v>45595</v>
+        <v>45600</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
       <c r="L3" s="20"/>
-      <c r="M3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>106</v>
-      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="13"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="T3" s="20"/>
       <c r="U3" s="20"/>
@@ -1231,44 +1260,40 @@
     </row>
     <row r="4" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A4" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>93</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="B4" s="4"/>
       <c r="C4" s="5">
-        <v>45595</v>
+        <v>45606</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
       <c r="L4" s="20"/>
-      <c r="M4" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="M4" s="2"/>
       <c r="N4" s="2"/>
-      <c r="O4" s="2" t="s">
-        <v>107</v>
-      </c>
+      <c r="O4" s="13"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
+      <c r="R4" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="S4" s="2"/>
       <c r="T4" s="20"/>
       <c r="U4" s="20"/>
       <c r="V4" s="20"/>
     </row>
-    <row r="5" spans="1:22" ht="14.85" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A5" s="4" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C5" s="5">
         <v>45595</v>
@@ -1283,30 +1308,32 @@
       <c r="K5" s="22"/>
       <c r="L5" s="20"/>
       <c r="M5" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
+      <c r="R5" s="2" t="s">
+        <v>115</v>
+      </c>
       <c r="S5" s="2" t="s">
-        <v>61</v>
+        <v>121</v>
       </c>
       <c r="T5" s="20"/>
       <c r="U5" s="20"/>
       <c r="V5" s="20"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A6" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>79</v>
+        <v>69</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="C6" s="5">
         <v>45595</v>
@@ -1321,13 +1348,11 @@
       <c r="K6" s="22"/>
       <c r="L6" s="20"/>
       <c r="M6" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>68</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="N6" s="2"/>
       <c r="O6" s="2" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
@@ -1337,29 +1362,39 @@
       <c r="U6" s="20"/>
       <c r="V6" s="20"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:22" ht="14.85" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A7" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B7" s="15"/>
+        <v>86</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>87</v>
+      </c>
       <c r="C7" s="5">
-        <v>45593</v>
+        <v>45595</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="16"/>
+      <c r="H7" s="3"/>
       <c r="I7" s="22"/>
       <c r="J7" s="22"/>
       <c r="K7" s="22"/>
       <c r="L7" s="20"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
+      <c r="M7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
+      <c r="R7" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="S7" s="2"/>
       <c r="T7" s="20"/>
       <c r="U7" s="20"/>
@@ -1367,11 +1402,13 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A8" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B8" s="4"/>
+        <v>77</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>76</v>
+      </c>
       <c r="C8" s="5">
-        <v>45593</v>
+        <v>45595</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="2"/>
@@ -1382,12 +1419,20 @@
       <c r="J8" s="22"/>
       <c r="K8" s="22"/>
       <c r="L8" s="20"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
+      <c r="M8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
+      <c r="R8" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="S8" s="2"/>
       <c r="T8" s="20"/>
       <c r="U8" s="20"/>
@@ -1395,17 +1440,17 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A9" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B9" s="4"/>
+        <v>99</v>
+      </c>
+      <c r="B9" s="14"/>
       <c r="C9" s="5">
-        <v>45592</v>
+        <v>45593</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="3"/>
+      <c r="H9" s="15"/>
       <c r="I9" s="22"/>
       <c r="J9" s="22"/>
       <c r="K9" s="22"/>
@@ -1416,26 +1461,26 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
+      <c r="S9" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="T9" s="20"/>
       <c r="U9" s="20"/>
       <c r="V9" s="20"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A10" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>89</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="B10" s="4"/>
       <c r="C10" s="5">
-        <v>45590</v>
+        <v>45593</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="16"/>
+      <c r="H10" s="3"/>
       <c r="I10" s="22"/>
       <c r="J10" s="22"/>
       <c r="K10" s="22"/>
@@ -1446,18 +1491,20 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="16"/>
-      <c r="U10" s="16"/>
-      <c r="V10" s="16"/>
+      <c r="S10" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="20"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A11" s="4" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="5">
-        <v>45569</v>
+        <v>45592</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="2"/>
@@ -1474,37 +1521,46 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
+      <c r="S11" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="T11" s="20"/>
       <c r="U11" s="20"/>
       <c r="V11" s="20"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A12" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="4"/>
+        <v>83</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>100</v>
+      </c>
       <c r="C12" s="5">
-        <v>45569</v>
+        <v>45590</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="3"/>
+      <c r="H12" s="15"/>
       <c r="I12" s="22"/>
       <c r="J12" s="22"/>
       <c r="K12" s="22"/>
       <c r="L12" s="20"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="U12" s="20"/>
-      <c r="V12" s="20"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A13" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="5">
@@ -1519,14 +1575,19 @@
       <c r="J13" s="22"/>
       <c r="K13" s="22"/>
       <c r="L13" s="20"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
       <c r="U13" s="20"/>
       <c r="V13" s="20"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A14" s="4" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="5">
@@ -1541,13 +1602,16 @@
       <c r="J14" s="22"/>
       <c r="K14" s="22"/>
       <c r="L14" s="20"/>
+      <c r="M14" s="12"/>
       <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
       <c r="U14" s="20"/>
       <c r="V14" s="20"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A15" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="5">
@@ -1562,12 +1626,14 @@
       <c r="J15" s="22"/>
       <c r="K15" s="22"/>
       <c r="L15" s="20"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
       <c r="U15" s="20"/>
       <c r="V15" s="20"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A16" s="4" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="5">
@@ -1582,10 +1648,13 @@
       <c r="J16" s="22"/>
       <c r="K16" s="22"/>
       <c r="L16" s="20"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="N16" s="12"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="20"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A17" s="4" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="5">
@@ -1595,33 +1664,39 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
+      <c r="H17" s="3"/>
       <c r="I17" s="22"/>
       <c r="J17" s="22"/>
       <c r="K17" s="22"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="L17" s="20"/>
+      <c r="U17" s="20"/>
+      <c r="V17" s="20"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A18" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="5">
-        <v>45566</v>
+        <v>45569</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
+      <c r="H18" s="3"/>
       <c r="I18" s="22"/>
       <c r="J18" s="22"/>
       <c r="K18" s="22"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="L18" s="20"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A19" s="4" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="5">
-        <v>45564</v>
+        <v>45569</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="2"/>
@@ -1630,19 +1705,14 @@
       <c r="I19" s="22"/>
       <c r="J19" s="22"/>
       <c r="K19" s="22"/>
-      <c r="M19" s="11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A20" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>45</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="B20" s="4"/>
       <c r="C20" s="5">
-        <v>45562</v>
+        <v>45566</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="2"/>
@@ -1651,19 +1721,14 @@
       <c r="I20" s="22"/>
       <c r="J20" s="22"/>
       <c r="K20" s="22"/>
-      <c r="M20" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A21" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>52</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B21" s="4"/>
       <c r="C21" s="5">
-        <v>45560</v>
+        <v>45564</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="2"/>
@@ -1672,21 +1737,19 @@
       <c r="I21" s="22"/>
       <c r="J21" s="22"/>
       <c r="K21" s="22"/>
-      <c r="M21" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="N21" s="18"/>
-      <c r="O21" s="25"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="M21" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A22" s="4" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C22" s="5">
-        <v>45560</v>
+        <v>45562</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="2"/>
@@ -1695,42 +1758,42 @@
       <c r="I22" s="22"/>
       <c r="J22" s="22"/>
       <c r="K22" s="22"/>
-      <c r="M22" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="M22" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A23" s="4" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C23" s="5">
-        <v>45558</v>
+        <v>45560</v>
       </c>
       <c r="D23" s="5"/>
-      <c r="E23" s="2" t="s">
-        <v>38</v>
-      </c>
+      <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="I23" s="22"/>
       <c r="J23" s="22"/>
       <c r="K23" s="22"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="M23" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="N23" s="18"/>
+      <c r="O23" s="25"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A24" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="4"/>
+        <v>54</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="C24" s="5">
-        <v>45558</v>
+        <v>45560</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="2"/>
@@ -1739,21 +1802,25 @@
       <c r="I24" s="22"/>
       <c r="J24" s="22"/>
       <c r="K24" s="22"/>
-      <c r="M24" s="24"/>
+      <c r="M24" s="23" t="s">
+        <v>101</v>
+      </c>
       <c r="N24" s="24"/>
       <c r="O24" s="24"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A25" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="4"/>
+        <v>47</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="C25" s="5">
-        <v>45554</v>
+        <v>45558</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="2" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -1764,20 +1831,16 @@
       <c r="N25" s="24"/>
       <c r="O25" s="24"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A26" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>43</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="B26" s="4"/>
       <c r="C26" s="5">
-        <v>45554</v>
+        <v>45558</v>
       </c>
       <c r="D26" s="5"/>
-      <c r="E26" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="I26" s="22"/>
@@ -1787,19 +1850,17 @@
       <c r="N26" s="24"/>
       <c r="O26" s="24"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A27" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>30</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="B27" s="4"/>
       <c r="C27" s="5">
         <v>45554</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="2" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -1810,19 +1871,19 @@
       <c r="N27" s="24"/>
       <c r="O27" s="24"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A28" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>31</v>
+        <v>19</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="C28" s="5">
         <v>45554</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -1833,12 +1894,12 @@
       <c r="N28" s="24"/>
       <c r="O28" s="24"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A29" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C29" s="5">
         <v>45554</v>
@@ -1856,12 +1917,12 @@
       <c r="N29" s="24"/>
       <c r="O29" s="24"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A30" s="4" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="C30" s="5">
         <v>45554</v>
@@ -1879,11 +1940,13 @@
       <c r="N30" s="24"/>
       <c r="O30" s="24"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A31" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="C31" s="5">
         <v>45554</v>
       </c>
@@ -1900,11 +1963,13 @@
       <c r="N31" s="24"/>
       <c r="O31" s="24"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A32" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="4"/>
+        <v>46</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="C32" s="5">
         <v>45554</v>
       </c>
@@ -1923,17 +1988,15 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A33" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B33" s="4"/>
       <c r="C33" s="5">
-        <v>45553</v>
+        <v>45554</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -1946,21 +2009,17 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A34" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B34" s="4"/>
       <c r="C34" s="5">
-        <v>45553</v>
+        <v>45554</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>50</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="I34" s="22"/>
       <c r="J34" s="22"/>
@@ -1971,139 +2030,154 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A35" s="4" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="C35" s="5">
-        <v>45549</v>
+        <v>45553</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="I35" s="22"/>
       <c r="J35" s="22"/>
       <c r="K35" s="22"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="24"/>
+      <c r="O35" s="24"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A36" s="4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C36" s="5">
-        <v>45546</v>
+        <v>45553</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F36" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="G36" s="2"/>
       <c r="I36" s="22"/>
       <c r="J36" s="22"/>
       <c r="K36" s="22"/>
-      <c r="M36" t="s">
-        <v>81</v>
-      </c>
-      <c r="O36" t="s">
-        <v>84</v>
-      </c>
+      <c r="M36" s="24"/>
+      <c r="N36" s="24"/>
+      <c r="O36" s="24"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A37" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C37" s="5">
-        <v>45545</v>
+        <v>45549</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>50</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="I37" s="22"/>
       <c r="J37" s="22"/>
       <c r="K37" s="22"/>
-      <c r="M37" t="s">
-        <v>101</v>
-      </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A38" s="4" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C38" s="5">
-        <v>45545</v>
+        <v>45546</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>50</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
       <c r="I38" s="22"/>
       <c r="J38" s="22"/>
       <c r="K38" s="22"/>
       <c r="M38" t="s">
-        <v>82</v>
+        <v>78</v>
+      </c>
+      <c r="O38" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A39" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="5">
+        <v>45545</v>
+      </c>
       <c r="D39" s="5"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
+      <c r="E39" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="G39" s="2"/>
       <c r="I39" s="22"/>
       <c r="J39" s="22"/>
       <c r="K39" s="22"/>
       <c r="M39" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="5"/>
+      <c r="A40" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="5">
+        <v>45545</v>
+      </c>
       <c r="D40" s="5"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
+      <c r="E40" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="I40" s="22"/>
       <c r="J40" s="22"/>
       <c r="K40" s="22"/>
       <c r="M40" t="s">
-        <v>100</v>
-      </c>
-      <c r="O40" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A41" s="4"/>
+      <c r="A41" s="4" t="s">
+        <v>88</v>
+      </c>
       <c r="B41" s="4"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
@@ -2114,7 +2188,7 @@
       <c r="J41" s="22"/>
       <c r="K41" s="22"/>
       <c r="M41" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.6">
@@ -2129,7 +2203,10 @@
       <c r="J42" s="22"/>
       <c r="K42" s="22"/>
       <c r="M42" t="s">
-        <v>98</v>
+        <v>107</v>
+      </c>
+      <c r="O42" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.6">
@@ -2143,25 +2220,36 @@
       <c r="I43" s="22"/>
       <c r="J43" s="22"/>
       <c r="K43" s="22"/>
+      <c r="M43" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
       <c r="I44" s="22"/>
       <c r="J44" s="22"/>
       <c r="K44" s="22"/>
+      <c r="M44" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
       <c r="I45" s="22"/>
       <c r="J45" s="22"/>
       <c r="K45" s="22"/>
-      <c r="M45" t="s">
-        <v>97</v>
-      </c>
-      <c r="N45" t="s">
-        <v>96</v>
-      </c>
-      <c r="O45" t="s">
-        <v>86</v>
-      </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.6">
       <c r="I46" s="22"/>
@@ -2172,32 +2260,51 @@
       <c r="I47" s="22"/>
       <c r="J47" s="22"/>
       <c r="K47" s="22"/>
+      <c r="M47" t="s">
+        <v>90</v>
+      </c>
+      <c r="N47" t="s">
+        <v>103</v>
+      </c>
+      <c r="O47" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="M48" t="s">
-        <v>87</v>
+      <c r="I48" s="22"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="22"/>
+    </row>
+    <row r="49" spans="9:13" x14ac:dyDescent="0.6">
+      <c r="I49" s="22"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="22"/>
+    </row>
+    <row r="50" spans="9:13" x14ac:dyDescent="0.6">
+      <c r="M50" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G20">
+  <autoFilter ref="A1:G22">
     <sortState ref="A2:G38">
       <sortCondition descending="1" ref="C1:C19"/>
     </sortState>
   </autoFilter>
   <mergeCells count="7">
     <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:L16"/>
-    <mergeCell ref="T1:V9"/>
-    <mergeCell ref="U11:V15"/>
-    <mergeCell ref="I2:K47"/>
-    <mergeCell ref="M22:O34"/>
-    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="L1:L18"/>
+    <mergeCell ref="T1:V11"/>
+    <mergeCell ref="U13:V17"/>
+    <mergeCell ref="I2:K49"/>
+    <mergeCell ref="M24:O36"/>
+    <mergeCell ref="M23:O23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="M20" r:id="rId1"/>
-    <hyperlink ref="M19" r:id="rId2"/>
-    <hyperlink ref="B6" r:id="rId3"/>
+    <hyperlink ref="M22" r:id="rId1"/>
+    <hyperlink ref="M21" r:id="rId2"/>
+    <hyperlink ref="B8" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>

--- a/works.xlsx
+++ b/works.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSAFY\Desktop\itgorae\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23258" windowHeight="12458"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23265" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$22</definedName>
   </definedNames>
-  <calcPr calcId="162913" refMode="R1C1"/>
+  <calcPr calcId="145621" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="121">
   <si>
     <t>제목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -297,25 +292,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>로젠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자이언트네트워크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>다만듬</t>
   </si>
   <si>
-    <t>다만듬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인커스소프트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>지원 완료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -325,10 +304,6 @@
   </si>
   <si>
     <t>안해</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>삼성전자로지텍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -423,10 +398,6 @@
     <t>1일 1자소서
 1일 1포폴
 1일 1개발</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한진</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -523,11 +494,31 @@
     <t>java세팅(몽고디비, 레디스)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>한진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>softeer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">자바 프로젝트 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포폴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -817,6 +808,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -828,9 +822,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1105,7 +1096,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1115,15 +1106,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q32" sqref="Q32"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.1875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.125" customWidth="1"/>
     <col min="11" max="11" width="14.375" customWidth="1"/>
     <col min="12" max="12" width="11.125" customWidth="1"/>
@@ -1136,7 +1127,7 @@
     <col min="19" max="19" width="18.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1147,7 +1138,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -1190,9 +1181,9 @@
       <c r="U1" s="20"/>
       <c r="V1" s="20"/>
     </row>
-    <row r="2" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="5">
@@ -1204,13 +1195,13 @@
       <c r="G2" s="2"/>
       <c r="H2" s="3"/>
       <c r="I2" s="21" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="J2" s="21"/>
       <c r="K2" s="21"/>
       <c r="L2" s="20"/>
       <c r="M2" s="2" t="s">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>62</v>
@@ -1219,81 +1210,85 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="T2" s="20"/>
       <c r="U2" s="20"/>
       <c r="V2" s="20"/>
     </row>
-    <row r="3" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="5">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="16"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
       <c r="L3" s="20"/>
-      <c r="M3" s="2"/>
+      <c r="M3" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="N3" s="2"/>
       <c r="O3" s="13"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="T3" s="20"/>
       <c r="U3" s="20"/>
       <c r="V3" s="20"/>
     </row>
-    <row r="4" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="5">
-        <v>45606</v>
+        <v>45600</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="16"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
       <c r="L4" s="20"/>
-      <c r="M4" s="2"/>
+      <c r="M4" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="N4" s="2"/>
       <c r="O4" s="13"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="S4" s="2"/>
       <c r="T4" s="20"/>
       <c r="U4" s="20"/>
       <c r="V4" s="20"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="C5" s="5">
         <v>45595</v>
@@ -1303,37 +1298,35 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
       <c r="L5" s="20"/>
-      <c r="M5" s="2" t="s">
-        <v>68</v>
-      </c>
+      <c r="M5" s="2"/>
       <c r="N5" s="2" t="s">
         <v>63</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="S5" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="T5" s="20"/>
       <c r="U5" s="20"/>
       <c r="V5" s="20"/>
     </row>
-    <row r="6" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="C6" s="5">
         <v>45595</v>
@@ -1343,16 +1336,14 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
       <c r="L6" s="20"/>
-      <c r="M6" s="2" t="s">
-        <v>70</v>
-      </c>
+      <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
@@ -1362,12 +1353,12 @@
       <c r="U6" s="20"/>
       <c r="V6" s="20"/>
     </row>
-    <row r="7" spans="1:22" ht="14.85" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:22" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C7" s="5">
         <v>45595</v>
@@ -1377,35 +1368,33 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
       <c r="L7" s="20"/>
-      <c r="M7" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="M7" s="2"/>
       <c r="N7" s="2" t="s">
         <v>64</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="S7" s="2"/>
       <c r="T7" s="20"/>
       <c r="U7" s="20"/>
       <c r="V7" s="20"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C8" s="5">
         <v>45595</v>
@@ -1415,32 +1404,30 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
       <c r="L8" s="20"/>
-      <c r="M8" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="M8" s="2"/>
       <c r="N8" s="2" t="s">
         <v>65</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="S8" s="2"/>
       <c r="T8" s="20"/>
       <c r="U8" s="20"/>
       <c r="V8" s="20"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="5">
@@ -1451,9 +1438,9 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="15"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
       <c r="L9" s="20"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1462,15 +1449,15 @@
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="T9" s="20"/>
       <c r="U9" s="20"/>
       <c r="V9" s="20"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="5">
@@ -1481,9 +1468,9 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
       <c r="L10" s="20"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1492,15 +1479,15 @@
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
       <c r="S10" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="T10" s="20"/>
       <c r="U10" s="20"/>
       <c r="V10" s="20"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="5">
@@ -1511,9 +1498,9 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
       <c r="L11" s="20"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1522,18 +1509,18 @@
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
       <c r="S11" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="T11" s="20"/>
       <c r="U11" s="20"/>
       <c r="V11" s="20"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C12" s="5">
         <v>45590</v>
@@ -1543,9 +1530,9 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="15"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
       <c r="L12" s="20"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1558,7 +1545,7 @@
       <c r="U12" s="15"/>
       <c r="V12" s="15"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>55</v>
       </c>
@@ -1571,9 +1558,9 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
       <c r="L13" s="20"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1585,7 +1572,7 @@
       <c r="U13" s="20"/>
       <c r="V13" s="20"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>57</v>
       </c>
@@ -1598,9 +1585,9 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
       <c r="L14" s="20"/>
       <c r="M14" s="12"/>
       <c r="N14" s="12"/>
@@ -1609,7 +1596,7 @@
       <c r="U14" s="20"/>
       <c r="V14" s="20"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>9</v>
       </c>
@@ -1622,16 +1609,16 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
       <c r="L15" s="20"/>
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
       <c r="U15" s="20"/>
       <c r="V15" s="20"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
@@ -1644,15 +1631,15 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
       <c r="L16" s="20"/>
       <c r="N16" s="12"/>
       <c r="U16" s="20"/>
       <c r="V16" s="20"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>10</v>
       </c>
@@ -1665,14 +1652,14 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
       <c r="L17" s="20"/>
       <c r="U17" s="20"/>
       <c r="V17" s="20"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>60</v>
       </c>
@@ -1685,12 +1672,12 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
       <c r="L18" s="20"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>61</v>
       </c>
@@ -1702,11 +1689,11 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.6">
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>58</v>
       </c>
@@ -1718,11 +1705,11 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.6">
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>8</v>
       </c>
@@ -1734,14 +1721,14 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
       <c r="M21" s="11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>26</v>
       </c>
@@ -1755,14 +1742,14 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
       <c r="M22" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="23" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>56</v>
       </c>
@@ -1776,16 +1763,16 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
       <c r="M23" s="17" t="s">
         <v>66</v>
       </c>
       <c r="N23" s="18"/>
-      <c r="O23" s="25"/>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.6">
+      <c r="O23" s="26"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>54</v>
       </c>
@@ -1799,16 +1786,16 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="M24" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="N24" s="24"/>
-      <c r="O24" s="24"/>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.6">
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="M24" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>47</v>
       </c>
@@ -1824,14 +1811,14 @@
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.6">
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="25"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>48</v>
       </c>
@@ -1843,14 +1830,14 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="24"/>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.6">
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="25"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>49</v>
       </c>
@@ -1860,18 +1847,18 @@
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.6">
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="25"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>19</v>
       </c>
@@ -1883,18 +1870,18 @@
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="24"/>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.6">
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="25"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>12</v>
       </c>
@@ -1910,14 +1897,14 @@
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="M29" s="24"/>
-      <c r="N29" s="24"/>
-      <c r="O29" s="24"/>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.6">
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="25"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>7</v>
       </c>
@@ -1933,14 +1920,14 @@
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-      <c r="M30" s="24"/>
-      <c r="N30" s="24"/>
-      <c r="O30" s="24"/>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.6">
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="25"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>14</v>
       </c>
@@ -1956,14 +1943,14 @@
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="24"/>
-      <c r="O31" s="24"/>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.6">
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="25"/>
+      <c r="O31" s="25"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>46</v>
       </c>
@@ -1979,14 +1966,14 @@
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="M32" s="24"/>
-      <c r="N32" s="24"/>
-      <c r="O32" s="24"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="25"/>
+      <c r="O32" s="25"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>34</v>
       </c>
@@ -2000,14 +1987,14 @@
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
-      <c r="M33" s="24"/>
-      <c r="N33" s="24"/>
-      <c r="O33" s="24"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+      <c r="M33" s="25"/>
+      <c r="N33" s="25"/>
+      <c r="O33" s="25"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>35</v>
       </c>
@@ -2021,14 +2008,14 @@
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22"/>
-      <c r="M34" s="24"/>
-      <c r="N34" s="24"/>
-      <c r="O34" s="24"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="25"/>
+      <c r="O34" s="25"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>20</v>
       </c>
@@ -2044,14 +2031,14 @@
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="22"/>
-      <c r="M35" s="24"/>
-      <c r="N35" s="24"/>
-      <c r="O35" s="24"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="25"/>
+      <c r="O35" s="25"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>40</v>
       </c>
@@ -2069,14 +2056,14 @@
         <v>50</v>
       </c>
       <c r="G36" s="2"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="22"/>
-      <c r="M36" s="24"/>
-      <c r="N36" s="24"/>
-      <c r="O36" s="24"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="I36" s="23"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="23"/>
+      <c r="M36" s="25"/>
+      <c r="N36" s="25"/>
+      <c r="O36" s="25"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>6</v>
       </c>
@@ -2092,11 +2079,11 @@
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="22"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="I37" s="23"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="23"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>33</v>
       </c>
@@ -2108,21 +2095,21 @@
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="23"/>
       <c r="M38" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="O38" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>16</v>
       </c>
@@ -2140,14 +2127,14 @@
         <v>50</v>
       </c>
       <c r="G39" s="2"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="22"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="23"/>
       <c r="M39" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.6">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>17</v>
       </c>
@@ -2167,16 +2154,16 @@
       <c r="G40" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I40" s="22"/>
-      <c r="J40" s="22"/>
-      <c r="K40" s="22"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="23"/>
       <c r="M40" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.6">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="5"/>
@@ -2184,14 +2171,14 @@
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
-      <c r="I41" s="22"/>
-      <c r="J41" s="22"/>
-      <c r="K41" s="22"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="23"/>
       <c r="M41" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.6">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="5"/>
@@ -2199,17 +2186,17 @@
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="22"/>
-      <c r="K42" s="22"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="23"/>
+      <c r="K42" s="23"/>
       <c r="M42" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="O42" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.6">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="5"/>
@@ -2217,14 +2204,14 @@
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
-      <c r="I43" s="22"/>
-      <c r="J43" s="22"/>
-      <c r="K43" s="22"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="23"/>
       <c r="M43" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.6">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="5"/>
@@ -2232,14 +2219,14 @@
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="22"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="23"/>
+      <c r="K44" s="23"/>
       <c r="M44" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="5"/>
@@ -2247,48 +2234,48 @@
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
-      <c r="I45" s="22"/>
-      <c r="J45" s="22"/>
-      <c r="K45" s="22"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="I46" s="22"/>
-      <c r="J46" s="22"/>
-      <c r="K46" s="22"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="I47" s="22"/>
-      <c r="J47" s="22"/>
-      <c r="K47" s="22"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="23"/>
+      <c r="K45" s="23"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I46" s="23"/>
+      <c r="J46" s="23"/>
+      <c r="K46" s="23"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I47" s="23"/>
+      <c r="J47" s="23"/>
+      <c r="K47" s="23"/>
       <c r="M47" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="N47" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="O47" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="I48" s="22"/>
-      <c r="J48" s="22"/>
-      <c r="K48" s="22"/>
-    </row>
-    <row r="49" spans="9:13" x14ac:dyDescent="0.6">
-      <c r="I49" s="22"/>
-      <c r="J49" s="22"/>
-      <c r="K49" s="22"/>
-    </row>
-    <row r="50" spans="9:13" x14ac:dyDescent="0.6">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I48" s="23"/>
+      <c r="J48" s="23"/>
+      <c r="K48" s="23"/>
+    </row>
+    <row r="49" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I49" s="23"/>
+      <c r="J49" s="23"/>
+      <c r="K49" s="23"/>
+    </row>
+    <row r="50" spans="9:13" x14ac:dyDescent="0.3">
       <c r="M50" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G22">
-    <sortState ref="A2:G38">
-      <sortCondition descending="1" ref="C1:C19"/>
+    <sortState ref="A2:G41">
+      <sortCondition descending="1" ref="C1:C22"/>
     </sortState>
   </autoFilter>
   <mergeCells count="7">

--- a/works.xlsx
+++ b/works.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSAFY\Desktop\itgorae\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23265" windowHeight="12465"/>
   </bookViews>
@@ -12,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$22</definedName>
   </definedNames>
-  <calcPr calcId="145621" refMode="R1C1"/>
+  <calcPr calcId="162913" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="120">
   <si>
     <t>제목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -272,22 +277,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">4회 풀기 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>복습</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6키로 러닝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포폴 양식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">그냥 할일 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -319,10 +308,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>개발인원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>어떤문제?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -384,20 +369,6 @@
   </si>
   <si>
     <t xml:space="preserve">bgf 리테일 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">소개 페이지 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sql 3문제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1일 1자소서
-1일 1포폴
-1일 1개발</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -423,102 +394,132 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>기술스택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>링크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당역활</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태웅로직스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다우기술</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>erd 1개 - nosql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로젠 지원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포폴완성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">sql 1 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알고리즘1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>깃미러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한진 지원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오토에버지원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교보재 신청 2차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git hub desktop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>java세팅(몽고디비, 레디스)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>softeer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">자바 프로젝트 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포폴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1일 1자소서
+1일 1포폴
+1일 1개발https://docs.spring.io/spring-cloud-openfeign/reference/spring-cloud-openfeign.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">소개 페이지 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sql 3문제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발인원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플랫폼 web</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>개발기간</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기술스택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>링크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>담당역활</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>플랫폼 web</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>태웅로직스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다우기술</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>erd 1개 - nosql</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로젠 지원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포폴완성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">sql 1 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>알고리즘1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>깃미러</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한진 지원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오토에버지원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>교보재 신청 2차</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>git hub desktop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>java세팅(몽고디비, 레디스)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한진</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한진</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>softeer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">자바 프로젝트 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포폴</t>
+    <t>프로젝트 구조 보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dx 스쿨 자소서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발시작</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1096,7 +1097,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1106,11 +1107,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="22.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
@@ -1127,7 +1128,7 @@
     <col min="19" max="19" width="18.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1138,7 +1139,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -1181,9 +1182,9 @@
       <c r="U1" s="20"/>
       <c r="V1" s="20"/>
     </row>
-    <row r="2" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A2" s="4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="5">
@@ -1195,33 +1196,31 @@
       <c r="G2" s="2"/>
       <c r="H2" s="3"/>
       <c r="I2" s="21" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="J2" s="21"/>
       <c r="K2" s="21"/>
       <c r="L2" s="20"/>
       <c r="M2" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>62</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="N2" s="2"/>
       <c r="O2" s="13"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="T2" s="20"/>
       <c r="U2" s="20"/>
       <c r="V2" s="20"/>
     </row>
-    <row r="3" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A3" s="4" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="5">
@@ -1237,23 +1236,25 @@
       <c r="K3" s="22"/>
       <c r="L3" s="20"/>
       <c r="M3" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="N3" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="O3" s="13"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="T3" s="20"/>
       <c r="U3" s="20"/>
       <c r="V3" s="20"/>
     </row>
-    <row r="4" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A4" s="4" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="5">
@@ -1269,26 +1270,28 @@
       <c r="K4" s="22"/>
       <c r="L4" s="20"/>
       <c r="M4" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="N4" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="N4" s="2"/>
       <c r="O4" s="13"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="S4" s="2"/>
       <c r="T4" s="20"/>
       <c r="U4" s="20"/>
       <c r="V4" s="20"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A5" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C5" s="5">
         <v>45595</v>
@@ -1304,29 +1307,29 @@
       <c r="L5" s="20"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="T5" s="20"/>
       <c r="U5" s="20"/>
       <c r="V5" s="20"/>
     </row>
-    <row r="6" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A6" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C6" s="5">
         <v>45595</v>
@@ -1343,7 +1346,7 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
@@ -1353,12 +1356,12 @@
       <c r="U6" s="20"/>
       <c r="V6" s="20"/>
     </row>
-    <row r="7" spans="1:22" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" ht="14.85" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A7" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C7" s="5">
         <v>45595</v>
@@ -1373,28 +1376,26 @@
       <c r="K7" s="23"/>
       <c r="L7" s="20"/>
       <c r="M7" s="2"/>
-      <c r="N7" s="2" t="s">
-        <v>64</v>
-      </c>
+      <c r="N7" s="2"/>
       <c r="O7" s="2" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="S7" s="2"/>
       <c r="T7" s="20"/>
       <c r="U7" s="20"/>
       <c r="V7" s="20"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A8" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C8" s="5">
         <v>45595</v>
@@ -1409,25 +1410,23 @@
       <c r="K8" s="23"/>
       <c r="L8" s="20"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="2" t="s">
-        <v>65</v>
-      </c>
+      <c r="N8" s="2"/>
       <c r="O8" s="2" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="S8" s="2"/>
       <c r="T8" s="20"/>
       <c r="U8" s="20"/>
       <c r="V8" s="20"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A9" s="4" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="5">
@@ -1449,15 +1448,15 @@
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="T9" s="20"/>
       <c r="U9" s="20"/>
       <c r="V9" s="20"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A10" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="5">
@@ -1479,15 +1478,15 @@
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
       <c r="S10" s="2" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="T10" s="20"/>
       <c r="U10" s="20"/>
       <c r="V10" s="20"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A11" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="5">
@@ -1509,18 +1508,18 @@
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
       <c r="S11" s="2" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="T11" s="20"/>
       <c r="U11" s="20"/>
       <c r="V11" s="20"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A12" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C12" s="5">
         <v>45590</v>
@@ -1545,7 +1544,7 @@
       <c r="U12" s="15"/>
       <c r="V12" s="15"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A13" s="4" t="s">
         <v>55</v>
       </c>
@@ -1572,7 +1571,7 @@
       <c r="U13" s="20"/>
       <c r="V13" s="20"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A14" s="4" t="s">
         <v>57</v>
       </c>
@@ -1596,7 +1595,7 @@
       <c r="U14" s="20"/>
       <c r="V14" s="20"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A15" s="4" t="s">
         <v>9</v>
       </c>
@@ -1618,7 +1617,7 @@
       <c r="U15" s="20"/>
       <c r="V15" s="20"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
@@ -1639,7 +1638,7 @@
       <c r="U16" s="20"/>
       <c r="V16" s="20"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A17" s="4" t="s">
         <v>10</v>
       </c>
@@ -1659,7 +1658,7 @@
       <c r="U17" s="20"/>
       <c r="V17" s="20"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A18" s="4" t="s">
         <v>60</v>
       </c>
@@ -1677,7 +1676,7 @@
       <c r="K18" s="23"/>
       <c r="L18" s="20"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A19" s="4" t="s">
         <v>61</v>
       </c>
@@ -1693,7 +1692,7 @@
       <c r="J19" s="23"/>
       <c r="K19" s="23"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A20" s="4" t="s">
         <v>58</v>
       </c>
@@ -1709,7 +1708,7 @@
       <c r="J20" s="23"/>
       <c r="K20" s="23"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A21" s="4" t="s">
         <v>8</v>
       </c>
@@ -1725,10 +1724,10 @@
       <c r="J21" s="23"/>
       <c r="K21" s="23"/>
       <c r="M21" s="11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A22" s="4" t="s">
         <v>26</v>
       </c>
@@ -1749,7 +1748,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A23" s="4" t="s">
         <v>56</v>
       </c>
@@ -1767,12 +1766,12 @@
       <c r="J23" s="23"/>
       <c r="K23" s="23"/>
       <c r="M23" s="17" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="N23" s="18"/>
       <c r="O23" s="26"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A24" s="4" t="s">
         <v>54</v>
       </c>
@@ -1790,12 +1789,12 @@
       <c r="J24" s="23"/>
       <c r="K24" s="23"/>
       <c r="M24" s="24" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="N24" s="25"/>
       <c r="O24" s="25"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A25" s="4" t="s">
         <v>47</v>
       </c>
@@ -1818,7 +1817,7 @@
       <c r="N25" s="25"/>
       <c r="O25" s="25"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A26" s="4" t="s">
         <v>48</v>
       </c>
@@ -1837,7 +1836,7 @@
       <c r="N26" s="25"/>
       <c r="O26" s="25"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A27" s="4" t="s">
         <v>49</v>
       </c>
@@ -1847,7 +1846,7 @@
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -1858,7 +1857,7 @@
       <c r="N27" s="25"/>
       <c r="O27" s="25"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A28" s="4" t="s">
         <v>19</v>
       </c>
@@ -1870,7 +1869,7 @@
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -1881,7 +1880,7 @@
       <c r="N28" s="25"/>
       <c r="O28" s="25"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A29" s="4" t="s">
         <v>12</v>
       </c>
@@ -1904,7 +1903,7 @@
       <c r="N29" s="25"/>
       <c r="O29" s="25"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A30" s="4" t="s">
         <v>7</v>
       </c>
@@ -1927,7 +1926,7 @@
       <c r="N30" s="25"/>
       <c r="O30" s="25"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A31" s="4" t="s">
         <v>14</v>
       </c>
@@ -1950,7 +1949,7 @@
       <c r="N31" s="25"/>
       <c r="O31" s="25"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A32" s="4" t="s">
         <v>46</v>
       </c>
@@ -1973,7 +1972,7 @@
       <c r="N32" s="25"/>
       <c r="O32" s="25"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A33" s="4" t="s">
         <v>34</v>
       </c>
@@ -1994,7 +1993,7 @@
       <c r="N33" s="25"/>
       <c r="O33" s="25"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A34" s="4" t="s">
         <v>35</v>
       </c>
@@ -2015,7 +2014,7 @@
       <c r="N34" s="25"/>
       <c r="O34" s="25"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A35" s="4" t="s">
         <v>20</v>
       </c>
@@ -2038,7 +2037,7 @@
       <c r="N35" s="25"/>
       <c r="O35" s="25"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A36" s="4" t="s">
         <v>40</v>
       </c>
@@ -2063,7 +2062,7 @@
       <c r="N36" s="25"/>
       <c r="O36" s="25"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A37" s="4" t="s">
         <v>6</v>
       </c>
@@ -2083,7 +2082,7 @@
       <c r="J37" s="23"/>
       <c r="K37" s="23"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A38" s="4" t="s">
         <v>33</v>
       </c>
@@ -2095,7 +2094,7 @@
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
@@ -2103,13 +2102,13 @@
       <c r="J38" s="23"/>
       <c r="K38" s="23"/>
       <c r="M38" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="O38" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A39" s="4" t="s">
         <v>16</v>
       </c>
@@ -2131,10 +2130,10 @@
       <c r="J39" s="23"/>
       <c r="K39" s="23"/>
       <c r="M39" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A40" s="4" t="s">
         <v>17</v>
       </c>
@@ -2158,12 +2157,12 @@
       <c r="J40" s="23"/>
       <c r="K40" s="23"/>
       <c r="M40" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A41" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="5"/>
@@ -2175,10 +2174,10 @@
       <c r="J41" s="23"/>
       <c r="K41" s="23"/>
       <c r="M41" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="5"/>
@@ -2190,13 +2189,13 @@
       <c r="J42" s="23"/>
       <c r="K42" s="23"/>
       <c r="M42" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="O42" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="5"/>
@@ -2208,10 +2207,10 @@
       <c r="J43" s="23"/>
       <c r="K43" s="23"/>
       <c r="M43" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="5"/>
@@ -2223,10 +2222,10 @@
       <c r="J44" s="23"/>
       <c r="K44" s="23"/>
       <c r="M44" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="5"/>
@@ -2238,38 +2237,38 @@
       <c r="J45" s="23"/>
       <c r="K45" s="23"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.6">
       <c r="I46" s="23"/>
       <c r="J46" s="23"/>
       <c r="K46" s="23"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.6">
       <c r="I47" s="23"/>
       <c r="J47" s="23"/>
       <c r="K47" s="23"/>
       <c r="M47" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N47" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="O47" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.6">
       <c r="I48" s="23"/>
       <c r="J48" s="23"/>
       <c r="K48" s="23"/>
     </row>
-    <row r="49" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="9:13" x14ac:dyDescent="0.6">
       <c r="I49" s="23"/>
       <c r="J49" s="23"/>
       <c r="K49" s="23"/>
     </row>
-    <row r="50" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="9:13" x14ac:dyDescent="0.6">
       <c r="M50" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/works.xlsx
+++ b/works.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSAFY\Desktop\itgorae\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23265" windowHeight="12465"/>
   </bookViews>
@@ -17,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$22</definedName>
   </definedNames>
-  <calcPr calcId="162913" refMode="R1C1"/>
+  <calcPr calcId="145621" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="118">
   <si>
     <t>제목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -361,14 +356,6 @@
   </si>
   <si>
     <t>https://musinsa.career.greetinghr.com/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자바 생성 nosql, 큐, 인덱싱, csv파일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">bgf 리테일 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -484,14 +471,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">소개 페이지 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sql 3문제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>개발인원</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -513,13 +492,22 @@
   </si>
   <si>
     <t>개발시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질문. Dto 여러 개 해서 할지 
+repository 여러 개 해서 할지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1대1인지? chatroom에도 초이스 모델 필요한거아님?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -742,7 +730,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -823,6 +811,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1097,7 +1088,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1108,10 +1099,10 @@
   <dimension ref="A1:V50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
@@ -1121,14 +1112,14 @@
     <col min="12" max="12" width="11.125" customWidth="1"/>
     <col min="13" max="13" width="20.375" customWidth="1"/>
     <col min="14" max="14" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="32.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="50.125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="18.125" customWidth="1"/>
     <col min="17" max="17" width="28" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="17.375" customWidth="1"/>
     <col min="19" max="19" width="18.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1182,7 +1173,7 @@
       <c r="U1" s="20"/>
       <c r="V1" s="20"/>
     </row>
-    <row r="2" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>79</v>
       </c>
@@ -1196,31 +1187,31 @@
       <c r="G2" s="2"/>
       <c r="H2" s="3"/>
       <c r="I2" s="21" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J2" s="21"/>
       <c r="K2" s="21"/>
       <c r="L2" s="20"/>
       <c r="M2" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="13"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="T2" s="20"/>
       <c r="U2" s="20"/>
       <c r="V2" s="20"/>
     </row>
-    <row r="3" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="5">
@@ -1236,25 +1227,25 @@
       <c r="K3" s="22"/>
       <c r="L3" s="20"/>
       <c r="M3" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="O3" s="13"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T3" s="20"/>
       <c r="U3" s="20"/>
       <c r="V3" s="20"/>
     </row>
-    <row r="4" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:22" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="5">
@@ -1270,28 +1261,30 @@
       <c r="K4" s="22"/>
       <c r="L4" s="20"/>
       <c r="M4" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="O4" s="13"/>
+        <v>115</v>
+      </c>
+      <c r="O4" s="27" t="s">
+        <v>116</v>
+      </c>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="S4" s="2"/>
       <c r="T4" s="20"/>
       <c r="U4" s="20"/>
       <c r="V4" s="20"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>75</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C5" s="5">
         <v>45595</v>
@@ -1307,29 +1300,29 @@
       <c r="L5" s="20"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="T5" s="20"/>
       <c r="U5" s="20"/>
       <c r="V5" s="20"/>
     </row>
-    <row r="6" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>63</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C6" s="5">
         <v>45595</v>
@@ -1345,9 +1338,7 @@
       <c r="L6" s="20"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
-      <c r="O6" s="2" t="s">
-        <v>85</v>
-      </c>
+      <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
@@ -1356,7 +1347,7 @@
       <c r="U6" s="20"/>
       <c r="V6" s="20"/>
     </row>
-    <row r="7" spans="1:22" ht="14.85" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:22" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>76</v>
       </c>
@@ -1377,20 +1368,18 @@
       <c r="L7" s="20"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
-      <c r="O7" s="2" t="s">
-        <v>112</v>
-      </c>
+      <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="S7" s="2"/>
       <c r="T7" s="20"/>
       <c r="U7" s="20"/>
       <c r="V7" s="20"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>68</v>
       </c>
@@ -1411,22 +1400,20 @@
       <c r="L8" s="20"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
-      <c r="O8" s="2" t="s">
-        <v>113</v>
-      </c>
+      <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="S8" s="2"/>
       <c r="T8" s="20"/>
       <c r="U8" s="20"/>
       <c r="V8" s="20"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="5">
@@ -1448,13 +1435,13 @@
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="T9" s="20"/>
       <c r="U9" s="20"/>
       <c r="V9" s="20"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>82</v>
       </c>
@@ -1478,13 +1465,13 @@
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
       <c r="S10" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="T10" s="20"/>
       <c r="U10" s="20"/>
       <c r="V10" s="20"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>74</v>
       </c>
@@ -1508,18 +1495,18 @@
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
       <c r="S11" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="T11" s="20"/>
       <c r="U11" s="20"/>
       <c r="V11" s="20"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C12" s="5">
         <v>45590</v>
@@ -1544,7 +1531,7 @@
       <c r="U12" s="15"/>
       <c r="V12" s="15"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>55</v>
       </c>
@@ -1571,7 +1558,7 @@
       <c r="U13" s="20"/>
       <c r="V13" s="20"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>57</v>
       </c>
@@ -1595,7 +1582,7 @@
       <c r="U14" s="20"/>
       <c r="V14" s="20"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>9</v>
       </c>
@@ -1617,7 +1604,7 @@
       <c r="U15" s="20"/>
       <c r="V15" s="20"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
@@ -1638,7 +1625,7 @@
       <c r="U16" s="20"/>
       <c r="V16" s="20"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>10</v>
       </c>
@@ -1658,7 +1645,7 @@
       <c r="U17" s="20"/>
       <c r="V17" s="20"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>60</v>
       </c>
@@ -1676,7 +1663,7 @@
       <c r="K18" s="23"/>
       <c r="L18" s="20"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>61</v>
       </c>
@@ -1692,7 +1679,7 @@
       <c r="J19" s="23"/>
       <c r="K19" s="23"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>58</v>
       </c>
@@ -1708,7 +1695,7 @@
       <c r="J20" s="23"/>
       <c r="K20" s="23"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>8</v>
       </c>
@@ -1727,7 +1714,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="22" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>26</v>
       </c>
@@ -1748,7 +1735,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="23" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>56</v>
       </c>
@@ -1771,7 +1758,7 @@
       <c r="N23" s="18"/>
       <c r="O23" s="26"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>54</v>
       </c>
@@ -1789,12 +1776,12 @@
       <c r="J24" s="23"/>
       <c r="K24" s="23"/>
       <c r="M24" s="24" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N24" s="25"/>
       <c r="O24" s="25"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>47</v>
       </c>
@@ -1817,7 +1804,7 @@
       <c r="N25" s="25"/>
       <c r="O25" s="25"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>48</v>
       </c>
@@ -1836,7 +1823,7 @@
       <c r="N26" s="25"/>
       <c r="O26" s="25"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>49</v>
       </c>
@@ -1857,7 +1844,7 @@
       <c r="N27" s="25"/>
       <c r="O27" s="25"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>19</v>
       </c>
@@ -1880,7 +1867,7 @@
       <c r="N28" s="25"/>
       <c r="O28" s="25"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>12</v>
       </c>
@@ -1903,7 +1890,7 @@
       <c r="N29" s="25"/>
       <c r="O29" s="25"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>7</v>
       </c>
@@ -1926,7 +1913,7 @@
       <c r="N30" s="25"/>
       <c r="O30" s="25"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>14</v>
       </c>
@@ -1949,7 +1936,7 @@
       <c r="N31" s="25"/>
       <c r="O31" s="25"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>46</v>
       </c>
@@ -1972,7 +1959,7 @@
       <c r="N32" s="25"/>
       <c r="O32" s="25"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>34</v>
       </c>
@@ -1993,7 +1980,7 @@
       <c r="N33" s="25"/>
       <c r="O33" s="25"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>35</v>
       </c>
@@ -2014,7 +2001,7 @@
       <c r="N34" s="25"/>
       <c r="O34" s="25"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>20</v>
       </c>
@@ -2037,7 +2024,7 @@
       <c r="N35" s="25"/>
       <c r="O35" s="25"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>40</v>
       </c>
@@ -2062,7 +2049,7 @@
       <c r="N36" s="25"/>
       <c r="O36" s="25"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>6</v>
       </c>
@@ -2082,7 +2069,7 @@
       <c r="J37" s="23"/>
       <c r="K37" s="23"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>33</v>
       </c>
@@ -2108,7 +2095,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>16</v>
       </c>
@@ -2130,10 +2117,10 @@
       <c r="J39" s="23"/>
       <c r="K39" s="23"/>
       <c r="M39" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.6">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>17</v>
       </c>
@@ -2157,10 +2144,10 @@
       <c r="J40" s="23"/>
       <c r="K40" s="23"/>
       <c r="M40" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.6">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>78</v>
       </c>
@@ -2174,10 +2161,10 @@
       <c r="J41" s="23"/>
       <c r="K41" s="23"/>
       <c r="M41" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.6">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="5"/>
@@ -2189,13 +2176,13 @@
       <c r="J42" s="23"/>
       <c r="K42" s="23"/>
       <c r="M42" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O42" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.6">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="5"/>
@@ -2207,10 +2194,10 @@
       <c r="J43" s="23"/>
       <c r="K43" s="23"/>
       <c r="M43" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.6">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="5"/>
@@ -2222,10 +2209,10 @@
       <c r="J44" s="23"/>
       <c r="K44" s="23"/>
       <c r="M44" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.6">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="5"/>
@@ -2237,12 +2224,12 @@
       <c r="J45" s="23"/>
       <c r="K45" s="23"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="I46" s="23"/>
       <c r="J46" s="23"/>
       <c r="K46" s="23"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="I47" s="23"/>
       <c r="J47" s="23"/>
       <c r="K47" s="23"/>
@@ -2250,23 +2237,23 @@
         <v>80</v>
       </c>
       <c r="N47" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O47" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="I48" s="23"/>
       <c r="J48" s="23"/>
       <c r="K48" s="23"/>
     </row>
-    <row r="49" spans="9:13" x14ac:dyDescent="0.6">
+    <row r="49" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I49" s="23"/>
       <c r="J49" s="23"/>
       <c r="K49" s="23"/>
     </row>
-    <row r="50" spans="9:13" x14ac:dyDescent="0.6">
+    <row r="50" spans="9:13" x14ac:dyDescent="0.3">
       <c r="M50" t="s">
         <v>72</v>
       </c>

--- a/works.xlsx
+++ b/works.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="121">
   <si>
     <t>제목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -501,6 +501,18 @@
   </si>
   <si>
     <t>1대1인지? chatroom에도 초이스 모델 필요한거아님?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도커필요해?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로컬실행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘지지원</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -782,6 +794,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -811,9 +826,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1099,7 +1111,7 @@
   <dimension ref="A1:V50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1142,12 +1154,12 @@
         <v>4</v>
       </c>
       <c r="H1" s="3"/>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="J1" s="18"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="20"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="21"/>
       <c r="M1" s="7" t="s">
         <v>27</v>
       </c>
@@ -1169,9 +1181,9 @@
       <c r="S1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
     </row>
     <row r="2" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -1186,12 +1198,12 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="20"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="21"/>
       <c r="M2" s="2" t="s">
         <v>105</v>
       </c>
@@ -1205,9 +1217,9 @@
       <c r="S2" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
     </row>
     <row r="3" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
@@ -1222,10 +1234,10 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="16"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="20"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="21"/>
       <c r="M3" s="2" t="s">
         <v>106</v>
       </c>
@@ -1239,9 +1251,9 @@
       <c r="S3" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:22" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
@@ -1256,28 +1268,30 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="16"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="20"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="21"/>
       <c r="M4" s="2" t="s">
         <v>107</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="O4" s="27" t="s">
+      <c r="O4" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="P4" s="2"/>
+      <c r="P4" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="Q4" s="2"/>
       <c r="R4" s="2" t="s">
         <v>96</v>
       </c>
       <c r="S4" s="2"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="20"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
@@ -1294,10 +1308,10 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="20"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="21"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2" t="s">
         <v>114</v>
@@ -1305,7 +1319,9 @@
       <c r="O5" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="P5" s="2"/>
+      <c r="P5" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="Q5" s="2"/>
       <c r="R5" s="2" t="s">
         <v>97</v>
@@ -1313,9 +1329,9 @@
       <c r="S5" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
     </row>
     <row r="6" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
@@ -1332,20 +1348,22 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="20"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="21"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
+      <c r="P6" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="20"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
     </row>
     <row r="7" spans="1:22" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
@@ -1362,10 +1380,10 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="20"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="21"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1375,9 +1393,9 @@
         <v>98</v>
       </c>
       <c r="S7" s="2"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="20"/>
-      <c r="V7" s="20"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
@@ -1394,10 +1412,10 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="20"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="21"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -1407,9 +1425,9 @@
         <v>101</v>
       </c>
       <c r="S8" s="2"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="20"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
@@ -1424,10 +1442,10 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="15"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="20"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="21"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1437,9 +1455,9 @@
       <c r="S9" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="T9" s="20"/>
-      <c r="U9" s="20"/>
-      <c r="V9" s="20"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="21"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
@@ -1454,10 +1472,10 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="20"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="21"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1467,9 +1485,9 @@
       <c r="S10" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
-      <c r="V10" s="20"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="21"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
@@ -1484,10 +1502,10 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="20"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="21"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -1497,9 +1515,9 @@
       <c r="S11" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="T11" s="20"/>
-      <c r="U11" s="20"/>
-      <c r="V11" s="20"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
@@ -1516,10 +1534,10 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="15"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="20"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="21"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -1544,10 +1562,10 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="20"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="21"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -1555,8 +1573,8 @@
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="20"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
@@ -1571,16 +1589,16 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="20"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="21"/>
       <c r="M14" s="12"/>
       <c r="N14" s="12"/>
       <c r="O14" s="12"/>
       <c r="P14" s="12"/>
-      <c r="U14" s="20"/>
-      <c r="V14" s="20"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
@@ -1595,14 +1613,14 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="20"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="21"/>
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
-      <c r="U15" s="20"/>
-      <c r="V15" s="20"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="21"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
@@ -1617,13 +1635,13 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="20"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="21"/>
       <c r="N16" s="12"/>
-      <c r="U16" s="20"/>
-      <c r="V16" s="20"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
@@ -1638,12 +1656,12 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="20"/>
-      <c r="U17" s="20"/>
-      <c r="V17" s="20"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="21"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="21"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
@@ -1658,10 +1676,10 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="20"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="21"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
@@ -1675,9 +1693,9 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
@@ -1691,9 +1709,9 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
@@ -1707,9 +1725,9 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
       <c r="M21" s="11" t="s">
         <v>83</v>
       </c>
@@ -1728,9 +1746,9 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
       <c r="M22" s="11" t="s">
         <v>24</v>
       </c>
@@ -1749,14 +1767,14 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="M23" s="17" t="s">
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="M23" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="N23" s="18"/>
-      <c r="O23" s="26"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="27"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
@@ -1772,14 +1790,14 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="M24" s="24" t="s">
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="M24" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="26"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
@@ -1797,12 +1815,12 @@
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="25"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="26"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
@@ -1816,12 +1834,12 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="25"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
@@ -1837,12 +1855,12 @@
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="25"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
@@ -1860,12 +1878,12 @@
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="M28" s="25"/>
-      <c r="N28" s="25"/>
-      <c r="O28" s="25"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="26"/>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
@@ -1883,12 +1901,12 @@
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="25"/>
-      <c r="O29" s="25"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="26"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
@@ -1906,12 +1924,12 @@
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
-      <c r="M30" s="25"/>
-      <c r="N30" s="25"/>
-      <c r="O30" s="25"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="26"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
@@ -1929,12 +1947,12 @@
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
-      <c r="M31" s="25"/>
-      <c r="N31" s="25"/>
-      <c r="O31" s="25"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="26"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
@@ -1952,12 +1970,12 @@
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
-      <c r="M32" s="25"/>
-      <c r="N32" s="25"/>
-      <c r="O32" s="25"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="26"/>
+      <c r="O32" s="26"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
@@ -1973,12 +1991,12 @@
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="23"/>
-      <c r="M33" s="25"/>
-      <c r="N33" s="25"/>
-      <c r="O33" s="25"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="26"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
@@ -1994,12 +2012,12 @@
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="M34" s="25"/>
-      <c r="N34" s="25"/>
-      <c r="O34" s="25"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="M34" s="26"/>
+      <c r="N34" s="26"/>
+      <c r="O34" s="26"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
@@ -2017,12 +2035,12 @@
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-      <c r="M35" s="25"/>
-      <c r="N35" s="25"/>
-      <c r="O35" s="25"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="M35" s="26"/>
+      <c r="N35" s="26"/>
+      <c r="O35" s="26"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
@@ -2042,12 +2060,12 @@
         <v>50</v>
       </c>
       <c r="G36" s="2"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23"/>
-      <c r="K36" s="23"/>
-      <c r="M36" s="25"/>
-      <c r="N36" s="25"/>
-      <c r="O36" s="25"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
+      <c r="M36" s="26"/>
+      <c r="N36" s="26"/>
+      <c r="O36" s="26"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
@@ -2065,9 +2083,9 @@
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="23"/>
-      <c r="K37" s="23"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
@@ -2085,9 +2103,9 @@
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23"/>
-      <c r="K38" s="23"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
       <c r="M38" t="s">
         <v>69</v>
       </c>
@@ -2113,9 +2131,9 @@
         <v>50</v>
       </c>
       <c r="G39" s="2"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23"/>
-      <c r="K39" s="23"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="24"/>
       <c r="M39" t="s">
         <v>112</v>
       </c>
@@ -2140,9 +2158,9 @@
       <c r="G40" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I40" s="23"/>
-      <c r="J40" s="23"/>
-      <c r="K40" s="23"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="24"/>
       <c r="M40" t="s">
         <v>111</v>
       </c>
@@ -2157,9 +2175,9 @@
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="23"/>
-      <c r="K41" s="23"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="24"/>
       <c r="M41" t="s">
         <v>110</v>
       </c>
@@ -2172,9 +2190,9 @@
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
-      <c r="I42" s="23"/>
-      <c r="J42" s="23"/>
-      <c r="K42" s="23"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="24"/>
+      <c r="K42" s="24"/>
       <c r="M42" t="s">
         <v>90</v>
       </c>
@@ -2190,9 +2208,9 @@
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23"/>
-      <c r="K43" s="23"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="24"/>
       <c r="M43" t="s">
         <v>88</v>
       </c>
@@ -2205,9 +2223,9 @@
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
-      <c r="I44" s="23"/>
-      <c r="J44" s="23"/>
-      <c r="K44" s="23"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="24"/>
       <c r="M44" t="s">
         <v>89</v>
       </c>
@@ -2220,19 +2238,19 @@
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
-      <c r="I45" s="23"/>
-      <c r="J45" s="23"/>
-      <c r="K45" s="23"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="24"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="I46" s="23"/>
-      <c r="J46" s="23"/>
-      <c r="K46" s="23"/>
+      <c r="I46" s="24"/>
+      <c r="J46" s="24"/>
+      <c r="K46" s="24"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="I47" s="23"/>
-      <c r="J47" s="23"/>
-      <c r="K47" s="23"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="24"/>
+      <c r="K47" s="24"/>
       <c r="M47" t="s">
         <v>80</v>
       </c>
@@ -2244,14 +2262,14 @@
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="I48" s="23"/>
-      <c r="J48" s="23"/>
-      <c r="K48" s="23"/>
+      <c r="I48" s="24"/>
+      <c r="J48" s="24"/>
+      <c r="K48" s="24"/>
     </row>
     <row r="49" spans="9:13" x14ac:dyDescent="0.3">
-      <c r="I49" s="23"/>
-      <c r="J49" s="23"/>
-      <c r="K49" s="23"/>
+      <c r="I49" s="24"/>
+      <c r="J49" s="24"/>
+      <c r="K49" s="24"/>
     </row>
     <row r="50" spans="9:13" x14ac:dyDescent="0.3">
       <c r="M50" t="s">

--- a/works.xlsx
+++ b/works.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSAFY\Desktop\itgorae\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23265" windowHeight="12465"/>
   </bookViews>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="126">
   <si>
     <t>제목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -512,14 +517,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>lgcns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>엘지지원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자격증?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">알고리즘 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">포트폴리오 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지원</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1100,7 +1125,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1110,11 +1135,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="22.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
@@ -1131,7 +1156,7 @@
     <col min="19" max="19" width="18.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1185,7 +1210,7 @@
       <c r="U1" s="21"/>
       <c r="V1" s="21"/>
     </row>
-    <row r="2" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A2" s="4" t="s">
         <v>79</v>
       </c>
@@ -1221,7 +1246,7 @@
       <c r="U2" s="21"/>
       <c r="V2" s="21"/>
     </row>
-    <row r="3" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A3" s="4" t="s">
         <v>91</v>
       </c>
@@ -1255,7 +1280,7 @@
       <c r="U3" s="21"/>
       <c r="V3" s="21"/>
     </row>
-    <row r="4" spans="1:22" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="30" x14ac:dyDescent="0.6">
       <c r="A4" s="4" t="s">
         <v>92</v>
       </c>
@@ -1293,7 +1318,7 @@
       <c r="U4" s="21"/>
       <c r="V4" s="21"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A5" s="4" t="s">
         <v>75</v>
       </c>
@@ -1333,7 +1358,7 @@
       <c r="U5" s="21"/>
       <c r="V5" s="21"/>
     </row>
-    <row r="6" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A6" s="4" t="s">
         <v>63</v>
       </c>
@@ -1356,7 +1381,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
@@ -1365,7 +1390,7 @@
       <c r="U6" s="21"/>
       <c r="V6" s="21"/>
     </row>
-    <row r="7" spans="1:22" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" ht="14.85" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A7" s="4" t="s">
         <v>76</v>
       </c>
@@ -1397,7 +1422,7 @@
       <c r="U7" s="21"/>
       <c r="V7" s="21"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A8" s="4" t="s">
         <v>68</v>
       </c>
@@ -1419,7 +1444,9 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
+      <c r="P8" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="2" t="s">
         <v>101</v>
@@ -1429,7 +1456,7 @@
       <c r="U8" s="21"/>
       <c r="V8" s="21"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A9" s="4" t="s">
         <v>104</v>
       </c>
@@ -1449,7 +1476,9 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
+      <c r="P9" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2" t="s">
@@ -1459,7 +1488,7 @@
       <c r="U9" s="21"/>
       <c r="V9" s="21"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A10" s="4" t="s">
         <v>82</v>
       </c>
@@ -1479,7 +1508,9 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
+      <c r="P10" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
       <c r="S10" s="2" t="s">
@@ -1489,7 +1520,7 @@
       <c r="U10" s="21"/>
       <c r="V10" s="21"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A11" s="4" t="s">
         <v>74</v>
       </c>
@@ -1509,7 +1540,9 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
+      <c r="P11" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
       <c r="S11" s="2" t="s">
@@ -1519,7 +1552,7 @@
       <c r="U11" s="21"/>
       <c r="V11" s="21"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A12" s="4" t="s">
         <v>73</v>
       </c>
@@ -1549,7 +1582,7 @@
       <c r="U12" s="15"/>
       <c r="V12" s="15"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A13" s="4" t="s">
         <v>55</v>
       </c>
@@ -1576,7 +1609,7 @@
       <c r="U13" s="21"/>
       <c r="V13" s="21"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A14" s="4" t="s">
         <v>57</v>
       </c>
@@ -1600,7 +1633,7 @@
       <c r="U14" s="21"/>
       <c r="V14" s="21"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A15" s="4" t="s">
         <v>9</v>
       </c>
@@ -1622,7 +1655,7 @@
       <c r="U15" s="21"/>
       <c r="V15" s="21"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
@@ -1643,7 +1676,7 @@
       <c r="U16" s="21"/>
       <c r="V16" s="21"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A17" s="4" t="s">
         <v>10</v>
       </c>
@@ -1663,7 +1696,7 @@
       <c r="U17" s="21"/>
       <c r="V17" s="21"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A18" s="4" t="s">
         <v>60</v>
       </c>
@@ -1681,7 +1714,7 @@
       <c r="K18" s="24"/>
       <c r="L18" s="21"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A19" s="4" t="s">
         <v>61</v>
       </c>
@@ -1697,7 +1730,7 @@
       <c r="J19" s="24"/>
       <c r="K19" s="24"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A20" s="4" t="s">
         <v>58</v>
       </c>
@@ -1713,7 +1746,7 @@
       <c r="J20" s="24"/>
       <c r="K20" s="24"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A21" s="4" t="s">
         <v>8</v>
       </c>
@@ -1732,7 +1765,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A22" s="4" t="s">
         <v>26</v>
       </c>
@@ -1753,7 +1786,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A23" s="4" t="s">
         <v>56</v>
       </c>
@@ -1776,7 +1809,7 @@
       <c r="N23" s="19"/>
       <c r="O23" s="27"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A24" s="4" t="s">
         <v>54</v>
       </c>
@@ -1799,7 +1832,7 @@
       <c r="N24" s="26"/>
       <c r="O24" s="26"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A25" s="4" t="s">
         <v>47</v>
       </c>
@@ -1822,7 +1855,7 @@
       <c r="N25" s="26"/>
       <c r="O25" s="26"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A26" s="4" t="s">
         <v>48</v>
       </c>
@@ -1841,7 +1874,7 @@
       <c r="N26" s="26"/>
       <c r="O26" s="26"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A27" s="4" t="s">
         <v>49</v>
       </c>
@@ -1862,7 +1895,7 @@
       <c r="N27" s="26"/>
       <c r="O27" s="26"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A28" s="4" t="s">
         <v>19</v>
       </c>
@@ -1885,7 +1918,7 @@
       <c r="N28" s="26"/>
       <c r="O28" s="26"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A29" s="4" t="s">
         <v>12</v>
       </c>
@@ -1908,7 +1941,7 @@
       <c r="N29" s="26"/>
       <c r="O29" s="26"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A30" s="4" t="s">
         <v>7</v>
       </c>
@@ -1931,7 +1964,7 @@
       <c r="N30" s="26"/>
       <c r="O30" s="26"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A31" s="4" t="s">
         <v>14</v>
       </c>
@@ -1954,7 +1987,7 @@
       <c r="N31" s="26"/>
       <c r="O31" s="26"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A32" s="4" t="s">
         <v>46</v>
       </c>
@@ -1977,7 +2010,7 @@
       <c r="N32" s="26"/>
       <c r="O32" s="26"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A33" s="4" t="s">
         <v>34</v>
       </c>
@@ -1998,7 +2031,7 @@
       <c r="N33" s="26"/>
       <c r="O33" s="26"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A34" s="4" t="s">
         <v>35</v>
       </c>
@@ -2019,7 +2052,7 @@
       <c r="N34" s="26"/>
       <c r="O34" s="26"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A35" s="4" t="s">
         <v>20</v>
       </c>
@@ -2042,7 +2075,7 @@
       <c r="N35" s="26"/>
       <c r="O35" s="26"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A36" s="4" t="s">
         <v>40</v>
       </c>
@@ -2067,7 +2100,7 @@
       <c r="N36" s="26"/>
       <c r="O36" s="26"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A37" s="4" t="s">
         <v>6</v>
       </c>
@@ -2087,7 +2120,7 @@
       <c r="J37" s="24"/>
       <c r="K37" s="24"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A38" s="4" t="s">
         <v>33</v>
       </c>
@@ -2113,7 +2146,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A39" s="4" t="s">
         <v>16</v>
       </c>
@@ -2138,7 +2171,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A40" s="4" t="s">
         <v>17</v>
       </c>
@@ -2165,7 +2198,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A41" s="4" t="s">
         <v>78</v>
       </c>
@@ -2182,10 +2215,14 @@
         <v>110</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A42" s="4"/>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A42" s="4" t="s">
+        <v>120</v>
+      </c>
       <c r="B42" s="4"/>
-      <c r="C42" s="5"/>
+      <c r="C42" s="5">
+        <v>45607</v>
+      </c>
       <c r="D42" s="5"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -2200,7 +2237,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="5"/>
@@ -2215,7 +2252,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="5"/>
@@ -2230,7 +2267,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="5"/>
@@ -2242,12 +2279,12 @@
       <c r="J45" s="24"/>
       <c r="K45" s="24"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.6">
       <c r="I46" s="24"/>
       <c r="J46" s="24"/>
       <c r="K46" s="24"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.6">
       <c r="I47" s="24"/>
       <c r="J47" s="24"/>
       <c r="K47" s="24"/>
@@ -2261,17 +2298,17 @@
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.6">
       <c r="I48" s="24"/>
       <c r="J48" s="24"/>
       <c r="K48" s="24"/>
     </row>
-    <row r="49" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="9:13" x14ac:dyDescent="0.6">
       <c r="I49" s="24"/>
       <c r="J49" s="24"/>
       <c r="K49" s="24"/>
     </row>
-    <row r="50" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="9:13" x14ac:dyDescent="0.6">
       <c r="M50" t="s">
         <v>72</v>
       </c>

--- a/works.xlsx
+++ b/works.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSAFY\Desktop\itgorae\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\OneDrive\Desktop\itgorae\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7044BCB8-1C1C-42BB-911B-B4E4B154F3C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23265" windowHeight="12465"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="118">
   <si>
     <t>제목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -406,50 +407,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>erd 1개 - nosql</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로젠 지원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포폴완성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">sql 1 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>알고리즘1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>깃미러</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한진 지원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오토에버지원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>교보재 신청 2차</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>git hub desktop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>java세팅(몽고디비, 레디스)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>한진</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -538,13 +495,25 @@
   </si>
   <si>
     <t>지원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">로젠 준비 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글로비스 자소서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로컬 프로젝트 수행</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -767,7 +736,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -813,31 +782,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1132,31 +1092,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="22.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.125" customWidth="1"/>
-    <col min="11" max="11" width="14.375" customWidth="1"/>
-    <col min="12" max="12" width="11.125" customWidth="1"/>
-    <col min="13" max="13" width="20.375" customWidth="1"/>
-    <col min="14" max="14" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="50.125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.125" customWidth="1"/>
+    <col min="1" max="1" width="22.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.09765625" customWidth="1"/>
+    <col min="11" max="11" width="14.3984375" customWidth="1"/>
+    <col min="12" max="12" width="11.09765625" customWidth="1"/>
+    <col min="13" max="13" width="20.3984375" customWidth="1"/>
+    <col min="14" max="14" width="16.8984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="50.09765625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.09765625" customWidth="1"/>
     <col min="17" max="17" width="28" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.375" customWidth="1"/>
-    <col min="19" max="19" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.3984375" customWidth="1"/>
+    <col min="19" max="19" width="18.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1179,12 +1139,12 @@
         <v>4</v>
       </c>
       <c r="H1" s="3"/>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="J1" s="19"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="21"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="19"/>
       <c r="M1" s="7" t="s">
         <v>27</v>
       </c>
@@ -1206,49 +1166,47 @@
       <c r="S1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-    </row>
-    <row r="2" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+    </row>
+    <row r="2" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="5">
-        <v>45606</v>
+        <v>45607</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="21"/>
+      <c r="I2" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="19"/>
       <c r="M2" s="2" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="13"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-    </row>
-    <row r="3" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
+        <v>115</v>
+      </c>
+      <c r="S2" s="2"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+    </row>
+    <row r="3" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="5">
@@ -1258,112 +1216,106 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="21"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="19"/>
       <c r="M3" s="2" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="O3" s="13"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
-    </row>
-    <row r="4" spans="1:22" ht="30" x14ac:dyDescent="0.6">
+      <c r="R3" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="S3" s="2"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
+    </row>
+    <row r="4" spans="1:22" ht="30" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="5">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="21"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="19"/>
       <c r="M4" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="O4" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="P4" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="N4" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="O4" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="Q4" s="2"/>
-      <c r="R4" s="2" t="s">
-        <v>96</v>
-      </c>
+      <c r="R4" s="2"/>
       <c r="S4" s="2"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="21"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.6">
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>108</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="B5" s="4"/>
       <c r="C5" s="5">
-        <v>45595</v>
+        <v>45600</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="19"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="S5" s="2"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+    </row>
+    <row r="6" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="T5" s="21"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="21"/>
-    </row>
-    <row r="6" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A6" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="C6" s="5">
         <v>45595</v>
@@ -1373,29 +1325,29 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="19"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
-    </row>
-    <row r="7" spans="1:22" ht="14.85" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+    </row>
+    <row r="7" spans="1:22" ht="14.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="C7" s="5">
         <v>45595</v>
@@ -1405,29 +1357,27 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="19"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
-      <c r="R7" s="2" t="s">
-        <v>98</v>
-      </c>
+      <c r="R7" s="2"/>
       <c r="S7" s="2"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="21"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.6">
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>67</v>
+        <v>76</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="C8" s="5">
         <v>45595</v>
@@ -1437,62 +1387,60 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="19"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="Q8" s="2"/>
-      <c r="R8" s="2" t="s">
-        <v>101</v>
-      </c>
+      <c r="R8" s="2"/>
       <c r="S8" s="2"/>
-      <c r="T8" s="21"/>
-      <c r="U8" s="21"/>
-      <c r="V8" s="21"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.6">
+      <c r="T8" s="19"/>
+      <c r="U8" s="19"/>
+      <c r="V8" s="19"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B9" s="14"/>
+        <v>68</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>67</v>
+      </c>
       <c r="C9" s="5">
-        <v>45593</v>
+        <v>45595</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="21"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="19"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
-      <c r="S9" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="T9" s="21"/>
-      <c r="U9" s="21"/>
-      <c r="V9" s="21"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.6">
+      <c r="S9" s="2"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B10" s="4"/>
+        <v>93</v>
+      </c>
+      <c r="B10" s="14"/>
       <c r="C10" s="5">
         <v>45593</v>
       </c>
@@ -1501,76 +1449,70 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="19"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
-      <c r="S10" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="T10" s="21"/>
-      <c r="U10" s="21"/>
-      <c r="V10" s="21"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.6">
+      <c r="S10" s="2"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="5">
-        <v>45592</v>
+        <v>45593</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="19"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
-      <c r="S11" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="T11" s="21"/>
-      <c r="U11" s="21"/>
-      <c r="V11" s="21"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.6">
+      <c r="S11" s="2"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A12" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>84</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="B12" s="4"/>
       <c r="C12" s="5">
-        <v>45590</v>
+        <v>45592</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="21"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="19"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -1578,27 +1520,29 @@
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
-      <c r="T12" s="15"/>
-      <c r="U12" s="15"/>
-      <c r="V12" s="15"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.6">
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" s="4"/>
+        <v>73</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="C13" s="5">
-        <v>45569</v>
+        <v>45590</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="19"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -1606,12 +1550,12 @@
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
-      <c r="U13" s="21"/>
-      <c r="V13" s="21"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.6">
+      <c r="U13" s="19"/>
+      <c r="V13" s="19"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A14" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="5">
@@ -1622,20 +1566,20 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="19"/>
       <c r="M14" s="12"/>
       <c r="N14" s="12"/>
       <c r="O14" s="12"/>
       <c r="P14" s="12"/>
-      <c r="U14" s="21"/>
-      <c r="V14" s="21"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.6">
+      <c r="U14" s="19"/>
+      <c r="V14" s="19"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A15" s="4" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="5">
@@ -1646,18 +1590,18 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="19"/>
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
-      <c r="U15" s="21"/>
-      <c r="V15" s="21"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.6">
+      <c r="U15" s="19"/>
+      <c r="V15" s="19"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A16" s="4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="5">
@@ -1668,17 +1612,17 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="19"/>
       <c r="N16" s="12"/>
-      <c r="U16" s="21"/>
-      <c r="V16" s="21"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.6">
+      <c r="U16" s="19"/>
+      <c r="V16" s="19"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A17" s="4" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="5">
@@ -1689,16 +1633,16 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="21"/>
-      <c r="U17" s="21"/>
-      <c r="V17" s="21"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.6">
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="19"/>
+      <c r="U17" s="19"/>
+      <c r="V17" s="19"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A18" s="4" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="5">
@@ -1709,14 +1653,14 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="21"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.6">
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="19"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A19" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="5">
@@ -1726,95 +1670,93 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.6">
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A20" s="4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="5">
-        <v>45566</v>
+        <v>45569</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.6">
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A21" s="4" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="5">
-        <v>45564</v>
+        <v>45566</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
       <c r="M21" s="11" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="22" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>45</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B22" s="4"/>
       <c r="C22" s="5">
-        <v>45562</v>
+        <v>45564</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
       <c r="M22" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="23" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="4" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C23" s="5">
-        <v>45560</v>
+        <v>45562</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="M23" s="18" t="s">
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="M23" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="N23" s="19"/>
-      <c r="O23" s="27"/>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.6">
+      <c r="N23" s="17"/>
+      <c r="O23" s="24"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A24" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C24" s="5">
         <v>45560</v>
@@ -1823,130 +1765,128 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="M24" s="25" t="s">
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="M24" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="N24" s="26"/>
-      <c r="O24" s="26"/>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.6">
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A25" s="4" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C25" s="5">
-        <v>45558</v>
+        <v>45560</v>
       </c>
       <c r="D25" s="5"/>
-      <c r="E25" s="2" t="s">
-        <v>38</v>
-      </c>
+      <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="26"/>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.6">
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="23"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A26" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" s="4"/>
+        <v>47</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="C26" s="5">
         <v>45558</v>
       </c>
       <c r="D26" s="5"/>
-      <c r="E26" s="2"/>
+      <c r="E26" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="26"/>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.6">
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A27" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="5">
-        <v>45554</v>
+        <v>45558</v>
       </c>
       <c r="D27" s="5"/>
-      <c r="E27" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="26"/>
-      <c r="O27" s="26"/>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.6">
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A28" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>43</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="B28" s="4"/>
       <c r="C28" s="5">
         <v>45554</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="M28" s="26"/>
-      <c r="N28" s="26"/>
-      <c r="O28" s="26"/>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.6">
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A29" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>30</v>
+        <v>19</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="C29" s="5">
         <v>45554</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="2" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
-      <c r="M29" s="26"/>
-      <c r="N29" s="26"/>
-      <c r="O29" s="26"/>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.6">
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="23"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A30" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C30" s="5">
         <v>45554</v>
@@ -1957,19 +1897,19 @@
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
-      <c r="M30" s="26"/>
-      <c r="N30" s="26"/>
-      <c r="O30" s="26"/>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.6">
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="23"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A31" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C31" s="5">
         <v>45554</v>
@@ -1980,19 +1920,19 @@
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="M31" s="26"/>
-      <c r="N31" s="26"/>
-      <c r="O31" s="26"/>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.6">
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="23"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A32" s="4" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C32" s="5">
         <v>45554</v>
@@ -2003,18 +1943,20 @@
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
-      <c r="M32" s="26"/>
-      <c r="N32" s="26"/>
-      <c r="O32" s="26"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="23"/>
+      <c r="O32" s="23"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A33" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" s="4"/>
+        <v>46</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="C33" s="5">
         <v>45554</v>
       </c>
@@ -2024,16 +1966,16 @@
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="24"/>
-      <c r="M33" s="26"/>
-      <c r="N33" s="26"/>
-      <c r="O33" s="26"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="23"/>
+      <c r="O33" s="23"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A34" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="5">
@@ -2045,100 +1987,98 @@
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
-      <c r="M34" s="26"/>
-      <c r="N34" s="26"/>
-      <c r="O34" s="26"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="23"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A35" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B35" s="4"/>
       <c r="C35" s="5">
-        <v>45553</v>
+        <v>45554</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="24"/>
-      <c r="M35" s="26"/>
-      <c r="N35" s="26"/>
-      <c r="O35" s="26"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="M35" s="23"/>
+      <c r="N35" s="23"/>
+      <c r="O35" s="23"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A36" s="4" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C36" s="5">
         <v>45553</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>50</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="F36" s="2"/>
       <c r="G36" s="2"/>
-      <c r="I36" s="24"/>
-      <c r="J36" s="24"/>
-      <c r="K36" s="24"/>
-      <c r="M36" s="26"/>
-      <c r="N36" s="26"/>
-      <c r="O36" s="26"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
+      <c r="M36" s="23"/>
+      <c r="N36" s="23"/>
+      <c r="O36" s="23"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A37" s="4" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C37" s="5">
-        <v>45549</v>
+        <v>45553</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F37" s="2"/>
+      <c r="F37" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="G37" s="2"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="24"/>
-      <c r="K37" s="24"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A38" s="4" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C38" s="5">
-        <v>45546</v>
+        <v>45549</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="2" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="24"/>
-      <c r="K38" s="24"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="21"/>
       <c r="M38" t="s">
         <v>69</v>
       </c>
@@ -2146,37 +2086,35 @@
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A39" s="4" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C39" s="5">
-        <v>45545</v>
+        <v>45546</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>50</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="F39" s="2"/>
       <c r="G39" s="2"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
       <c r="M39" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.6">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A40" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C40" s="5">
         <v>45545</v>
@@ -2186,50 +2124,56 @@
         <v>39</v>
       </c>
       <c r="F40" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G40" s="2"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="21"/>
+      <c r="M40" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A41" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="5">
+        <v>45545</v>
+      </c>
+      <c r="D41" s="5"/>
+      <c r="E41" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="G41" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I40" s="24"/>
-      <c r="J40" s="24"/>
-      <c r="K40" s="24"/>
-      <c r="M40" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A41" s="4" t="s">
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
+      <c r="M41" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A42" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="I41" s="24"/>
-      <c r="J41" s="24"/>
-      <c r="K41" s="24"/>
-      <c r="M41" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A42" s="4" t="s">
-        <v>120</v>
-      </c>
       <c r="B42" s="4"/>
-      <c r="C42" s="5">
-        <v>45607</v>
-      </c>
+      <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
-      <c r="I42" s="24"/>
-      <c r="J42" s="24"/>
-      <c r="K42" s="24"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="21"/>
       <c r="M42" t="s">
         <v>90</v>
       </c>
@@ -2237,7 +2181,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="5"/>
@@ -2245,14 +2189,14 @@
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
-      <c r="I43" s="24"/>
-      <c r="J43" s="24"/>
-      <c r="K43" s="24"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
       <c r="M43" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="5"/>
@@ -2260,14 +2204,14 @@
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
-      <c r="I44" s="24"/>
-      <c r="J44" s="24"/>
-      <c r="K44" s="24"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="21"/>
       <c r="M44" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="5"/>
@@ -2275,19 +2219,19 @@
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
-      <c r="I45" s="24"/>
-      <c r="J45" s="24"/>
-      <c r="K45" s="24"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="I46" s="24"/>
-      <c r="J46" s="24"/>
-      <c r="K46" s="24"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="I47" s="24"/>
-      <c r="J47" s="24"/>
-      <c r="K47" s="24"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="21"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="I46" s="21"/>
+      <c r="J46" s="21"/>
+      <c r="K46" s="21"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="I47" s="21"/>
+      <c r="J47" s="21"/>
+      <c r="K47" s="21"/>
       <c r="M47" t="s">
         <v>80</v>
       </c>
@@ -2298,24 +2242,24 @@
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="I48" s="24"/>
-      <c r="J48" s="24"/>
-      <c r="K48" s="24"/>
-    </row>
-    <row r="49" spans="9:13" x14ac:dyDescent="0.6">
-      <c r="I49" s="24"/>
-      <c r="J49" s="24"/>
-      <c r="K49" s="24"/>
-    </row>
-    <row r="50" spans="9:13" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="I48" s="21"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="21"/>
+    </row>
+    <row r="49" spans="9:13" x14ac:dyDescent="0.4">
+      <c r="I49" s="21"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="21"/>
+    </row>
+    <row r="50" spans="9:13" x14ac:dyDescent="0.4">
       <c r="M50" t="s">
         <v>72</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G22">
-    <sortState ref="A2:G41">
+  <autoFilter ref="A1:G22" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G42">
       <sortCondition descending="1" ref="C1:C22"/>
     </sortState>
   </autoFilter>
@@ -2330,9 +2274,9 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="M22" r:id="rId1"/>
-    <hyperlink ref="M21" r:id="rId2"/>
-    <hyperlink ref="B8" r:id="rId3"/>
+    <hyperlink ref="M22" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="M21" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B9" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>

--- a/works.xlsx
+++ b/works.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\OneDrive\Desktop\itgorae\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7044BCB8-1C1C-42BB-911B-B4E4B154F3C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="121">
   <si>
     <t>제목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -509,11 +503,23 @@
     <t>로컬 프로젝트 수행</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>기장수선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글로비스 자소서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로컬프로젝트 수행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1085,38 +1091,38 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.8984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.09765625" customWidth="1"/>
-    <col min="11" max="11" width="14.3984375" customWidth="1"/>
-    <col min="12" max="12" width="11.09765625" customWidth="1"/>
-    <col min="13" max="13" width="20.3984375" customWidth="1"/>
-    <col min="14" max="14" width="16.8984375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="50.09765625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.09765625" customWidth="1"/>
+    <col min="1" max="1" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.125" customWidth="1"/>
+    <col min="11" max="11" width="14.375" customWidth="1"/>
+    <col min="12" max="12" width="11.125" customWidth="1"/>
+    <col min="13" max="13" width="20.375" customWidth="1"/>
+    <col min="14" max="14" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="50.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.125" customWidth="1"/>
     <col min="17" max="17" width="28" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.3984375" customWidth="1"/>
-    <col min="19" max="19" width="18.8984375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.375" customWidth="1"/>
+    <col min="19" max="19" width="18.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1170,7 +1176,7 @@
       <c r="U1" s="19"/>
       <c r="V1" s="19"/>
     </row>
-    <row r="2" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>109</v>
       </c>
@@ -1204,7 +1210,7 @@
       <c r="U2" s="19"/>
       <c r="V2" s="19"/>
     </row>
-    <row r="3" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>79</v>
       </c>
@@ -1233,12 +1239,14 @@
       <c r="R3" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="S3" s="2"/>
+      <c r="S3" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="T3" s="19"/>
       <c r="U3" s="19"/>
       <c r="V3" s="19"/>
     </row>
-    <row r="4" spans="1:22" ht="30" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:22" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>91</v>
       </c>
@@ -1269,12 +1277,14 @@
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
+      <c r="S4" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="T4" s="19"/>
       <c r="U4" s="19"/>
       <c r="V4" s="19"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>92</v>
       </c>
@@ -1305,12 +1315,14 @@
       <c r="R5" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="S5" s="2"/>
+      <c r="S5" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="T5" s="19"/>
       <c r="U5" s="19"/>
       <c r="V5" s="19"/>
     </row>
-    <row r="6" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>75</v>
       </c>
@@ -1342,7 +1354,7 @@
       <c r="U6" s="19"/>
       <c r="V6" s="19"/>
     </row>
-    <row r="7" spans="1:22" ht="14.85" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:22" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>63</v>
       </c>
@@ -1372,7 +1384,7 @@
       <c r="U7" s="19"/>
       <c r="V7" s="19"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>76</v>
       </c>
@@ -1404,7 +1416,7 @@
       <c r="U8" s="19"/>
       <c r="V8" s="19"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>68</v>
       </c>
@@ -1436,7 +1448,7 @@
       <c r="U9" s="19"/>
       <c r="V9" s="19"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>93</v>
       </c>
@@ -1466,7 +1478,7 @@
       <c r="U10" s="19"/>
       <c r="V10" s="19"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>82</v>
       </c>
@@ -1496,7 +1508,7 @@
       <c r="U11" s="19"/>
       <c r="V11" s="19"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>74</v>
       </c>
@@ -1524,7 +1536,7 @@
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>73</v>
       </c>
@@ -1553,7 +1565,7 @@
       <c r="U13" s="19"/>
       <c r="V13" s="19"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>55</v>
       </c>
@@ -1577,7 +1589,7 @@
       <c r="U14" s="19"/>
       <c r="V14" s="19"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>57</v>
       </c>
@@ -1599,7 +1611,7 @@
       <c r="U15" s="19"/>
       <c r="V15" s="19"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>9</v>
       </c>
@@ -1620,7 +1632,7 @@
       <c r="U16" s="19"/>
       <c r="V16" s="19"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>18</v>
       </c>
@@ -1640,7 +1652,7 @@
       <c r="U17" s="19"/>
       <c r="V17" s="19"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
@@ -1658,7 +1670,7 @@
       <c r="K18" s="21"/>
       <c r="L18" s="19"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>60</v>
       </c>
@@ -1674,7 +1686,7 @@
       <c r="J19" s="21"/>
       <c r="K19" s="21"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>61</v>
       </c>
@@ -1690,7 +1702,7 @@
       <c r="J20" s="21"/>
       <c r="K20" s="21"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>58</v>
       </c>
@@ -1709,7 +1721,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>8</v>
       </c>
@@ -1728,7 +1740,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>26</v>
       </c>
@@ -1751,7 +1763,7 @@
       <c r="N23" s="17"/>
       <c r="O23" s="24"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>56</v>
       </c>
@@ -1774,7 +1786,7 @@
       <c r="N24" s="23"/>
       <c r="O24" s="23"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>54</v>
       </c>
@@ -1795,7 +1807,7 @@
       <c r="N25" s="23"/>
       <c r="O25" s="23"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>47</v>
       </c>
@@ -1818,7 +1830,7 @@
       <c r="N26" s="23"/>
       <c r="O26" s="23"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>48</v>
       </c>
@@ -1837,7 +1849,7 @@
       <c r="N27" s="23"/>
       <c r="O27" s="23"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>49</v>
       </c>
@@ -1858,7 +1870,7 @@
       <c r="N28" s="23"/>
       <c r="O28" s="23"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>19</v>
       </c>
@@ -1881,7 +1893,7 @@
       <c r="N29" s="23"/>
       <c r="O29" s="23"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>12</v>
       </c>
@@ -1904,7 +1916,7 @@
       <c r="N30" s="23"/>
       <c r="O30" s="23"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>7</v>
       </c>
@@ -1927,7 +1939,7 @@
       <c r="N31" s="23"/>
       <c r="O31" s="23"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>14</v>
       </c>
@@ -1950,7 +1962,7 @@
       <c r="N32" s="23"/>
       <c r="O32" s="23"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>46</v>
       </c>
@@ -1973,7 +1985,7 @@
       <c r="N33" s="23"/>
       <c r="O33" s="23"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>34</v>
       </c>
@@ -1994,7 +2006,7 @@
       <c r="N34" s="23"/>
       <c r="O34" s="23"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>35</v>
       </c>
@@ -2015,7 +2027,7 @@
       <c r="N35" s="23"/>
       <c r="O35" s="23"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>20</v>
       </c>
@@ -2038,7 +2050,7 @@
       <c r="N36" s="23"/>
       <c r="O36" s="23"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>40</v>
       </c>
@@ -2060,7 +2072,7 @@
       <c r="J37" s="21"/>
       <c r="K37" s="21"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>6</v>
       </c>
@@ -2086,7 +2098,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>33</v>
       </c>
@@ -2109,7 +2121,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>16</v>
       </c>
@@ -2134,7 +2146,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>17</v>
       </c>
@@ -2161,7 +2173,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>78</v>
       </c>
@@ -2181,7 +2193,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="5"/>
@@ -2196,7 +2208,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="5"/>
@@ -2211,7 +2223,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="5"/>
@@ -2223,12 +2235,12 @@
       <c r="J45" s="21"/>
       <c r="K45" s="21"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="I46" s="21"/>
       <c r="J46" s="21"/>
       <c r="K46" s="21"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="I47" s="21"/>
       <c r="J47" s="21"/>
       <c r="K47" s="21"/>
@@ -2242,24 +2254,24 @@
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="I48" s="21"/>
       <c r="J48" s="21"/>
       <c r="K48" s="21"/>
     </row>
-    <row r="49" spans="9:13" x14ac:dyDescent="0.4">
+    <row r="49" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I49" s="21"/>
       <c r="J49" s="21"/>
       <c r="K49" s="21"/>
     </row>
-    <row r="50" spans="9:13" x14ac:dyDescent="0.4">
+    <row r="50" spans="9:13" x14ac:dyDescent="0.3">
       <c r="M50" t="s">
         <v>72</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G22" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G42">
+  <autoFilter ref="A1:G22">
+    <sortState ref="A2:G42">
       <sortCondition descending="1" ref="C1:C22"/>
     </sortState>
   </autoFilter>
@@ -2274,9 +2286,9 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="M22" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="M21" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B9" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="M22" r:id="rId1"/>
+    <hyperlink ref="M21" r:id="rId2"/>
+    <hyperlink ref="B9" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>

--- a/works.xlsx
+++ b/works.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\OneDrive\Desktop\itgorae\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F44B42E-69C7-4DB7-9C4B-C180EB1DE777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
+    <workbookView xWindow="4620" yWindow="1044" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -519,7 +525,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1091,38 +1097,38 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="22.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.125" customWidth="1"/>
-    <col min="11" max="11" width="14.375" customWidth="1"/>
-    <col min="12" max="12" width="11.125" customWidth="1"/>
-    <col min="13" max="13" width="20.375" customWidth="1"/>
-    <col min="14" max="14" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="50.125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.125" customWidth="1"/>
+    <col min="1" max="1" width="22.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.09765625" customWidth="1"/>
+    <col min="11" max="11" width="14.3984375" customWidth="1"/>
+    <col min="12" max="12" width="11.09765625" customWidth="1"/>
+    <col min="13" max="13" width="20.3984375" customWidth="1"/>
+    <col min="14" max="14" width="16.8984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="50.09765625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.09765625" customWidth="1"/>
     <col min="17" max="17" width="28" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.375" customWidth="1"/>
-    <col min="19" max="19" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.3984375" customWidth="1"/>
+    <col min="19" max="19" width="18.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1176,7 +1182,7 @@
       <c r="U1" s="19"/>
       <c r="V1" s="19"/>
     </row>
-    <row r="2" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>109</v>
       </c>
@@ -1210,7 +1216,7 @@
       <c r="U2" s="19"/>
       <c r="V2" s="19"/>
     </row>
-    <row r="3" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>79</v>
       </c>
@@ -1246,7 +1252,7 @@
       <c r="U3" s="19"/>
       <c r="V3" s="19"/>
     </row>
-    <row r="4" spans="1:22" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="30" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
         <v>91</v>
       </c>
@@ -1284,7 +1290,7 @@
       <c r="U4" s="19"/>
       <c r="V4" s="19"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
         <v>92</v>
       </c>
@@ -1322,7 +1328,7 @@
       <c r="U5" s="19"/>
       <c r="V5" s="19"/>
     </row>
-    <row r="6" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
         <v>75</v>
       </c>
@@ -1354,7 +1360,7 @@
       <c r="U6" s="19"/>
       <c r="V6" s="19"/>
     </row>
-    <row r="7" spans="1:22" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" ht="14.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
         <v>63</v>
       </c>
@@ -1384,7 +1390,7 @@
       <c r="U7" s="19"/>
       <c r="V7" s="19"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
         <v>76</v>
       </c>
@@ -1416,7 +1422,7 @@
       <c r="U8" s="19"/>
       <c r="V8" s="19"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
         <v>68</v>
       </c>
@@ -1448,7 +1454,7 @@
       <c r="U9" s="19"/>
       <c r="V9" s="19"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
         <v>93</v>
       </c>
@@ -1478,7 +1484,7 @@
       <c r="U10" s="19"/>
       <c r="V10" s="19"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
         <v>82</v>
       </c>
@@ -1508,7 +1514,7 @@
       <c r="U11" s="19"/>
       <c r="V11" s="19"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A12" s="4" t="s">
         <v>74</v>
       </c>
@@ -1536,7 +1542,7 @@
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
         <v>73</v>
       </c>
@@ -1565,7 +1571,7 @@
       <c r="U13" s="19"/>
       <c r="V13" s="19"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A14" s="4" t="s">
         <v>55</v>
       </c>
@@ -1589,7 +1595,7 @@
       <c r="U14" s="19"/>
       <c r="V14" s="19"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A15" s="4" t="s">
         <v>57</v>
       </c>
@@ -1611,7 +1617,7 @@
       <c r="U15" s="19"/>
       <c r="V15" s="19"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A16" s="4" t="s">
         <v>9</v>
       </c>
@@ -1632,7 +1638,7 @@
       <c r="U16" s="19"/>
       <c r="V16" s="19"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A17" s="4" t="s">
         <v>18</v>
       </c>
@@ -1652,7 +1658,7 @@
       <c r="U17" s="19"/>
       <c r="V17" s="19"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
@@ -1670,7 +1676,7 @@
       <c r="K18" s="21"/>
       <c r="L18" s="19"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A19" s="4" t="s">
         <v>60</v>
       </c>
@@ -1686,7 +1692,7 @@
       <c r="J19" s="21"/>
       <c r="K19" s="21"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A20" s="4" t="s">
         <v>61</v>
       </c>
@@ -1702,7 +1708,7 @@
       <c r="J20" s="21"/>
       <c r="K20" s="21"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A21" s="4" t="s">
         <v>58</v>
       </c>
@@ -1721,7 +1727,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="4" t="s">
         <v>8</v>
       </c>
@@ -1740,7 +1746,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="4" t="s">
         <v>26</v>
       </c>
@@ -1763,7 +1769,7 @@
       <c r="N23" s="17"/>
       <c r="O23" s="24"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A24" s="4" t="s">
         <v>56</v>
       </c>
@@ -1786,7 +1792,7 @@
       <c r="N24" s="23"/>
       <c r="O24" s="23"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A25" s="4" t="s">
         <v>54</v>
       </c>
@@ -1807,7 +1813,7 @@
       <c r="N25" s="23"/>
       <c r="O25" s="23"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A26" s="4" t="s">
         <v>47</v>
       </c>
@@ -1830,7 +1836,7 @@
       <c r="N26" s="23"/>
       <c r="O26" s="23"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A27" s="4" t="s">
         <v>48</v>
       </c>
@@ -1849,7 +1855,7 @@
       <c r="N27" s="23"/>
       <c r="O27" s="23"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A28" s="4" t="s">
         <v>49</v>
       </c>
@@ -1870,7 +1876,7 @@
       <c r="N28" s="23"/>
       <c r="O28" s="23"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A29" s="4" t="s">
         <v>19</v>
       </c>
@@ -1893,7 +1899,7 @@
       <c r="N29" s="23"/>
       <c r="O29" s="23"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A30" s="4" t="s">
         <v>12</v>
       </c>
@@ -1916,7 +1922,7 @@
       <c r="N30" s="23"/>
       <c r="O30" s="23"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A31" s="4" t="s">
         <v>7</v>
       </c>
@@ -1939,7 +1945,7 @@
       <c r="N31" s="23"/>
       <c r="O31" s="23"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A32" s="4" t="s">
         <v>14</v>
       </c>
@@ -1962,7 +1968,7 @@
       <c r="N32" s="23"/>
       <c r="O32" s="23"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A33" s="4" t="s">
         <v>46</v>
       </c>
@@ -1985,7 +1991,7 @@
       <c r="N33" s="23"/>
       <c r="O33" s="23"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A34" s="4" t="s">
         <v>34</v>
       </c>
@@ -2006,7 +2012,7 @@
       <c r="N34" s="23"/>
       <c r="O34" s="23"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A35" s="4" t="s">
         <v>35</v>
       </c>
@@ -2027,7 +2033,7 @@
       <c r="N35" s="23"/>
       <c r="O35" s="23"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A36" s="4" t="s">
         <v>20</v>
       </c>
@@ -2050,7 +2056,7 @@
       <c r="N36" s="23"/>
       <c r="O36" s="23"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A37" s="4" t="s">
         <v>40</v>
       </c>
@@ -2072,7 +2078,7 @@
       <c r="J37" s="21"/>
       <c r="K37" s="21"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A38" s="4" t="s">
         <v>6</v>
       </c>
@@ -2098,7 +2104,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A39" s="4" t="s">
         <v>33</v>
       </c>
@@ -2121,7 +2127,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A40" s="4" t="s">
         <v>16</v>
       </c>
@@ -2146,7 +2152,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A41" s="4" t="s">
         <v>17</v>
       </c>
@@ -2173,7 +2179,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A42" s="4" t="s">
         <v>78</v>
       </c>
@@ -2193,7 +2199,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="5"/>
@@ -2208,7 +2214,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="5"/>
@@ -2223,7 +2229,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="5"/>
@@ -2235,12 +2241,12 @@
       <c r="J45" s="21"/>
       <c r="K45" s="21"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.4">
       <c r="I46" s="21"/>
       <c r="J46" s="21"/>
       <c r="K46" s="21"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.4">
       <c r="I47" s="21"/>
       <c r="J47" s="21"/>
       <c r="K47" s="21"/>
@@ -2254,24 +2260,24 @@
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.4">
       <c r="I48" s="21"/>
       <c r="J48" s="21"/>
       <c r="K48" s="21"/>
     </row>
-    <row r="49" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="9:13" x14ac:dyDescent="0.4">
       <c r="I49" s="21"/>
       <c r="J49" s="21"/>
       <c r="K49" s="21"/>
     </row>
-    <row r="50" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="9:13" x14ac:dyDescent="0.4">
       <c r="M50" t="s">
         <v>72</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G22">
-    <sortState ref="A2:G42">
+  <autoFilter ref="A1:G22" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G42">
       <sortCondition descending="1" ref="C1:C22"/>
     </sortState>
   </autoFilter>
@@ -2286,9 +2292,9 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="M22" r:id="rId1"/>
-    <hyperlink ref="M21" r:id="rId2"/>
-    <hyperlink ref="B9" r:id="rId3"/>
+    <hyperlink ref="M22" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="M21" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B9" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>

--- a/works.xlsx
+++ b/works.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\OneDrive\Desktop\itgorae\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSAFY\Desktop\itgorae\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F44B42E-69C7-4DB7-9C4B-C180EB1DE777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4620" yWindow="1044" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4620" yWindow="1043" windowWidth="17280" windowHeight="8880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="131">
   <si>
     <t>제목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -329,10 +328,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>자이언트네트워크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>인커스소프트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -342,10 +337,6 @@
   </si>
   <si>
     <t>삼성전자로지텍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SAP (SYNC)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -399,27 +390,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>태웅로직스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>다우기술</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>한진</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한진</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>softeer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">자바 프로젝트 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -474,10 +449,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lgcns</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>엘지지원</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -519,13 +490,81 @@
   </si>
   <si>
     <t>로컬프로젝트 수행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 두개이상 넣는 서비스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모니터링 시스템(토큰)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태웅로직스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>케이와이씨지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.saramin.co.kr/zf_user/jobs/relay/view?isMypage=no&amp;rec_idx=49315357&amp;recommend_ids=eJxVjrsVxEAIA6txDkj84ivE%2FXfhdeBlL5w3koANyYTfpXrlj41wut4t9mKx2RbbqmiHDaYLcHaDstHQVnlYlsa33JZF1GeLyx5hM9OasHAdrpnS%2FPvKfX0yXSkRbhQFfMJY9kQG4kCvzJ6pCIa%2B%2BABk8EBJ&amp;view_type=search&amp;searchword=%EB%AC%BC%EB%A5%98&amp;searchType=search&amp;gz=1&amp;t_ref_content=generic&amp;t_ref=search&amp;relayNonce=4f804aadac091d227fec&amp;paid_fl=n&amp;search_uuid=6aef12b9-21fc-4042-bc91-527468865f75&amp;immediately_apply_layer_open=n#seq=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.saramin.co.kr/zf_user/jobs/relay/view?isMypage=no&amp;rec_idx=49300078&amp;recommend_ids=eJxVj8kRw0AIBKPxf4BZGN4ORPlnYR0lYT17e%2BkCtnm1YZPhU192mEDbGn6iI0u%2BW7ssqmLdKCalGusJ54NOrFc5Yy%2Ff1gpcfKwpVYfNC2Gd%2Fve5Q5NyeTHHNm3lpABVzxoRr9lQ0ueE3p8mhZAWZrbE0IE%2FQ2RAKA%3D%3D&amp;view_type=list&amp;gz=1&amp;t_ref_content=ing_recruit&amp;t_ref=company_info_view&amp;relayNonce=0cc7dd32273bc016ca3b&amp;immediately_apply_layer_open=n#seq=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿠팡풀필먼트 센터 양산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿠팡풀필먼트 센터 동탄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿠팡로지스틱스 정산데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.jobkorea.co.kr/Recruit/GI_Read/45882541?Oem_Code=C1&amp;logpath=1&amp;stext=%EC%BF%A0%ED%8C%A1%20%EB%8D%B0%EC%9D%B4%ED%84%B0&amp;listno=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿠팡 물류데이터 운영담당자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.jobkorea.co.kr/Recruit/GI_Read/45867299?Oem_Code=C1&amp;logpath=1&amp;stext=%EC%BF%A0%ED%8C%A1%20%EB%8D%B0%EC%9D%B4%ED%84%B0&amp;listno=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAP (SYNC)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자이언트네트워크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.jobkorea.co.kr/Recruit/GI_Read/45762815?PageGbn=MST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.saramin.co.kr/zf_user/jobs/relay/view?isMypage=no&amp;rec_idx=49198381&amp;recommend_ids=eJxNj8ENAzEIBKvJn4WFhXcKSf9dxLlItp8jDaOFPWTKPg289OaESZEbfZhWC%2BtBuAY%2F2f4yKoiN1qRio7N133a1cMrtYm0ZQ%2BTBsBHqmuHy2QgZk0eu1T7lNele5RHRZzOozOvB6KKfsmHKr1S1PeUvYUdALw%3D%3D&amp;view_type=list&amp;gz=1&amp;t_ref_content=ing_recruit&amp;t_ref=company_info_view&amp;relayNonce=9926b91b9f63bb87819c&amp;immediately_apply_layer_open=n#seq=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>true 만 조회</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1104,31 +1143,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="22.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.8984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.09765625" customWidth="1"/>
-    <col min="11" max="11" width="14.3984375" customWidth="1"/>
-    <col min="12" max="12" width="11.09765625" customWidth="1"/>
-    <col min="13" max="13" width="20.3984375" customWidth="1"/>
-    <col min="14" max="14" width="16.8984375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="50.09765625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.09765625" customWidth="1"/>
+    <col min="1" max="1" width="22.1875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.125" customWidth="1"/>
+    <col min="11" max="11" width="14.375" customWidth="1"/>
+    <col min="12" max="12" width="11.125" customWidth="1"/>
+    <col min="13" max="13" width="22.125" customWidth="1"/>
+    <col min="14" max="14" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="50.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.125" customWidth="1"/>
     <col min="17" max="17" width="28" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.3984375" customWidth="1"/>
-    <col min="19" max="19" width="18.8984375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.375" customWidth="1"/>
+    <col min="19" max="19" width="18.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1139,7 +1178,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -1182,13 +1221,15 @@
       <c r="U1" s="19"/>
       <c r="V1" s="19"/>
     </row>
-    <row r="2" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A2" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B2" s="4"/>
+        <v>120</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>119</v>
+      </c>
       <c r="C2" s="5">
-        <v>45607</v>
+        <v>45609</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="2"/>
@@ -1196,33 +1237,33 @@
       <c r="G2" s="2"/>
       <c r="H2" s="3"/>
       <c r="I2" s="20" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J2" s="20"/>
       <c r="K2" s="20"/>
       <c r="L2" s="19"/>
-      <c r="M2" s="2" t="s">
-        <v>94</v>
-      </c>
+      <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="13"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="S2" s="2"/>
       <c r="T2" s="19"/>
       <c r="U2" s="19"/>
       <c r="V2" s="19"/>
     </row>
-    <row r="3" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A3" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" s="4"/>
+        <v>121</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>129</v>
+      </c>
       <c r="C3" s="5">
-        <v>45606</v>
+        <v>45609</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="2"/>
@@ -1233,32 +1274,32 @@
       <c r="J3" s="21"/>
       <c r="K3" s="21"/>
       <c r="L3" s="19"/>
-      <c r="M3" s="2" t="s">
-        <v>95</v>
-      </c>
+      <c r="M3" s="2"/>
       <c r="N3" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="O3" s="13"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="T3" s="19"/>
       <c r="U3" s="19"/>
       <c r="V3" s="19"/>
     </row>
-    <row r="4" spans="1:22" ht="30" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:22" ht="30" x14ac:dyDescent="0.6">
       <c r="A4" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B4" s="4"/>
+        <v>124</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>125</v>
+      </c>
       <c r="C4" s="5">
-        <v>45606</v>
+        <v>45608</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="2"/>
@@ -1269,34 +1310,34 @@
       <c r="J4" s="21"/>
       <c r="K4" s="21"/>
       <c r="L4" s="19"/>
-      <c r="M4" s="2" t="s">
-        <v>96</v>
-      </c>
+      <c r="M4" s="2"/>
       <c r="N4" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="O4" s="15" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
       <c r="S4" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="T4" s="19"/>
       <c r="U4" s="19"/>
       <c r="V4" s="19"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A5" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B5" s="4"/>
+        <v>122</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>123</v>
+      </c>
       <c r="C5" s="5">
-        <v>45600</v>
+        <v>45607</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="2"/>
@@ -1309,34 +1350,32 @@
       <c r="L5" s="19"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="T5" s="19"/>
       <c r="U5" s="19"/>
       <c r="V5" s="19"/>
     </row>
-    <row r="6" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A6" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>97</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="B6" s="4"/>
       <c r="C6" s="5">
-        <v>45595</v>
+        <v>45607</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="2"/>
@@ -1347,11 +1386,13 @@
       <c r="J6" s="21"/>
       <c r="K6" s="21"/>
       <c r="L6" s="19"/>
-      <c r="M6" s="2"/>
+      <c r="M6" s="2" t="s">
+        <v>115</v>
+      </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
@@ -1360,15 +1401,15 @@
       <c r="U6" s="19"/>
       <c r="V6" s="19"/>
     </row>
-    <row r="7" spans="1:22" ht="14.85" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:22" ht="14.85" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A7" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>97</v>
+      <c r="B7" s="14" t="s">
+        <v>128</v>
       </c>
       <c r="C7" s="5">
-        <v>45595</v>
+        <v>45607</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="2"/>
@@ -1379,7 +1420,9 @@
       <c r="J7" s="21"/>
       <c r="K7" s="21"/>
       <c r="L7" s="19"/>
-      <c r="M7" s="2"/>
+      <c r="M7" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -1390,15 +1433,15 @@
       <c r="U7" s="19"/>
       <c r="V7" s="19"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A8" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>77</v>
+        <v>117</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>118</v>
       </c>
       <c r="C8" s="5">
-        <v>45595</v>
+        <v>45607</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="2"/>
@@ -1409,11 +1452,13 @@
       <c r="J8" s="21"/>
       <c r="K8" s="21"/>
       <c r="L8" s="19"/>
-      <c r="M8" s="2"/>
+      <c r="M8" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
@@ -1422,15 +1467,13 @@
       <c r="U8" s="19"/>
       <c r="V8" s="19"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A9" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>67</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="B9" s="4"/>
       <c r="C9" s="5">
-        <v>45595</v>
+        <v>45600</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="2"/>
@@ -1445,7 +1488,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
@@ -1454,13 +1497,15 @@
       <c r="U9" s="19"/>
       <c r="V9" s="19"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A10" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B10" s="14"/>
+        <v>68</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>67</v>
+      </c>
       <c r="C10" s="5">
-        <v>45593</v>
+        <v>45595</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="2"/>
@@ -1475,7 +1520,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
@@ -1484,11 +1529,11 @@
       <c r="U10" s="19"/>
       <c r="V10" s="19"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A11" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B11" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="B11" s="14"/>
       <c r="C11" s="5">
         <v>45593</v>
       </c>
@@ -1505,7 +1550,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
@@ -1514,13 +1559,13 @@
       <c r="U11" s="19"/>
       <c r="V11" s="19"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A12" s="4" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="5">
-        <v>45592</v>
+        <v>45593</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="2"/>
@@ -1542,15 +1587,13 @@
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A13" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>84</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="B13" s="4"/>
       <c r="C13" s="5">
-        <v>45590</v>
+        <v>45592</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="2"/>
@@ -1571,13 +1614,15 @@
       <c r="U13" s="19"/>
       <c r="V13" s="19"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A14" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="4"/>
+        <v>73</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>82</v>
+      </c>
       <c r="C14" s="5">
-        <v>45569</v>
+        <v>45590</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="2"/>
@@ -1595,9 +1640,9 @@
       <c r="U14" s="19"/>
       <c r="V14" s="19"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A15" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="5">
@@ -1617,9 +1662,9 @@
       <c r="U15" s="19"/>
       <c r="V15" s="19"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A16" s="4" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="5">
@@ -1638,9 +1683,9 @@
       <c r="U16" s="19"/>
       <c r="V16" s="19"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A17" s="4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="5">
@@ -1658,9 +1703,9 @@
       <c r="U17" s="19"/>
       <c r="V17" s="19"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A18" s="4" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="5">
@@ -1676,9 +1721,9 @@
       <c r="K18" s="21"/>
       <c r="L18" s="19"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A19" s="4" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="5">
@@ -1692,9 +1737,9 @@
       <c r="J19" s="21"/>
       <c r="K19" s="21"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A20" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="5">
@@ -1708,13 +1753,13 @@
       <c r="J20" s="21"/>
       <c r="K20" s="21"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A21" s="4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="5">
-        <v>45566</v>
+        <v>45569</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="2"/>
@@ -1724,16 +1769,16 @@
       <c r="J21" s="21"/>
       <c r="K21" s="21"/>
       <c r="M21" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A22" s="4" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="5">
-        <v>45564</v>
+        <v>45566</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="2"/>
@@ -1746,15 +1791,13 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A23" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>45</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B23" s="4"/>
       <c r="C23" s="5">
-        <v>45562</v>
+        <v>45564</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="2"/>
@@ -1769,15 +1812,15 @@
       <c r="N23" s="17"/>
       <c r="O23" s="24"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A24" s="4" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C24" s="5">
-        <v>45560</v>
+        <v>45562</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="2"/>
@@ -1787,17 +1830,17 @@
       <c r="J24" s="21"/>
       <c r="K24" s="21"/>
       <c r="M24" s="22" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N24" s="23"/>
       <c r="O24" s="23"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A25" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C25" s="5">
         <v>45560</v>
@@ -1813,20 +1856,18 @@
       <c r="N25" s="23"/>
       <c r="O25" s="23"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A26" s="4" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C26" s="5">
-        <v>45558</v>
+        <v>45560</v>
       </c>
       <c r="D26" s="5"/>
-      <c r="E26" s="2" t="s">
-        <v>38</v>
-      </c>
+      <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="I26" s="21"/>
@@ -1836,16 +1877,20 @@
       <c r="N26" s="23"/>
       <c r="O26" s="23"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A27" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" s="4"/>
+        <v>47</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="C27" s="5">
         <v>45558</v>
       </c>
       <c r="D27" s="5"/>
-      <c r="E27" s="2"/>
+      <c r="E27" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="I27" s="21"/>
@@ -1855,18 +1900,16 @@
       <c r="N27" s="23"/>
       <c r="O27" s="23"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A28" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="5">
-        <v>45554</v>
+        <v>45558</v>
       </c>
       <c r="D28" s="5"/>
-      <c r="E28" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="I28" s="21"/>
@@ -1876,19 +1919,17 @@
       <c r="N28" s="23"/>
       <c r="O28" s="23"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A29" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>43</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="B29" s="4"/>
       <c r="C29" s="5">
         <v>45554</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -1899,19 +1940,19 @@
       <c r="N29" s="23"/>
       <c r="O29" s="23"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A30" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>30</v>
+        <v>19</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="C30" s="5">
         <v>45554</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="2" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -1922,12 +1963,12 @@
       <c r="N30" s="23"/>
       <c r="O30" s="23"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A31" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C31" s="5">
         <v>45554</v>
@@ -1945,12 +1986,12 @@
       <c r="N31" s="23"/>
       <c r="O31" s="23"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A32" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C32" s="5">
         <v>45554</v>
@@ -1968,12 +2009,12 @@
       <c r="N32" s="23"/>
       <c r="O32" s="23"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A33" s="4" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C33" s="5">
         <v>45554</v>
@@ -1991,11 +2032,13 @@
       <c r="N33" s="23"/>
       <c r="O33" s="23"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A34" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" s="4"/>
+        <v>46</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="C34" s="5">
         <v>45554</v>
       </c>
@@ -2012,9 +2055,9 @@
       <c r="N34" s="23"/>
       <c r="O34" s="23"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A35" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="5">
@@ -2033,19 +2076,17 @@
       <c r="N35" s="23"/>
       <c r="O35" s="23"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A36" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B36" s="4"/>
       <c r="C36" s="5">
-        <v>45553</v>
+        <v>45554</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -2056,43 +2097,43 @@
       <c r="N36" s="23"/>
       <c r="O36" s="23"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A37" s="4" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C37" s="5">
         <v>45553</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>50</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="I37" s="21"/>
       <c r="J37" s="21"/>
       <c r="K37" s="21"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A38" s="4" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C38" s="5">
-        <v>45549</v>
+        <v>45553</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F38" s="2"/>
+      <c r="F38" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="G38" s="2"/>
       <c r="I38" s="21"/>
       <c r="J38" s="21"/>
@@ -2104,19 +2145,19 @@
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A39" s="4" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C39" s="5">
-        <v>45546</v>
+        <v>45549</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="2" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
@@ -2124,40 +2165,38 @@
       <c r="J39" s="21"/>
       <c r="K39" s="21"/>
       <c r="M39" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A40" s="4" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C40" s="5">
-        <v>45545</v>
+        <v>45546</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>50</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="I40" s="21"/>
       <c r="J40" s="21"/>
       <c r="K40" s="21"/>
       <c r="M40" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.4">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A41" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C41" s="5">
         <v>45545</v>
@@ -2167,40 +2206,50 @@
         <v>39</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G41" s="2" t="s">
         <v>50</v>
       </c>
+      <c r="G41" s="2"/>
       <c r="I41" s="21"/>
       <c r="J41" s="21"/>
       <c r="K41" s="21"/>
       <c r="M41" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A42" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B42" s="4"/>
-      <c r="C42" s="5"/>
+        <v>17</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" s="5">
+        <v>45545</v>
+      </c>
       <c r="D42" s="5"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
+      <c r="E42" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="I42" s="21"/>
       <c r="J42" s="21"/>
       <c r="K42" s="21"/>
       <c r="M42" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A43" s="4"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A43" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="B43" s="4"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
@@ -2211,12 +2260,16 @@
       <c r="J43" s="21"/>
       <c r="K43" s="21"/>
       <c r="M43" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A44" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="2"/>
@@ -2226,12 +2279,16 @@
       <c r="J44" s="21"/>
       <c r="K44" s="21"/>
       <c r="M44" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A45" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="2"/>
@@ -2241,43 +2298,52 @@
       <c r="J45" s="21"/>
       <c r="K45" s="21"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A46" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
       <c r="I46" s="21"/>
       <c r="J46" s="21"/>
       <c r="K46" s="21"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.6">
       <c r="I47" s="21"/>
       <c r="J47" s="21"/>
       <c r="K47" s="21"/>
       <c r="M47" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N47" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O47" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.6">
       <c r="I48" s="21"/>
       <c r="J48" s="21"/>
       <c r="K48" s="21"/>
     </row>
-    <row r="49" spans="9:13" x14ac:dyDescent="0.4">
+    <row r="49" spans="9:13" x14ac:dyDescent="0.6">
       <c r="I49" s="21"/>
       <c r="J49" s="21"/>
       <c r="K49" s="21"/>
     </row>
-    <row r="50" spans="9:13" x14ac:dyDescent="0.4">
+    <row r="50" spans="9:13" x14ac:dyDescent="0.6">
       <c r="M50" t="s">
         <v>72</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G22" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G42">
+  <autoFilter ref="A1:G22">
+    <sortState ref="A2:G46">
       <sortCondition descending="1" ref="C1:C22"/>
     </sortState>
   </autoFilter>
@@ -2292,11 +2358,17 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="M22" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="M21" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B9" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="M22" r:id="rId1"/>
+    <hyperlink ref="M21" r:id="rId2"/>
+    <hyperlink ref="B10" r:id="rId3"/>
+    <hyperlink ref="B8"/>
+    <hyperlink ref="B2"/>
+    <hyperlink ref="B3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B4" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/works.xlsx
+++ b/works.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="133">
   <si>
     <t>제목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -558,6 +558,14 @@
   </si>
   <si>
     <t>true 만 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://zighang.com/recruitment/fd43c784-201e-48d4-9715-263e203f4c03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대한항공</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1146,8 +1154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -1223,13 +1231,13 @@
     </row>
     <row r="2" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A2" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>119</v>
+        <v>132</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="C2" s="5">
-        <v>45609</v>
+        <v>45621</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="2"/>
@@ -1257,10 +1265,10 @@
     </row>
     <row r="3" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A3" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C3" s="5">
         <v>45609</v>
@@ -1293,13 +1301,13 @@
     </row>
     <row r="4" spans="1:22" ht="30" x14ac:dyDescent="0.6">
       <c r="A4" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C4" s="5">
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="2"/>
@@ -1331,13 +1339,13 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A5" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C5" s="5">
-        <v>45607</v>
+        <v>45608</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="2"/>
@@ -1371,9 +1379,11 @@
     </row>
     <row r="6" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A6" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B6" s="4"/>
+        <v>122</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>123</v>
+      </c>
       <c r="C6" s="5">
         <v>45607</v>
       </c>
@@ -1403,11 +1413,9 @@
     </row>
     <row r="7" spans="1:22" ht="14.85" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A7" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>128</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="B7" s="4"/>
       <c r="C7" s="5">
         <v>45607</v>
       </c>
@@ -1435,10 +1443,10 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A8" s="4" t="s">
-        <v>117</v>
+        <v>63</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C8" s="5">
         <v>45607</v>
@@ -1469,11 +1477,13 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A9" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B9" s="4"/>
+        <v>117</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>118</v>
+      </c>
       <c r="C9" s="5">
-        <v>45600</v>
+        <v>45607</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="2"/>
@@ -1499,13 +1509,11 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A10" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>67</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="B10" s="4"/>
       <c r="C10" s="5">
-        <v>45595</v>
+        <v>45600</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="2"/>
@@ -1531,11 +1539,13 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A11" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B11" s="14"/>
+        <v>68</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>67</v>
+      </c>
       <c r="C11" s="5">
-        <v>45593</v>
+        <v>45595</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="2"/>
@@ -1561,9 +1571,9 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A12" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B12" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="B12" s="14"/>
       <c r="C12" s="5">
         <v>45593</v>
       </c>
@@ -1589,11 +1599,11 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A13" s="4" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="5">
-        <v>45592</v>
+        <v>45593</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="2"/>
@@ -1616,13 +1626,11 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A14" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>82</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="B14" s="4"/>
       <c r="C14" s="5">
-        <v>45590</v>
+        <v>45592</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="2"/>
@@ -1642,11 +1650,13 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A15" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" s="4"/>
+        <v>73</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>82</v>
+      </c>
       <c r="C15" s="5">
-        <v>45569</v>
+        <v>45590</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="2"/>
@@ -1664,7 +1674,7 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A16" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="5">
@@ -1685,7 +1695,7 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A17" s="4" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="5">
@@ -1705,7 +1715,7 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A18" s="4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="5">
@@ -1723,7 +1733,7 @@
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A19" s="4" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="5">
@@ -1739,7 +1749,7 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A20" s="4" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="5">
@@ -1755,7 +1765,7 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A21" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="5">
@@ -1774,11 +1784,11 @@
     </row>
     <row r="22" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A22" s="4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="5">
-        <v>45566</v>
+        <v>45569</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="2"/>
@@ -1793,11 +1803,11 @@
     </row>
     <row r="23" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A23" s="4" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="5">
-        <v>45564</v>
+        <v>45566</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="2"/>
@@ -1814,13 +1824,11 @@
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A24" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>45</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B24" s="4"/>
       <c r="C24" s="5">
-        <v>45562</v>
+        <v>45564</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="2"/>
@@ -1837,13 +1845,13 @@
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A25" s="4" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C25" s="5">
-        <v>45560</v>
+        <v>45562</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="2"/>
@@ -1858,10 +1866,10 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A26" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C26" s="5">
         <v>45560</v>
@@ -1879,18 +1887,16 @@
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A27" s="4" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C27" s="5">
-        <v>45558</v>
+        <v>45560</v>
       </c>
       <c r="D27" s="5"/>
-      <c r="E27" s="2" t="s">
-        <v>38</v>
-      </c>
+      <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="I27" s="21"/>
@@ -1902,14 +1908,18 @@
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A28" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="4"/>
+        <v>47</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="C28" s="5">
         <v>45558</v>
       </c>
       <c r="D28" s="5"/>
-      <c r="E28" s="2"/>
+      <c r="E28" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="I28" s="21"/>
@@ -1921,16 +1931,14 @@
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A29" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="5">
-        <v>45554</v>
+        <v>45558</v>
       </c>
       <c r="D29" s="5"/>
-      <c r="E29" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="I29" s="21"/>
@@ -1942,17 +1950,15 @@
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A30" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>43</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="B30" s="4"/>
       <c r="C30" s="5">
         <v>45554</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -1965,17 +1971,17 @@
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A31" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>30</v>
+        <v>19</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="C31" s="5">
         <v>45554</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="2" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -1988,10 +1994,10 @@
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A32" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C32" s="5">
         <v>45554</v>
@@ -2011,10 +2017,10 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A33" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C33" s="5">
         <v>45554</v>
@@ -2034,10 +2040,10 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A34" s="4" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C34" s="5">
         <v>45554</v>
@@ -2057,9 +2063,11 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A35" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="4"/>
+        <v>46</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="C35" s="5">
         <v>45554</v>
       </c>
@@ -2078,7 +2086,7 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A36" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="5">
@@ -2099,17 +2107,15 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A37" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B37" s="4"/>
       <c r="C37" s="5">
-        <v>45553</v>
+        <v>45554</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -2119,21 +2125,19 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A38" s="4" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C38" s="5">
         <v>45553</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>50</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="I38" s="21"/>
       <c r="J38" s="21"/>
@@ -2147,19 +2151,21 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A39" s="4" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C39" s="5">
-        <v>45549</v>
+        <v>45553</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F39" s="2"/>
+      <c r="F39" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="G39" s="2"/>
       <c r="I39" s="21"/>
       <c r="J39" s="21"/>
@@ -2170,17 +2176,17 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A40" s="4" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C40" s="5">
-        <v>45546</v>
+        <v>45549</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="2" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
@@ -2193,21 +2199,19 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A41" s="4" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C41" s="5">
-        <v>45545</v>
+        <v>45546</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>50</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="I41" s="21"/>
       <c r="J41" s="21"/>
@@ -2218,10 +2222,10 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A42" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C42" s="5">
         <v>45545</v>
@@ -2231,11 +2235,9 @@
         <v>39</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G42" s="2" t="s">
         <v>50</v>
       </c>
+      <c r="G42" s="2"/>
       <c r="I42" s="21"/>
       <c r="J42" s="21"/>
       <c r="K42" s="21"/>
@@ -2248,14 +2250,24 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A43" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B43" s="4"/>
-      <c r="C43" s="5"/>
+        <v>17</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" s="5">
+        <v>45545</v>
+      </c>
       <c r="D43" s="5"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
+      <c r="E43" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="I43" s="21"/>
       <c r="J43" s="21"/>
       <c r="K43" s="21"/>
@@ -2265,11 +2277,9 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A44" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>91</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="B44" s="4"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="2"/>
@@ -2284,10 +2294,10 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A45" s="4" t="s">
-        <v>75</v>
+        <v>127</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
@@ -2300,9 +2310,11 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A46" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B46" s="4"/>
+        <v>75</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
       <c r="E46" s="2"/>
@@ -2313,6 +2325,15 @@
       <c r="K46" s="21"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A47" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B47" s="4"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
       <c r="I47" s="21"/>
       <c r="J47" s="21"/>
       <c r="K47" s="21"/>
@@ -2343,7 +2364,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:G22">
-    <sortState ref="A2:G46">
+    <sortState ref="A2:G47">
       <sortCondition descending="1" ref="C1:C22"/>
     </sortState>
   </autoFilter>
@@ -2360,15 +2381,16 @@
   <hyperlinks>
     <hyperlink ref="M22" r:id="rId1"/>
     <hyperlink ref="M21" r:id="rId2"/>
-    <hyperlink ref="B10" r:id="rId3"/>
-    <hyperlink ref="B8"/>
-    <hyperlink ref="B2"/>
-    <hyperlink ref="B3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B4" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B11" r:id="rId3"/>
+    <hyperlink ref="B9" display="https://www.saramin.co.kr/zf_user/jobs/relay/view?isMypage=no&amp;rec_idx=49315357&amp;recommend_ids=eJxVjrsVxEAIA6txDkj84ivE%2FXfhdeBlL5w3koANyYTfpXrlj41wut4t9mKx2RbbqmiHDaYLcHaDstHQVnlYlsa33JZF1GeLyx5hM9OasHAdrpnS%2FPvKfX0yXSkRbhQFfMJY9kQG4kCvzJ6pCIa%2B%2BABk8E"/>
+    <hyperlink ref="B3" display="https://www.saramin.co.kr/zf_user/jobs/relay/view?isMypage=no&amp;rec_idx=49300078&amp;recommend_ids=eJxVj8kRw0AIBKPxf4BZGN4ORPlnYR0lYT17e%2BkCtnm1YZPhU192mEDbGn6iI0u%2BW7ssqmLdKCalGusJ54NOrFc5Yy%2Ff1gpcfKwpVYfNC2Gd%2Fve5Q5NyeTHHNm3lpABVzxoRr9lQ0ueE3p8mhZAWZrbE0I"/>
+    <hyperlink ref="B4" display="https://www.saramin.co.kr/zf_user/jobs/relay/view?isMypage=no&amp;rec_idx=49198381&amp;recommend_ids=eJxNj8ENAzEIBKvJn4WFhXcKSf9dxLlItp8jDaOFPWTKPg289OaESZEbfZhWC%2BtBuAY%2F2f4yKoiN1qRio7N133a1cMrtYm0ZQ%2BTBsBHqmuHy2QgZk0eu1T7lNele5RHRZzOozOvB6KKfsmHKr1S1PeUvYUdA"/>
+    <hyperlink ref="B6" r:id="rId4"/>
+    <hyperlink ref="B5" r:id="rId5"/>
+    <hyperlink ref="B8" r:id="rId6"/>
+    <hyperlink ref="B2" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/works.xlsx
+++ b/works.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="135">
   <si>
     <t>제목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -566,6 +566,14 @@
   </si>
   <si>
     <t>대한항공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미라콤아이엔씨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://miracom-inc.recruiter.co.kr/app/jobnotice/view?systemKindCode=MRS2&amp;jobnoticeSn=197928</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1155,7 +1163,7 @@
   <dimension ref="A1:V50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -1265,13 +1273,11 @@
     </row>
     <row r="3" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A3" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>119</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="B3" s="4"/>
       <c r="C3" s="5">
-        <v>45609</v>
+        <v>45614</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="2"/>
@@ -1301,13 +1307,13 @@
     </row>
     <row r="4" spans="1:22" ht="30" x14ac:dyDescent="0.6">
       <c r="A4" s="4" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C4" s="5">
-        <v>45609</v>
+        <v>45611</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="2"/>
@@ -1339,13 +1345,13 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A5" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C5" s="5">
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="2"/>
@@ -1379,13 +1385,13 @@
     </row>
     <row r="6" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A6" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C6" s="5">
-        <v>45607</v>
+        <v>45609</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="2"/>
@@ -1413,11 +1419,13 @@
     </row>
     <row r="7" spans="1:22" ht="14.85" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A7" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B7" s="4"/>
+        <v>124</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>125</v>
+      </c>
       <c r="C7" s="5">
-        <v>45607</v>
+        <v>45608</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="2"/>
@@ -1443,10 +1451,10 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A8" s="4" t="s">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C8" s="5">
         <v>45607</v>
@@ -1477,10 +1485,10 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A9" s="4" t="s">
-        <v>117</v>
+        <v>63</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C9" s="5">
         <v>45607</v>
@@ -1509,11 +1517,13 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A10" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B10" s="4"/>
+        <v>117</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>118</v>
+      </c>
       <c r="C10" s="5">
-        <v>45600</v>
+        <v>45607</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="2"/>
@@ -1539,13 +1549,11 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A11" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>67</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="B11" s="4"/>
       <c r="C11" s="5">
-        <v>45595</v>
+        <v>45600</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="2"/>
@@ -1571,11 +1579,13 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A12" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B12" s="14"/>
+        <v>68</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>67</v>
+      </c>
       <c r="C12" s="5">
-        <v>45593</v>
+        <v>45595</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="2"/>
@@ -1599,9 +1609,9 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A13" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B13" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="B13" s="14"/>
       <c r="C13" s="5">
         <v>45593</v>
       </c>
@@ -1626,11 +1636,11 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A14" s="4" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="5">
-        <v>45592</v>
+        <v>45593</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="2"/>
@@ -1650,13 +1660,11 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A15" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>82</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="B15" s="4"/>
       <c r="C15" s="5">
-        <v>45590</v>
+        <v>45592</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="2"/>
@@ -1674,11 +1682,13 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A16" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="4"/>
+        <v>73</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>82</v>
+      </c>
       <c r="C16" s="5">
-        <v>45569</v>
+        <v>45590</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="2"/>
@@ -1695,7 +1705,7 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A17" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="5">
@@ -1715,7 +1725,7 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A18" s="4" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="5">
@@ -1733,7 +1743,7 @@
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A19" s="4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="5">
@@ -1749,7 +1759,7 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A20" s="4" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="5">
@@ -1765,7 +1775,7 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A21" s="4" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="5">
@@ -1784,7 +1794,7 @@
     </row>
     <row r="22" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A22" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="5">
@@ -1803,11 +1813,11 @@
     </row>
     <row r="23" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A23" s="4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="5">
-        <v>45566</v>
+        <v>45569</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="2"/>
@@ -1824,11 +1834,11 @@
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A24" s="4" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="5">
-        <v>45564</v>
+        <v>45566</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="2"/>
@@ -1845,13 +1855,11 @@
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A25" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>45</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B25" s="4"/>
       <c r="C25" s="5">
-        <v>45562</v>
+        <v>45564</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="2"/>
@@ -1866,13 +1874,13 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A26" s="4" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C26" s="5">
-        <v>45560</v>
+        <v>45562</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="2"/>
@@ -1887,10 +1895,10 @@
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A27" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C27" s="5">
         <v>45560</v>
@@ -1908,18 +1916,16 @@
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A28" s="4" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C28" s="5">
-        <v>45558</v>
+        <v>45560</v>
       </c>
       <c r="D28" s="5"/>
-      <c r="E28" s="2" t="s">
-        <v>38</v>
-      </c>
+      <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="I28" s="21"/>
@@ -1931,14 +1937,18 @@
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A29" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" s="4"/>
+        <v>47</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="C29" s="5">
         <v>45558</v>
       </c>
       <c r="D29" s="5"/>
-      <c r="E29" s="2"/>
+      <c r="E29" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="I29" s="21"/>
@@ -1950,16 +1960,14 @@
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A30" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="5">
-        <v>45554</v>
+        <v>45558</v>
       </c>
       <c r="D30" s="5"/>
-      <c r="E30" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="I30" s="21"/>
@@ -1971,17 +1979,15 @@
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A31" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>43</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="B31" s="4"/>
       <c r="C31" s="5">
         <v>45554</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -1994,17 +2000,17 @@
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A32" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>30</v>
+        <v>19</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="C32" s="5">
         <v>45554</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="2" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -2017,10 +2023,10 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A33" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C33" s="5">
         <v>45554</v>
@@ -2040,10 +2046,10 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A34" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C34" s="5">
         <v>45554</v>
@@ -2063,10 +2069,10 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A35" s="4" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C35" s="5">
         <v>45554</v>
@@ -2086,9 +2092,11 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A36" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" s="4"/>
+        <v>46</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="C36" s="5">
         <v>45554</v>
       </c>
@@ -2107,7 +2115,7 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A37" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="5">
@@ -2125,17 +2133,15 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A38" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B38" s="4"/>
       <c r="C38" s="5">
-        <v>45553</v>
+        <v>45554</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
@@ -2151,21 +2157,19 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A39" s="4" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C39" s="5">
         <v>45553</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>50</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="I39" s="21"/>
       <c r="J39" s="21"/>
@@ -2176,19 +2180,21 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A40" s="4" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C40" s="5">
-        <v>45549</v>
+        <v>45553</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F40" s="2"/>
+      <c r="F40" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="G40" s="2"/>
       <c r="I40" s="21"/>
       <c r="J40" s="21"/>
@@ -2199,17 +2205,17 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A41" s="4" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C41" s="5">
-        <v>45546</v>
+        <v>45549</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="2" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
@@ -2222,21 +2228,19 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A42" s="4" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C42" s="5">
-        <v>45545</v>
+        <v>45546</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>50</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="I42" s="21"/>
       <c r="J42" s="21"/>
@@ -2250,10 +2254,10 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A43" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C43" s="5">
         <v>45545</v>
@@ -2263,11 +2267,9 @@
         <v>39</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G43" s="2" t="s">
         <v>50</v>
       </c>
+      <c r="G43" s="2"/>
       <c r="I43" s="21"/>
       <c r="J43" s="21"/>
       <c r="K43" s="21"/>
@@ -2277,14 +2279,24 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A44" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B44" s="4"/>
-      <c r="C44" s="5"/>
+        <v>17</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" s="5">
+        <v>45545</v>
+      </c>
       <c r="D44" s="5"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
+      <c r="E44" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="I44" s="21"/>
       <c r="J44" s="21"/>
       <c r="K44" s="21"/>
@@ -2294,11 +2306,9 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A45" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>91</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="B45" s="4"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="2"/>
@@ -2310,10 +2320,10 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A46" s="4" t="s">
-        <v>75</v>
+        <v>127</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
@@ -2326,9 +2336,11 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A47" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B47" s="4"/>
+        <v>75</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
       <c r="E47" s="2"/>
@@ -2348,6 +2360,15 @@
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A48" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B48" s="4"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
       <c r="I48" s="21"/>
       <c r="J48" s="21"/>
       <c r="K48" s="21"/>
@@ -2364,7 +2385,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:G22">
-    <sortState ref="A2:G47">
+    <sortState ref="A2:G48">
       <sortCondition descending="1" ref="C1:C22"/>
     </sortState>
   </autoFilter>
@@ -2381,16 +2402,17 @@
   <hyperlinks>
     <hyperlink ref="M22" r:id="rId1"/>
     <hyperlink ref="M21" r:id="rId2"/>
-    <hyperlink ref="B11" r:id="rId3"/>
-    <hyperlink ref="B9" display="https://www.saramin.co.kr/zf_user/jobs/relay/view?isMypage=no&amp;rec_idx=49315357&amp;recommend_ids=eJxVjrsVxEAIA6txDkj84ivE%2FXfhdeBlL5w3koANyYTfpXrlj41wut4t9mKx2RbbqmiHDaYLcHaDstHQVnlYlsa33JZF1GeLyx5hM9OasHAdrpnS%2FPvKfX0yXSkRbhQFfMJY9kQG4kCvzJ6pCIa%2B%2BABk8E"/>
-    <hyperlink ref="B3" display="https://www.saramin.co.kr/zf_user/jobs/relay/view?isMypage=no&amp;rec_idx=49300078&amp;recommend_ids=eJxVj8kRw0AIBKPxf4BZGN4ORPlnYR0lYT17e%2BkCtnm1YZPhU192mEDbGn6iI0u%2BW7ssqmLdKCalGusJ54NOrFc5Yy%2Ff1gpcfKwpVYfNC2Gd%2Fve5Q5NyeTHHNm3lpABVzxoRr9lQ0ueE3p8mhZAWZrbE0I"/>
-    <hyperlink ref="B4" display="https://www.saramin.co.kr/zf_user/jobs/relay/view?isMypage=no&amp;rec_idx=49198381&amp;recommend_ids=eJxNj8ENAzEIBKvJn4WFhXcKSf9dxLlItp8jDaOFPWTKPg289OaESZEbfZhWC%2BtBuAY%2F2f4yKoiN1qRio7N133a1cMrtYm0ZQ%2BTBsBHqmuHy2QgZk0eu1T7lNele5RHRZzOozOvB6KKfsmHKr1S1PeUvYUdA"/>
-    <hyperlink ref="B6" r:id="rId4"/>
-    <hyperlink ref="B5" r:id="rId5"/>
-    <hyperlink ref="B8" r:id="rId6"/>
+    <hyperlink ref="B12" r:id="rId3"/>
+    <hyperlink ref="B10" display="https://www.saramin.co.kr/zf_user/jobs/relay/view?isMypage=no&amp;rec_idx=49315357&amp;recommend_ids=eJxVjrsVxEAIA6txDkj84ivE%2FXfhdeBlL5w3koANyYTfpXrlj41wut4t9mKx2RbbqmiHDaYLcHaDstHQVnlYlsa33JZF1GeLyx5hM9OasHAdrpnS%2FPvKfX0yXSkRbhQFfMJY9kQG4kCvzJ6pCIa%2B%2BABk8E"/>
+    <hyperlink ref="B5" display="https://www.saramin.co.kr/zf_user/jobs/relay/view?isMypage=no&amp;rec_idx=49300078&amp;recommend_ids=eJxVj8kRw0AIBKPxf4BZGN4ORPlnYR0lYT17e%2BkCtnm1YZPhU192mEDbGn6iI0u%2BW7ssqmLdKCalGusJ54NOrFc5Yy%2Ff1gpcfKwpVYfNC2Gd%2Fve5Q5NyeTHHNm3lpABVzxoRr9lQ0ueE3p8mhZAWZrbE0I"/>
+    <hyperlink ref="B6" display="https://www.saramin.co.kr/zf_user/jobs/relay/view?isMypage=no&amp;rec_idx=49198381&amp;recommend_ids=eJxNj8ENAzEIBKvJn4WFhXcKSf9dxLlItp8jDaOFPWTKPg289OaESZEbfZhWC%2BtBuAY%2F2f4yKoiN1qRio7N133a1cMrtYm0ZQ%2BTBsBHqmuHy2QgZk0eu1T7lNele5RHRZzOozOvB6KKfsmHKr1S1PeUvYUdA"/>
+    <hyperlink ref="B8" r:id="rId4"/>
+    <hyperlink ref="B7" r:id="rId5"/>
+    <hyperlink ref="B9" r:id="rId6"/>
     <hyperlink ref="B2" r:id="rId7"/>
+    <hyperlink ref="B4" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>